--- a/otherinfos/Kalibration/DruckSensor (version 1).xlsx
+++ b/otherinfos/Kalibration/DruckSensor (version 1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9242778F-8B70-4C7F-A028-0FDE3ACEA223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72914290-9759-4362-8FEB-EE25AD5F9105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 Spannung" sheetId="6" r:id="rId1"/>
@@ -38,6 +38,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,7 +1010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1076,37 +1098,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1127,56 +1119,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,17 +1139,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1211,7 +1157,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1263,25 +1209,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1303,10 +1230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1329,6 +1252,88 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,19 +1520,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.666666666666607</c:v>
+                  <c:v>50.00000000000027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>233.33333333333073</c:v>
+                  <c:v>60.000000000002274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.999999999994316</c:v>
+                  <c:v>116.66666666667425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.999999999998295</c:v>
+                  <c:v>89.999999999996305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.66666666666202</c:v>
+                  <c:v>56.666666666664867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,19 +1627,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.9999999999997868</c:v>
+                  <c:v>263.33333333333275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.66666666666515</c:v>
+                  <c:v>129.99999999999901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.33333333333599</c:v>
+                  <c:v>186.66666666666742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.00000000000057</c:v>
+                  <c:v>210.00000000000085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170.00000000000171</c:v>
+                  <c:v>209.99999999999375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8884,7 +8889,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'P1 Spannung (2)'!$AA$11</c15:sqref>
@@ -9125,7 +9130,7 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'P1 Spannung (2)'!$Z$12:$Z$20</c15:sqref>
@@ -9167,7 +9172,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'P1 Spannung (2)'!$AA$12:$AA$20</c15:sqref>
@@ -10198,19 +10203,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.8885037550548717E-4</c:v>
+                  <c:v>8.7229588276343812E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0439052570767891E-3</c:v>
+                  <c:v>1.0467550593161597E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7331022530328306E-3</c:v>
+                  <c:v>2.0353570597814769E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3864818024263137E-3</c:v>
+                  <c:v>1.5701325889741155E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8486424032350438E-3</c:v>
+                  <c:v>9.8860200046519309E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10305,19 +10310,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7331022530328921E-4</c:v>
+                  <c:v>4.5940916492207386E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1952628538416839E-3</c:v>
+                  <c:v>2.2679692951849094E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6574234546505372E-3</c:v>
+                  <c:v>3.2565712956501643E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4263431542461108E-3</c:v>
+                  <c:v>3.6636427076064348E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9462738301560092E-3</c:v>
+                  <c:v>3.6636427076063112E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18758,19 +18763,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.7833333333333332</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.666666666666668</c:v>
+                  <c:v>19.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>35.763333333333328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.46</c:v>
+                  <c:v>51.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.363333333333337</c:v>
+                  <c:v>60.993333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18782,19 +18787,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.4400000000000004</c:v>
+                  <c:v>4.5566666666666675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.393333333333334</c:v>
+                  <c:v>23.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.976666666666667</c:v>
+                  <c:v>41.993333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.29</c:v>
+                  <c:v>60.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.56</c:v>
+                  <c:v>71.290000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20738,57 +20743,29 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.26851759016949733"/>
-                  <c:y val="-6.8019879180513443E-2"/>
+                  <c:x val="-0.37855160779828201"/>
+                  <c:y val="-3.6179093139313466E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Arduino</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = 0,2314x + 4,6983</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0,9999</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -20850,19 +20827,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.4400000000000004</c:v>
+                  <c:v>4.5566666666666675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.393333333333334</c:v>
+                  <c:v>23.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.976666666666667</c:v>
+                  <c:v>41.993333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.29</c:v>
+                  <c:v>60.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.56</c:v>
+                  <c:v>71.290000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20981,57 +20958,29 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40410044043798216"/>
-                  <c:y val="-0.13361158503182199"/>
+                  <c:x val="-0.25137822278448879"/>
+                  <c:y val="-0.12203388661922306"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Multimeter</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = x</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 1</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -21093,19 +21042,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.7833333333333332</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.666666666666668</c:v>
+                  <c:v>19.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>35.763333333333328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.46</c:v>
+                  <c:v>51.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.363333333333337</c:v>
+                  <c:v>60.993333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21238,57 +21187,29 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14600205555248888"/>
-                  <c:y val="-0.58066342910222768"/>
+                  <c:x val="-0.11148749926931631"/>
+                  <c:y val="-0.13328032803531067"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Arduino angepasst</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = 0</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = #N/A</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -21350,19 +21271,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.8833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19.756666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>35.853333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>51.419999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>60.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -44229,10 +44150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D6FC5D-20FD-4585-85D2-0A365BB12AD8}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44258,1123 +44179,1001 @@
     <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
+      <c r="S2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="106" t="s">
+    <row r="3" spans="2:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="85">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="59">
         <v>0</v>
       </c>
-      <c r="C4" s="59">
-        <v>3.77</v>
-      </c>
-      <c r="D4" s="70">
+      <c r="C4" s="49">
+        <v>3.73</v>
+      </c>
+      <c r="D4" s="55">
         <v>3.78</v>
       </c>
-      <c r="E4" s="107">
-        <v>3.8</v>
-      </c>
-      <c r="F4" s="131">
+      <c r="E4" s="81">
+        <v>3.83</v>
+      </c>
+      <c r="F4" s="96">
         <f>(C4+D4+E4)/3</f>
-        <v>3.7833333333333332</v>
-      </c>
-      <c r="G4" s="131">
+        <v>3.78</v>
+      </c>
+      <c r="G4" s="96">
         <f>MAX(C4-F4,D4-F4,E4-F4)*$S$3</f>
-        <v>16.666666666666607</v>
-      </c>
-      <c r="H4" s="135">
+        <v>50.00000000000027</v>
+      </c>
+      <c r="H4" s="100">
         <f>(G4/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>2.8885037550548717E-4</v>
-      </c>
-      <c r="I4" s="111">
-        <v>5</v>
-      </c>
-      <c r="J4" s="132">
+        <v>8.7229588276343812E-4</v>
+      </c>
+      <c r="I4" s="85">
+        <v>5.2039999999999997</v>
+      </c>
+      <c r="J4" s="97">
         <f>(F8-F4)/I4/1</f>
-        <v>11.516000000000002</v>
-      </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
+        <v>10.994107097104791</v>
+      </c>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="86">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="60">
         <v>80</v>
       </c>
       <c r="C5" s="8">
-        <v>19.899999999999999</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="D5" s="9">
-        <v>19.5</v>
-      </c>
-      <c r="E5" s="108">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="F5" s="133">
+        <v>19.84</v>
+      </c>
+      <c r="E5" s="82">
+        <v>20</v>
+      </c>
+      <c r="F5" s="98">
         <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
-        <v>19.666666666666668</v>
-      </c>
-      <c r="G5" s="131">
+        <v>19.95</v>
+      </c>
+      <c r="G5" s="96">
         <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
-        <v>233.33333333333073</v>
-      </c>
-      <c r="H5" s="136">
+        <v>60.000000000002274</v>
+      </c>
+      <c r="H5" s="101">
         <f>(G5/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>4.0439052570767891E-3</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="105"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="113"/>
+        <v>1.0467550593161597E-3</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
+      <c r="R5" s="39"/>
       <c r="S5" s="40"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="86">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="60">
         <v>160</v>
       </c>
       <c r="C6" s="8">
-        <v>35.6</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D6" s="9">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="E6" s="108">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="F6" s="133">
+        <v>35.71</v>
+      </c>
+      <c r="E6" s="82">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="F6" s="98">
         <f t="shared" si="0"/>
-        <v>35.700000000000003</v>
-      </c>
-      <c r="G6" s="131">
+        <v>35.763333333333328</v>
+      </c>
+      <c r="G6" s="96">
         <f t="shared" si="1"/>
-        <v>99.999999999994316</v>
-      </c>
-      <c r="H6" s="136">
+        <v>116.66666666667425</v>
+      </c>
+      <c r="H6" s="101">
         <f>(G6/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>1.7331022530328306E-3</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="105"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="113"/>
+        <v>2.0353570597814769E-3</v>
+      </c>
+      <c r="J6" s="79"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="40"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="86">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="60">
         <v>240</v>
       </c>
       <c r="C7" s="8">
-        <v>51.39</v>
+        <v>51.1</v>
       </c>
       <c r="D7" s="9">
-        <v>51.45</v>
-      </c>
-      <c r="E7" s="108">
-        <v>51.54</v>
-      </c>
-      <c r="F7" s="133">
+        <v>51.3</v>
+      </c>
+      <c r="E7" s="82">
+        <v>51.23</v>
+      </c>
+      <c r="F7" s="98">
         <f t="shared" si="0"/>
-        <v>51.46</v>
-      </c>
-      <c r="G7" s="131">
+        <v>51.21</v>
+      </c>
+      <c r="G7" s="96">
         <f t="shared" si="1"/>
-        <v>79.999999999998295</v>
-      </c>
-      <c r="H7" s="136">
+        <v>89.999999999996305</v>
+      </c>
+      <c r="H7" s="101">
         <f>(G7/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>1.3864818024263137E-3</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="105"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
+        <v>1.5701325889741155E-3</v>
+      </c>
+      <c r="J7" s="79"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="40"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="87">
+    <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61">
         <v>290</v>
       </c>
       <c r="C8" s="12">
-        <v>61.47</v>
+        <v>61.05</v>
       </c>
       <c r="D8" s="41">
-        <v>61.38</v>
-      </c>
-      <c r="E8" s="109">
-        <v>61.24</v>
-      </c>
-      <c r="F8" s="134">
+        <v>60.9</v>
+      </c>
+      <c r="E8" s="83">
+        <v>61.03</v>
+      </c>
+      <c r="F8" s="99">
         <f t="shared" si="0"/>
-        <v>61.363333333333337</v>
-      </c>
-      <c r="G8" s="132">
+        <v>60.993333333333332</v>
+      </c>
+      <c r="G8" s="97">
         <f t="shared" si="1"/>
-        <v>106.66666666666202</v>
-      </c>
-      <c r="H8" s="137">
+        <v>56.666666666664867</v>
+      </c>
+      <c r="H8" s="102">
         <f>(G8/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>1.8486424032350438E-3</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="113"/>
+        <v>9.8860200046519309E-4</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="R8" s="39"/>
       <c r="S8" s="40"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="39"/>
       <c r="I9" s="40"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
     </row>
-    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
     </row>
-    <row r="11" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106" t="s">
+    <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
     </row>
-    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="85">
+    <row r="12" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="59">
         <v>0</v>
       </c>
       <c r="C12" s="19">
-        <v>4.43</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D12" s="19">
+        <v>4.82</v>
+      </c>
+      <c r="E12" s="19">
         <v>4.45</v>
       </c>
-      <c r="E12" s="19">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="F12" s="131">
+      <c r="F12" s="96">
         <f>(C12+D12+E12)/3</f>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="G12" s="130">
+        <v>4.5566666666666675</v>
+      </c>
+      <c r="G12" s="95">
         <f>MAX(C12-F12,D12-F12,E12-F12)*$S$3</f>
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="H12" s="135">
+        <v>263.33333333333275</v>
+      </c>
+      <c r="H12" s="100">
         <f>(G12/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>1.7331022530328921E-4</v>
-      </c>
-      <c r="I12" s="111">
+        <v>4.5940916492207386E-3</v>
+      </c>
+      <c r="I12" s="85">
         <f>$I$4</f>
-        <v>5</v>
-      </c>
-      <c r="J12" s="132">
+        <v>5.2039999999999997</v>
+      </c>
+      <c r="J12" s="97">
         <f>(F16-F12)/I12/1</f>
-        <v>13.424000000000001</v>
+        <v>12.823469126313093</v>
       </c>
       <c r="K12" s="38"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="86">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="60">
         <v>80</v>
       </c>
       <c r="C13" s="9">
-        <v>23.38</v>
+        <v>23.23</v>
       </c>
       <c r="D13" s="9">
-        <v>23.52</v>
+        <v>23.2</v>
       </c>
       <c r="E13" s="9">
+        <v>23.41</v>
+      </c>
+      <c r="F13" s="98">
+        <f t="shared" ref="F13:F16" si="2">(C13+D13+E13)/3</f>
         <v>23.28</v>
       </c>
-      <c r="F13" s="133">
-        <f t="shared" ref="F13:F16" si="2">(C13+D13+E13)/3</f>
-        <v>23.393333333333334</v>
-      </c>
-      <c r="G13" s="131">
+      <c r="G13" s="96">
         <f t="shared" ref="G13:G16" si="3">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
-        <v>126.66666666666515</v>
-      </c>
-      <c r="H13" s="136">
+        <v>129.99999999999901</v>
+      </c>
+      <c r="H13" s="101">
         <f>(G13/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>2.1952628538416839E-3</v>
-      </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="105"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
+        <v>2.2679692951849094E-3</v>
+      </c>
+      <c r="J13" s="79"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="86">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
         <v>160</v>
       </c>
       <c r="C14" s="9">
-        <v>41.95</v>
+        <v>41.9</v>
       </c>
       <c r="D14" s="9">
-        <v>41.85</v>
+        <v>42.18</v>
       </c>
       <c r="E14" s="9">
-        <v>42.13</v>
-      </c>
-      <c r="F14" s="133">
+        <v>41.9</v>
+      </c>
+      <c r="F14" s="98">
         <f t="shared" si="2"/>
-        <v>41.976666666666667</v>
-      </c>
-      <c r="G14" s="131">
+        <v>41.993333333333332</v>
+      </c>
+      <c r="G14" s="96">
         <f t="shared" si="3"/>
-        <v>153.33333333333599</v>
-      </c>
-      <c r="H14" s="136">
+        <v>186.66666666666742</v>
+      </c>
+      <c r="H14" s="101">
         <f>(G14/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>2.6574234546505372E-3</v>
-      </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="105"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
+        <v>3.2565712956501643E-3</v>
+      </c>
+      <c r="J14" s="79"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="86">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="60">
         <v>240</v>
       </c>
       <c r="C15" s="9">
-        <v>60.09</v>
+        <v>60.13</v>
       </c>
       <c r="D15" s="9">
-        <v>60.35</v>
+        <v>60.27</v>
       </c>
       <c r="E15" s="9">
-        <v>60.43</v>
-      </c>
-      <c r="F15" s="133">
+        <v>59.78</v>
+      </c>
+      <c r="F15" s="98">
         <f t="shared" si="2"/>
-        <v>60.29</v>
-      </c>
-      <c r="G15" s="131">
+        <v>60.06</v>
+      </c>
+      <c r="G15" s="96">
         <f t="shared" si="3"/>
-        <v>140.00000000000057</v>
-      </c>
-      <c r="H15" s="136">
+        <v>210.00000000000085</v>
+      </c>
+      <c r="H15" s="101">
         <f>(G15/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>2.4263431542461108E-3</v>
-      </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="105"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
+        <v>3.6636427076064348E-3</v>
+      </c>
+      <c r="J15" s="79"/>
     </row>
-    <row r="16" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="87">
+    <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="61">
         <v>290</v>
       </c>
       <c r="C16" s="41">
-        <v>71.400000000000006</v>
+        <v>71.22</v>
       </c>
       <c r="D16" s="41">
-        <v>71.73</v>
+        <v>71.5</v>
       </c>
       <c r="E16" s="41">
-        <v>71.55</v>
-      </c>
-      <c r="F16" s="134">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="F16" s="99">
         <f t="shared" si="2"/>
-        <v>71.56</v>
-      </c>
-      <c r="G16" s="132">
+        <v>71.290000000000006</v>
+      </c>
+      <c r="G16" s="97">
         <f t="shared" si="3"/>
-        <v>170.00000000000171</v>
-      </c>
-      <c r="H16" s="137">
+        <v>209.99999999999375</v>
+      </c>
+      <c r="H16" s="102">
         <f>(G16/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>2.9462738301560092E-3</v>
-      </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
+        <v>3.6636427076063112E-3</v>
+      </c>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
+    <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="123" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="95" cm="1">
+        <f t="array" ref="B20:B24">F4:F8</f>
+        <v>3.78</v>
+      </c>
+      <c r="C20" s="32" cm="1">
+        <f t="array" ref="C20:E24">C28:E32</f>
+        <v>3.68</v>
+      </c>
+      <c r="D20" s="33">
+        <v>4.01</v>
+      </c>
+      <c r="E20" s="34">
+        <v>3.96</v>
+      </c>
+      <c r="F20" s="96">
+        <f>(C20+D20+E20)/3</f>
+        <v>3.8833333333333329</v>
+      </c>
+      <c r="G20" s="95">
+        <f>MAX(C20-F20,D20-F20,E20-F20)*$S$3</f>
+        <v>126.66666666666693</v>
+      </c>
+      <c r="H20" s="100">
+        <f>(G20)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
+        <v>2.2055836090312888</v>
+      </c>
+      <c r="I20" s="92"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="130">
-        <f>F4</f>
-        <v>3.7833333333333332</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="131">
-        <f>(C20+D20+E20)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="130">
-        <f>MAX(C20-F20,D20-F20,E20-F20)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="135" t="e">
-        <f>(G20)/((MAX(C20:E24)-MIN(C20:E24)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="125"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="96">
+        <v>19.95</v>
+      </c>
+      <c r="C21" s="5">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19.71</v>
+      </c>
+      <c r="E21" s="30">
+        <v>19.8</v>
+      </c>
+      <c r="F21" s="98">
+        <f t="shared" ref="F21:F24" si="4">(C21+D21+E21)/3</f>
+        <v>19.756666666666664</v>
+      </c>
+      <c r="G21" s="96">
+        <f t="shared" ref="G21:G24" si="5">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
+        <v>43.333333333336554</v>
+      </c>
+      <c r="H21" s="100">
+        <f t="shared" ref="H21:H24" si="6">(G21)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
+        <v>0.75454176098444292</v>
+      </c>
+      <c r="I21" s="93"/>
+      <c r="L21" s="2"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="131">
-        <f t="shared" ref="B21:B24" si="4">F5</f>
-        <v>19.666666666666668</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="133">
-        <f t="shared" ref="F21:F24" si="5">(C21+D21+E21)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="131">
-        <f t="shared" ref="G21:G24" si="6">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="136" t="e">
-        <f>(G21)/((MAX(C35:E39)-MIN(C35:E39)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="126"/>
-      <c r="L21" s="2"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="96">
+        <v>35.763333333333328</v>
+      </c>
+      <c r="C22" s="5">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="D22" s="3">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="E22" s="30">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="F22" s="98">
+        <f t="shared" si="4"/>
+        <v>35.853333333333332</v>
+      </c>
+      <c r="G22" s="96">
+        <f t="shared" si="5"/>
+        <v>56.666666666664867</v>
+      </c>
+      <c r="H22" s="100">
+        <f t="shared" si="6"/>
+        <v>0.98670845667185902</v>
+      </c>
+      <c r="I22" s="93"/>
+      <c r="L22" s="2"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="131">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="96">
+        <v>51.21</v>
+      </c>
+      <c r="C23" s="5">
+        <v>51.3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>51.5</v>
+      </c>
+      <c r="E23" s="30">
+        <v>51.46</v>
+      </c>
+      <c r="F23" s="98">
         <f t="shared" si="4"/>
-        <v>35.700000000000003</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="133">
+        <v>51.419999999999995</v>
+      </c>
+      <c r="G23" s="96">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="131">
+        <v>80.0000000000054</v>
+      </c>
+      <c r="H23" s="100">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="136" t="e">
-        <f>(G22)/((MAX(C39:E41)-MIN(C39:E41)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="126"/>
-      <c r="L22" s="2"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
+        <v>1.3930001741251159</v>
+      </c>
+      <c r="I23" s="93"/>
+      <c r="L23" s="2"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="131">
+    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="97">
+        <v>60.993333333333332</v>
+      </c>
+      <c r="C24" s="29">
+        <v>61.11</v>
+      </c>
+      <c r="D24" s="6">
+        <v>60.82</v>
+      </c>
+      <c r="E24" s="31">
+        <v>61.04</v>
+      </c>
+      <c r="F24" s="99">
         <f t="shared" si="4"/>
-        <v>51.46</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="133">
+        <v>60.99</v>
+      </c>
+      <c r="G24" s="97">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="131">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="136" t="e">
-        <f>(G23)/((MAX(C39:E41)-MIN(C39:E41)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="126"/>
-      <c r="L23" s="2"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-    </row>
-    <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="132">
-        <f t="shared" si="4"/>
-        <v>61.363333333333337</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="134">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="132">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="137" t="e">
-        <f>(G24)/((MAX(C39:E41)-MIN(C39:E41)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="127"/>
+        <v>119.99999999999744</v>
+      </c>
+      <c r="H24" s="100">
+        <f>(G24)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
+        <v>2.0895002611874882</v>
+      </c>
+      <c r="I24" s="94"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44" t="s">
+    <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="106" t="s">
+    <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="106" t="s">
+      <c r="E27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="106" t="s">
+      <c r="H27" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="104" t="s">
+      <c r="J27" s="78" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="85">
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="59">
         <v>0</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="131">
+      <c r="C28" s="19">
+        <v>3.68</v>
+      </c>
+      <c r="D28" s="19">
+        <v>4.01</v>
+      </c>
+      <c r="E28" s="19">
+        <v>3.96</v>
+      </c>
+      <c r="F28" s="96">
         <f>(C28+D28+E28)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="130">
+        <v>3.8833333333333329</v>
+      </c>
+      <c r="G28" s="95">
         <f>MAX(C28-F28,D28-F28,E28-F28)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="135">
+        <v>126.66666666666693</v>
+      </c>
+      <c r="H28" s="100">
         <f>(G28/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="111">
+        <v>2.2098162363340355E-3</v>
+      </c>
+      <c r="I28" s="85">
         <f>$I$4</f>
-        <v>5</v>
-      </c>
-      <c r="J28" s="132">
+        <v>5.2039999999999997</v>
+      </c>
+      <c r="J28" s="97">
         <f>(F32-F28)/I28/1</f>
-        <v>0</v>
+        <v>10.97361004355624</v>
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="86">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="60">
         <v>80</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="133">
+      <c r="C29" s="9">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="D29" s="9">
+        <v>19.71</v>
+      </c>
+      <c r="E29" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="F29" s="98">
         <f t="shared" ref="F29:F32" si="7">(C29+D29+E29)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="131">
+        <v>19.756666666666664</v>
+      </c>
+      <c r="G29" s="96">
         <f t="shared" ref="G29:G32" si="8">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="136">
+        <v>43.333333333336554</v>
+      </c>
+      <c r="H29" s="101">
         <f>(G29/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="105"/>
+        <v>7.5598976506169844E-4</v>
+      </c>
+      <c r="J29" s="79"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="86">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="60">
         <v>160</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="133">
+      <c r="C30" s="9">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="D30" s="9">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="E30" s="9">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="F30" s="98">
         <f t="shared" si="7"/>
+        <v>35.853333333333332</v>
+      </c>
+      <c r="G30" s="96">
+        <f t="shared" si="8"/>
+        <v>56.666666666664867</v>
+      </c>
+      <c r="H30" s="101">
+        <f>(G30/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>9.8860200046519309E-4</v>
+      </c>
+      <c r="J30" s="79"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="60">
+        <v>240</v>
+      </c>
+      <c r="C31" s="9">
+        <v>51.3</v>
+      </c>
+      <c r="D31" s="9">
+        <v>51.5</v>
+      </c>
+      <c r="E31" s="9">
+        <v>51.46</v>
+      </c>
+      <c r="F31" s="98">
+        <f t="shared" si="7"/>
+        <v>51.419999999999995</v>
+      </c>
+      <c r="G31" s="96">
+        <f t="shared" si="8"/>
+        <v>80.0000000000054</v>
+      </c>
+      <c r="H31" s="101">
+        <f>(G31/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>1.3956734124215876E-3</v>
+      </c>
+      <c r="J31" s="79"/>
+    </row>
+    <row r="32" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="61">
+        <v>290</v>
+      </c>
+      <c r="C32" s="41">
+        <v>61.11</v>
+      </c>
+      <c r="D32" s="41">
+        <v>60.82</v>
+      </c>
+      <c r="E32" s="41">
+        <v>61.04</v>
+      </c>
+      <c r="F32" s="99">
+        <f t="shared" si="7"/>
+        <v>60.99</v>
+      </c>
+      <c r="G32" s="97">
+        <f t="shared" si="8"/>
+        <v>119.99999999999744</v>
+      </c>
+      <c r="H32" s="102">
+        <f>(G32/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>2.0935101186321955E-3</v>
+      </c>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
+    </row>
+    <row r="35" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="87">
         <v>0</v>
       </c>
-      <c r="G30" s="131">
-        <f t="shared" si="8"/>
+      <c r="C36" s="32">
         <v>0</v>
       </c>
-      <c r="H30" s="136">
-        <f>(G30/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+      <c r="D36" s="33">
         <v>0</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="86">
-        <v>240</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="133">
-        <f t="shared" si="7"/>
+      <c r="E36" s="34">
         <v>0</v>
       </c>
-      <c r="G31" s="131">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="136">
-        <f>(G31/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="115"/>
-    </row>
-    <row r="32" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
-      <c r="B32" s="87">
-        <v>290</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="134">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="132">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="137">
-        <f>(G32/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115"/>
-    </row>
-    <row r="35" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="123" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="120">
-        <v>0</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="131">
+      <c r="F36" s="96">
         <f>(C36+D36+E36)/3</f>
         <v>0</v>
       </c>
-      <c r="G36" s="131">
+      <c r="G36" s="96">
         <f>MAX(C36-F36,D36-F36,E36-F36)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="135" t="e">
+      <c r="H36" s="100">
         <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="125"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="115"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="92"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="121">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="88">
         <v>80</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="133">
+      <c r="C37" s="5">
+        <v>80.5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>80.87</v>
+      </c>
+      <c r="E37" s="30">
+        <v>80.13</v>
+      </c>
+      <c r="F37" s="98">
         <f t="shared" ref="F37:F40" si="9">(C37+D37+E37)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="133">
+        <v>80.5</v>
+      </c>
+      <c r="G37" s="98">
         <f t="shared" ref="G37:G40" si="10">MAX(C37-F37,D37-F37,E37-F37)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="135" t="e">
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="H37" s="100">
         <f t="shared" ref="H37:H40" si="11">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="126"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="115"/>
-      <c r="O37" s="115"/>
+        <v>1.2757300968865449E-3</v>
+      </c>
+      <c r="I37" s="93"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="115"/>
-      <c r="B38" s="121">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="88">
         <v>160</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="133">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="133">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="135" t="e">
+      <c r="C38" s="5">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="E38" s="30">
+        <v>160.78</v>
+      </c>
+      <c r="F38" s="98">
+        <f>(C38+D38+E38)/3</f>
+        <v>161.09333333333333</v>
+      </c>
+      <c r="G38" s="98">
+        <f>MAX(C38-F38,D38-F38,E38-F38)</f>
+        <v>0.20666666666667766</v>
+      </c>
+      <c r="H38" s="100">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="126"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
-      <c r="O38" s="115"/>
+        <v>7.1256996402674789E-4</v>
+      </c>
+      <c r="I38" s="93"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="121">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="88">
         <v>240</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="133">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="133">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="135" t="e">
+      <c r="C39" s="5">
+        <v>241.18</v>
+      </c>
+      <c r="D39" s="3">
+        <v>239.95</v>
+      </c>
+      <c r="E39" s="129">
+        <v>238.2</v>
+      </c>
+      <c r="F39" s="98">
+        <f t="shared" ref="F39:F40" si="12">(C39+D39+E39)/3</f>
+        <v>239.77666666666664</v>
+      </c>
+      <c r="G39" s="98">
+        <f t="shared" ref="G39:G40" si="13">MAX(C39-F39,D39-F39,E39-F39)</f>
+        <v>1.4033333333333644</v>
+      </c>
+      <c r="H39" s="100">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="126"/>
+        <v>4.8385799170201863E-3</v>
+      </c>
+      <c r="I39" s="93"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="122">
+    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="89">
         <v>290</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="134">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="134">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="135" t="e">
+      <c r="C40" s="29">
+        <v>290.02999999999997</v>
+      </c>
+      <c r="D40" s="6">
+        <v>290</v>
+      </c>
+      <c r="E40" s="31">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="F40" s="99">
+        <f t="shared" si="12"/>
+        <v>289.64333333333332</v>
+      </c>
+      <c r="G40" s="99">
+        <f t="shared" si="13"/>
+        <v>0.38666666666665606</v>
+      </c>
+      <c r="H40" s="130">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="127"/>
+        <v>1.3331954165660658E-3</v>
+      </c>
+      <c r="I40" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="B34:I34"/>
-    <mergeCell ref="Y10:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -45384,7 +45183,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA93A4F-0A1B-4100-8CDC-C3CF8D673D9C}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="B1:AA40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:E8"/>
@@ -45413,1063 +45212,854 @@
     <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
+      <c r="S2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="106" t="s">
+    <row r="3" spans="2:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="85">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="59">
         <v>0</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="131">
+      <c r="C4" s="49"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="96">
         <f>(C4+D4+E4)/3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="131">
+      <c r="G4" s="96">
         <f>MAX(C4-F4,D4-F4,E4-F4)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="135" t="e">
+      <c r="H4" s="100" t="e">
         <f>(G4/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="85">
         <v>5</v>
       </c>
-      <c r="J4" s="132">
+      <c r="J4" s="97">
         <f>(F8-F4)/I4/1</f>
         <v>0</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="86">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="60">
         <v>80</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="133">
+      <c r="E5" s="82"/>
+      <c r="F5" s="98">
         <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
         <v>0</v>
       </c>
-      <c r="G5" s="131">
+      <c r="G5" s="96">
         <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H5" s="136" t="e">
+      <c r="H5" s="101" t="e">
         <f>(G5/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="105"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="113"/>
+      <c r="J5" s="79"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
+      <c r="R5" s="39"/>
       <c r="S5" s="40"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="86">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="60">
         <v>160</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="133">
+      <c r="E6" s="82"/>
+      <c r="F6" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="131">
+      <c r="G6" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="136" t="e">
+      <c r="H6" s="101" t="e">
         <f>(G6/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="105"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="113"/>
+      <c r="J6" s="79"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="40"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="86">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="60">
         <v>240</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="133">
+      <c r="E7" s="82"/>
+      <c r="F7" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="136" t="e">
+      <c r="H7" s="101" t="e">
         <f>(G7/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="105"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
+      <c r="J7" s="79"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="40"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="87">
+    <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61">
         <v>290</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="41"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="134">
+      <c r="E8" s="83"/>
+      <c r="F8" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="132">
+      <c r="G8" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="137" t="e">
+      <c r="H8" s="102" t="e">
         <f>(G8/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="113"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="R8" s="39"/>
       <c r="S8" s="40"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="39"/>
       <c r="I9" s="40"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
     </row>
-    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
     </row>
-    <row r="11" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106" t="s">
+    <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
     </row>
-    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="85">
+    <row r="12" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="59">
         <v>0</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="131">
+      <c r="F12" s="96">
         <f>(C12+D12+E12)/3</f>
         <v>0</v>
       </c>
-      <c r="G12" s="130">
+      <c r="G12" s="95">
         <f>MAX(C12-F12,D12-F12,E12-F12)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H12" s="135" t="e">
+      <c r="H12" s="100" t="e">
         <f>(G12/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I12" s="85">
         <f>$I$4</f>
         <v>5</v>
       </c>
-      <c r="J12" s="132">
+      <c r="J12" s="97">
         <f>(F16-F12)/I12/1</f>
         <v>0</v>
       </c>
       <c r="K12" s="38"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="86">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="60">
         <v>80</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="133">
+      <c r="F13" s="98">
         <f t="shared" ref="F13:F16" si="2">(C13+D13+E13)/3</f>
         <v>0</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="96">
         <f t="shared" ref="G13:G16" si="3">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H13" s="136" t="e">
+      <c r="H13" s="101" t="e">
         <f>(G13/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="105"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
+      <c r="J13" s="79"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="86">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
         <v>160</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="133">
+      <c r="F14" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H14" s="136" t="e">
+      <c r="H14" s="101" t="e">
         <f>(G14/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="105"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
+      <c r="J14" s="79"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="86">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="60">
         <v>240</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="133">
+      <c r="F15" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="136" t="e">
+      <c r="H15" s="101" t="e">
         <f>(G15/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="105"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
+      <c r="J15" s="79"/>
     </row>
-    <row r="16" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="87">
+    <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="61">
         <v>290</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="134">
+      <c r="F16" s="99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="132">
+      <c r="G16" s="97">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="137" t="e">
+      <c r="H16" s="102" t="e">
         <f>(G16/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
+    <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="123" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="130">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="95">
         <f>F4</f>
         <v>0</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="131">
+      <c r="F20" s="96">
         <f>(C20+D20+E20)/3</f>
         <v>0</v>
       </c>
-      <c r="G20" s="130">
+      <c r="G20" s="95">
         <f>MAX(C20-F20,D20-F20,E20-F20)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H20" s="135" t="e">
+      <c r="H20" s="100" t="e">
         <f>(G20)/((MAX(C20:E24)-MIN(C20:E24)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="125"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
+      <c r="I20" s="92"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="131">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="96">
         <f t="shared" ref="B21:B24" si="4">F5</f>
         <v>0</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="3"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="133">
+      <c r="F21" s="98">
         <f t="shared" ref="F21:F24" si="5">(C21+D21+E21)/3</f>
         <v>0</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="96">
         <f t="shared" ref="G21:G24" si="6">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H21" s="136" t="e">
+      <c r="H21" s="101" t="e">
         <f>(G21)/((MAX(C35:E39)-MIN(C35:E39)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="126"/>
+      <c r="I21" s="93"/>
       <c r="L21" s="2"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="131">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="133">
+      <c r="F22" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G22" s="131">
+      <c r="G22" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H22" s="136" t="e">
+      <c r="H22" s="101" t="e">
         <f>(G22)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="126"/>
+      <c r="I22" s="93"/>
       <c r="L22" s="2"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="131">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="133">
+      <c r="F23" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G23" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H23" s="136" t="e">
+      <c r="H23" s="101" t="e">
         <f>(G23)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="126"/>
+      <c r="I23" s="93"/>
       <c r="L23" s="2"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="132">
+    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="6"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="134">
+      <c r="F24" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="132">
+      <c r="G24" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="137" t="e">
+      <c r="H24" s="102" t="e">
         <f>(G24)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="127"/>
+      <c r="I24" s="94"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44" t="s">
+    <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="106" t="s">
+    <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="106" t="s">
+      <c r="E27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="106" t="s">
+      <c r="H27" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="104" t="s">
+      <c r="J27" s="78" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="85">
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="59">
         <v>0</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="131">
+      <c r="F28" s="96">
         <f>(C28+D28+E28)/3</f>
         <v>0</v>
       </c>
-      <c r="G28" s="130">
+      <c r="G28" s="95">
         <f>MAX(C28-F28,D28-F28,E28-F28)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H28" s="135" t="e">
+      <c r="H28" s="100" t="e">
         <f>(G28/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="111">
+      <c r="I28" s="85">
         <f>$I$4</f>
         <v>5</v>
       </c>
-      <c r="J28" s="132">
+      <c r="J28" s="97">
         <f>(F32-F28)/I28/1</f>
         <v>0</v>
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="86">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="60">
         <v>80</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="133">
+      <c r="F29" s="98">
         <f t="shared" ref="F29:F32" si="7">(C29+D29+E29)/3</f>
         <v>0</v>
       </c>
-      <c r="G29" s="131">
+      <c r="G29" s="96">
         <f t="shared" ref="G29:G32" si="8">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H29" s="136" t="e">
+      <c r="H29" s="101" t="e">
         <f>(G29/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="105"/>
+      <c r="J29" s="79"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="86">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="60">
         <v>160</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="133">
+      <c r="F30" s="98">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G30" s="131">
+      <c r="G30" s="96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H30" s="136" t="e">
+      <c r="H30" s="101" t="e">
         <f>(G30/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="86">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="60">
         <v>240</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="133">
+      <c r="F31" s="98">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G31" s="131">
+      <c r="G31" s="96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H31" s="136" t="e">
+      <c r="H31" s="101" t="e">
         <f>(G31/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="115"/>
+      <c r="J31" s="79"/>
     </row>
-    <row r="32" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
-      <c r="B32" s="87">
+    <row r="32" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="61">
         <v>290</v>
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="134">
+      <c r="F32" s="99">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G32" s="132">
+      <c r="G32" s="97">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H32" s="137" t="e">
+      <c r="H32" s="102" t="e">
         <f>(G32/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33"/>
+      <c r="G33"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116" t="s">
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
     </row>
-    <row r="35" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="119" t="s">
+    <row r="35" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="103" t="s">
+      <c r="C35" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="103" t="s">
+      <c r="D35" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="103" t="s">
+      <c r="E35" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="123" t="s">
+      <c r="F35" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="103" t="s">
+      <c r="H35" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="124" t="s">
+      <c r="I35" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="120">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="87">
         <v>0</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="33"/>
       <c r="E36" s="34"/>
-      <c r="F36" s="131">
+      <c r="F36" s="96">
         <f>(C36+D36+E36)/3</f>
         <v>0</v>
       </c>
-      <c r="G36" s="131">
+      <c r="G36" s="96">
         <f>MAX(C36-F36,D36-F36,E36-F36)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="135" t="e">
+      <c r="H36" s="100" t="e">
         <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="125"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="115"/>
+      <c r="I36" s="92"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="121">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="88">
         <v>80</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="30"/>
-      <c r="F37" s="133">
+      <c r="F37" s="98">
         <f t="shared" ref="F37:F40" si="9">(C37+D37+E37)/3</f>
         <v>0</v>
       </c>
-      <c r="G37" s="133">
+      <c r="G37" s="98">
         <f t="shared" ref="G37:G40" si="10">MAX(C37-F37,D37-F37,E37-F37)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="135" t="e">
+      <c r="H37" s="100" t="e">
         <f t="shared" ref="H37:H40" si="11">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="126"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="115"/>
-      <c r="O37" s="115"/>
+      <c r="I37" s="93"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="115"/>
-      <c r="B38" s="121">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="88">
         <v>160</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="3"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="133">
+      <c r="F38" s="98">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G38" s="133">
+      <c r="G38" s="98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H38" s="135" t="e">
+      <c r="H38" s="100" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="126"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
-      <c r="O38" s="115"/>
+      <c r="I38" s="93"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="121">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="88">
         <v>240</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="3"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="133">
+      <c r="F39" s="98">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G39" s="133">
+      <c r="G39" s="98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H39" s="135" t="e">
+      <c r="H39" s="100" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="126"/>
+      <c r="I39" s="93"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="122">
+    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="89">
         <v>290</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="6"/>
       <c r="E40" s="31"/>
-      <c r="F40" s="134">
+      <c r="F40" s="99">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G40" s="134">
+      <c r="G40" s="99">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H40" s="135" t="e">
+      <c r="H40" s="100" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="127"/>
+      <c r="I40" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -46479,7 +46069,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA61ED-815E-40D6-AFAD-048B30D09410}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="B1:AA40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
@@ -46508,1063 +46098,854 @@
     <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
+      <c r="S2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="106" t="s">
+    <row r="3" spans="2:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="85">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="59">
         <v>0</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="131">
+      <c r="C4" s="49"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="96">
         <f>(C4+D4+E4)/3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="131">
+      <c r="G4" s="96">
         <f>MAX(C4-F4,D4-F4,E4-F4)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="135" t="e">
+      <c r="H4" s="100" t="e">
         <f>(G4/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="85">
         <v>5</v>
       </c>
-      <c r="J4" s="132">
+      <c r="J4" s="97">
         <f>(F8-F4)/I4/1</f>
         <v>0</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="86">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="60">
         <v>80</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="133">
+      <c r="E5" s="82"/>
+      <c r="F5" s="98">
         <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
         <v>0</v>
       </c>
-      <c r="G5" s="131">
+      <c r="G5" s="96">
         <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H5" s="136" t="e">
+      <c r="H5" s="101" t="e">
         <f>(G5/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="105"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="113"/>
+      <c r="J5" s="79"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
+      <c r="R5" s="39"/>
       <c r="S5" s="40"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="86">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="60">
         <v>160</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="133">
+      <c r="E6" s="82"/>
+      <c r="F6" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="131">
+      <c r="G6" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="136" t="e">
+      <c r="H6" s="101" t="e">
         <f>(G6/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="105"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="113"/>
+      <c r="J6" s="79"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="40"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="86">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="60">
         <v>240</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="133">
+      <c r="E7" s="82"/>
+      <c r="F7" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="136" t="e">
+      <c r="H7" s="101" t="e">
         <f>(G7/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="105"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
+      <c r="J7" s="79"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="40"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="87">
+    <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61">
         <v>290</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="41"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="134">
+      <c r="E8" s="83"/>
+      <c r="F8" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="132">
+      <c r="G8" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="137" t="e">
+      <c r="H8" s="102" t="e">
         <f>(G8/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="113"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="R8" s="39"/>
       <c r="S8" s="40"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="39"/>
       <c r="I9" s="40"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
     </row>
-    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
     </row>
-    <row r="11" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106" t="s">
+    <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
     </row>
-    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="85">
+    <row r="12" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="59">
         <v>0</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="131">
+      <c r="F12" s="96">
         <f>(C12+D12+E12)/3</f>
         <v>0</v>
       </c>
-      <c r="G12" s="130">
+      <c r="G12" s="95">
         <f>MAX(C12-F12,D12-F12,E12-F12)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H12" s="135" t="e">
+      <c r="H12" s="100" t="e">
         <f>(G12/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I12" s="85">
         <f>$I$4</f>
         <v>5</v>
       </c>
-      <c r="J12" s="132">
+      <c r="J12" s="97">
         <f>(F16-F12)/I12/1</f>
         <v>0</v>
       </c>
       <c r="K12" s="38"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="86">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="60">
         <v>80</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="133">
+      <c r="F13" s="98">
         <f t="shared" ref="F13:F16" si="2">(C13+D13+E13)/3</f>
         <v>0</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="96">
         <f t="shared" ref="G13:G16" si="3">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H13" s="136" t="e">
+      <c r="H13" s="101" t="e">
         <f>(G13/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="105"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
+      <c r="J13" s="79"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="86">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
         <v>160</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="133">
+      <c r="F14" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H14" s="136" t="e">
+      <c r="H14" s="101" t="e">
         <f>(G14/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="105"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
+      <c r="J14" s="79"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="86">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="60">
         <v>240</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="133">
+      <c r="F15" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="136" t="e">
+      <c r="H15" s="101" t="e">
         <f>(G15/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="105"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
+      <c r="J15" s="79"/>
     </row>
-    <row r="16" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="87">
+    <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="61">
         <v>290</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="134">
+      <c r="F16" s="99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="132">
+      <c r="G16" s="97">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="137" t="e">
+      <c r="H16" s="102" t="e">
         <f>(G16/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
+    <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="123" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="130">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="95">
         <f>F4</f>
         <v>0</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="131">
+      <c r="F20" s="96">
         <f>(C20+D20+E20)/3</f>
         <v>0</v>
       </c>
-      <c r="G20" s="130">
+      <c r="G20" s="95">
         <f>MAX(C20-F20,D20-F20,E20-F20)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H20" s="135" t="e">
+      <c r="H20" s="100" t="e">
         <f>(G20)/((MAX(C20:E24)-MIN(C20:E24)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="125"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
+      <c r="I20" s="92"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="131">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="96">
         <f t="shared" ref="B21:B24" si="4">F5</f>
         <v>0</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="3"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="133">
+      <c r="F21" s="98">
         <f t="shared" ref="F21:F24" si="5">(C21+D21+E21)/3</f>
         <v>0</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="96">
         <f t="shared" ref="G21:G24" si="6">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H21" s="136" t="e">
+      <c r="H21" s="101" t="e">
         <f>(G21)/((MAX(C35:E39)-MIN(C35:E39)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="126"/>
+      <c r="I21" s="93"/>
       <c r="L21" s="2"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="131">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="133">
+      <c r="F22" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G22" s="131">
+      <c r="G22" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H22" s="136" t="e">
+      <c r="H22" s="101" t="e">
         <f>(G22)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="126"/>
+      <c r="I22" s="93"/>
       <c r="L22" s="2"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="131">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="133">
+      <c r="F23" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G23" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H23" s="136" t="e">
+      <c r="H23" s="101" t="e">
         <f>(G23)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="126"/>
+      <c r="I23" s="93"/>
       <c r="L23" s="2"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="132">
+    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="6"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="134">
+      <c r="F24" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="132">
+      <c r="G24" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="137" t="e">
+      <c r="H24" s="102" t="e">
         <f>(G24)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="127"/>
+      <c r="I24" s="94"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44" t="s">
+    <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="106" t="s">
+    <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="106" t="s">
+      <c r="E27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="106" t="s">
+      <c r="H27" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="104" t="s">
+      <c r="J27" s="78" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="85">
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="59">
         <v>0</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="131">
+      <c r="F28" s="96">
         <f>(C28+D28+E28)/3</f>
         <v>0</v>
       </c>
-      <c r="G28" s="130">
+      <c r="G28" s="95">
         <f>MAX(C28-F28,D28-F28,E28-F28)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H28" s="135" t="e">
+      <c r="H28" s="100" t="e">
         <f>(G28/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="111">
+      <c r="I28" s="85">
         <f>$I$4</f>
         <v>5</v>
       </c>
-      <c r="J28" s="132">
+      <c r="J28" s="97">
         <f>(F32-F28)/I28/1</f>
         <v>0</v>
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="86">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="60">
         <v>80</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="133">
+      <c r="F29" s="98">
         <f t="shared" ref="F29:F32" si="7">(C29+D29+E29)/3</f>
         <v>0</v>
       </c>
-      <c r="G29" s="131">
+      <c r="G29" s="96">
         <f t="shared" ref="G29:G32" si="8">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H29" s="136" t="e">
+      <c r="H29" s="101" t="e">
         <f>(G29/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="105"/>
+      <c r="J29" s="79"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="86">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="60">
         <v>160</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="133">
+      <c r="F30" s="98">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G30" s="131">
+      <c r="G30" s="96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H30" s="136" t="e">
+      <c r="H30" s="101" t="e">
         <f>(G30/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="86">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="60">
         <v>240</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="133">
+      <c r="F31" s="98">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G31" s="131">
+      <c r="G31" s="96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H31" s="136" t="e">
+      <c r="H31" s="101" t="e">
         <f>(G31/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="115"/>
+      <c r="J31" s="79"/>
     </row>
-    <row r="32" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
-      <c r="B32" s="87">
+    <row r="32" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="61">
         <v>290</v>
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="134">
+      <c r="F32" s="99">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G32" s="132">
+      <c r="G32" s="97">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H32" s="137" t="e">
+      <c r="H32" s="102" t="e">
         <f>(G32/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33"/>
+      <c r="G33"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116" t="s">
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
     </row>
-    <row r="35" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="119" t="s">
+    <row r="35" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="103" t="s">
+      <c r="C35" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="103" t="s">
+      <c r="D35" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="103" t="s">
+      <c r="E35" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="123" t="s">
+      <c r="F35" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="103" t="s">
+      <c r="H35" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="124" t="s">
+      <c r="I35" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="120">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="87">
         <v>0</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="33"/>
       <c r="E36" s="34"/>
-      <c r="F36" s="131">
+      <c r="F36" s="96">
         <f>(C36+D36+E36)/3</f>
         <v>0</v>
       </c>
-      <c r="G36" s="131">
+      <c r="G36" s="96">
         <f>MAX(C36-F36,D36-F36,E36-F36)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="135" t="e">
+      <c r="H36" s="100" t="e">
         <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="125"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="115"/>
+      <c r="I36" s="92"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="121">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="88">
         <v>80</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="30"/>
-      <c r="F37" s="133">
+      <c r="F37" s="98">
         <f t="shared" ref="F37:F40" si="9">(C37+D37+E37)/3</f>
         <v>0</v>
       </c>
-      <c r="G37" s="133">
+      <c r="G37" s="98">
         <f t="shared" ref="G37:G40" si="10">MAX(C37-F37,D37-F37,E37-F37)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="135" t="e">
+      <c r="H37" s="100" t="e">
         <f t="shared" ref="H37:H40" si="11">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="126"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="115"/>
-      <c r="O37" s="115"/>
+      <c r="I37" s="93"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="115"/>
-      <c r="B38" s="121">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="88">
         <v>160</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="3"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="133">
+      <c r="F38" s="98">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G38" s="133">
+      <c r="G38" s="98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H38" s="135" t="e">
+      <c r="H38" s="100" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="126"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
-      <c r="O38" s="115"/>
+      <c r="I38" s="93"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="121">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="88">
         <v>240</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="3"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="133">
+      <c r="F39" s="98">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G39" s="133">
+      <c r="G39" s="98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H39" s="135" t="e">
+      <c r="H39" s="100" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="126"/>
+      <c r="I39" s="93"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="122">
+    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="89">
         <v>290</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="6"/>
       <c r="E40" s="31"/>
-      <c r="F40" s="134">
+      <c r="F40" s="99">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G40" s="134">
+      <c r="G40" s="99">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H40" s="135" t="e">
+      <c r="H40" s="100" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="127"/>
+      <c r="I40" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -47601,26 +46982,26 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-      <c r="K2" s="44" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
+      <c r="K2" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
       <c r="Z2" t="s">
         <v>28</v>
       </c>
@@ -47668,7 +47049,7 @@
       <c r="O3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="43" t="s">
         <v>51</v>
       </c>
       <c r="Q3" s="24" t="s">
@@ -47698,7 +47079,7 @@
         <f>(C4+D4+E4)/3</f>
         <v>3.7833333333333332</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="46">
         <v>5</v>
       </c>
       <c r="H4" s="20">
@@ -47725,7 +47106,7 @@
         <f>(L4+M4+N4)/3</f>
         <v>4.4400000000000004</v>
       </c>
-      <c r="P4" s="56">
+      <c r="P4" s="46">
         <v>5</v>
       </c>
       <c r="Q4" s="20">
@@ -47757,11 +47138,11 @@
       <c r="E5" s="9">
         <v>19.600000000000001</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="44">
         <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
         <v>19.666666666666668</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="45">
         <f t="shared" ref="H5:H8" si="1">MAX(C5-F5,D5-F5,E5-F5)*1000</f>
         <v>233.33333333333073</v>
       </c>
@@ -47781,11 +47162,11 @@
       <c r="N5" s="9">
         <v>23.28</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="44">
         <f t="shared" ref="O5:O8" si="2">(L5+M5+N5)/3</f>
         <v>23.393333333333334</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="45">
         <f t="shared" ref="Q5:Q8" si="3">MAX(L5-O5,M5-O5,N5-O5)*1000</f>
         <v>126.66666666666515</v>
       </c>
@@ -47847,7 +47228,7 @@
         <f t="shared" si="2"/>
         <v>41.976666666666667</v>
       </c>
-      <c r="P6" s="58" t="s">
+      <c r="P6" s="48" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="10">
@@ -47891,7 +47272,7 @@
         <f t="shared" si="0"/>
         <v>51.46</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="48" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="10">
@@ -47918,7 +47299,7 @@
         <f t="shared" si="2"/>
         <v>60.29</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="47">
         <f>(O8-O4)/P4/1</f>
         <v>13.424000000000001</v>
       </c>
@@ -47963,7 +47344,7 @@
         <f t="shared" si="0"/>
         <v>61.363333333333337</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="47">
         <f>(F8-F4)/G4/1</f>
         <v>11.516000000000002</v>
       </c>
@@ -48048,11 +47429,11 @@
       <c r="F10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="40"/>
-      <c r="Y10" s="47" t="s">
+      <c r="Y10" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="49"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="123"/>
       <c r="AE10">
         <v>0.4</v>
       </c>
@@ -48275,205 +47656,203 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="73"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="113"/>
     </row>
     <row r="31" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74" t="s">
+      <c r="D31" s="113"/>
+      <c r="E31" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="75" t="s">
+      <c r="F31" s="113"/>
+      <c r="G31" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77" t="s">
+      <c r="H31" s="126"/>
+      <c r="I31" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="77" t="s">
+      <c r="J31" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="69"/>
-      <c r="L31" s="74" t="s">
+      <c r="K31" s="54"/>
+      <c r="L31" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="73"/>
-      <c r="N31" s="74" t="s">
+      <c r="M31" s="113"/>
+      <c r="N31" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="O31" s="73"/>
+      <c r="O31" s="113"/>
     </row>
     <row r="32" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="82"/>
-      <c r="C32" s="67" t="s">
+      <c r="B32" s="118"/>
+      <c r="C32" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="79" t="s">
+      <c r="H32" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="80" t="s">
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="67" t="s">
+      <c r="L32" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="M32" s="67" t="s">
+      <c r="M32" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="67" t="s">
+      <c r="N32" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="67" t="s">
+      <c r="O32" s="53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="85">
+      <c r="B33" s="59">
         <v>0</v>
       </c>
-      <c r="C33" s="85">
+      <c r="C33" s="59">
         <v>3.77</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="85">
+      <c r="D33" s="62"/>
+      <c r="E33" s="59">
         <v>3.78</v>
       </c>
-      <c r="F33" s="91"/>
-      <c r="G33" s="85">
+      <c r="F33" s="65"/>
+      <c r="G33" s="59">
         <v>3.8</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95">
+      <c r="H33" s="68"/>
+      <c r="I33" s="69">
         <f>(C33+E33+G33)/3</f>
         <v>3.7833333333333332</v>
       </c>
-      <c r="J33" s="95">
+      <c r="J33" s="69">
         <f>(D33+F33+H33)/3</f>
         <v>0</v>
       </c>
-      <c r="K33" s="94">
+      <c r="K33" s="68">
         <v>5</v>
       </c>
-      <c r="L33" s="100">
+      <c r="L33" s="74">
         <f>MAX(C33-I33,E33-I33,G33-I33)*1000</f>
         <v>16.666666666666607</v>
       </c>
-      <c r="M33" s="83">
+      <c r="M33" s="58">
         <f>(L33/1000)/((MAX(C33:C37,E33:E37,G33:G37)-MIN(C33:C37,E33:E37,G33:G37)))</f>
         <v>2.8885037550548717E-4</v>
       </c>
-      <c r="N33" s="100">
+      <c r="N33" s="74">
         <f>MAX(D33-L33,F33-L33,H33-L33)*1000</f>
         <v>-16666.666666666606</v>
       </c>
-      <c r="O33" s="83" t="e">
+      <c r="O33" s="58" t="e">
         <f>(N33/1000)/((MAX(D33:D37,F33:F37,H33:H37)-MIN(D33:D37,F33:F37,H33:H37)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="86">
+      <c r="B34" s="60">
         <v>80</v>
       </c>
-      <c r="C34" s="86">
+      <c r="C34" s="60">
         <v>19.899999999999999</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="86">
+      <c r="D34" s="63"/>
+      <c r="E34" s="60">
         <v>19.5</v>
       </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="86">
+      <c r="F34" s="66"/>
+      <c r="G34" s="60">
         <v>19.600000000000001</v>
       </c>
-      <c r="H34" s="89"/>
-      <c r="I34" s="96">
+      <c r="H34" s="63"/>
+      <c r="I34" s="70">
         <f t="shared" ref="I34:I37" si="7">(C34+E34+G34)/3</f>
         <v>19.666666666666668</v>
       </c>
-      <c r="J34" s="96">
+      <c r="J34" s="70">
         <f t="shared" ref="J34:J37" si="8">(D34+F34+H34)/3</f>
         <v>0</v>
       </c>
-      <c r="K34" s="68"/>
-      <c r="L34" s="101">
+      <c r="L34" s="75">
         <f t="shared" ref="L34:L37" si="9">MAX(C34-I34,E34-I34,G34-I34)*1000</f>
         <v>233.33333333333073</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34:M37" si="10">(L34/1000)/((MAX(C34:C38,E34:E38,G34:G38)-MIN(C34:C38,E34:E38,G34:G38)))</f>
+        <f t="shared" ref="M34:M35" si="10">(L34/1000)/((MAX(C34:C38,E34:E38,G34:G38)-MIN(C34:C38,E34:E38,G34:G38)))</f>
         <v>5.5595266460169339E-3</v>
       </c>
-      <c r="N34" s="101">
+      <c r="N34" s="75">
         <f t="shared" ref="N34:N37" si="11">MAX(D34-L34,F34-L34,H34-L34)*1000</f>
         <v>-233333.33333333072</v>
       </c>
       <c r="O34" s="11" t="e">
-        <f t="shared" ref="O34:O37" si="12">(N34/1000)/((MAX(D34:D38,F34:F38,H34:H38)-MIN(D34:D38,F34:F38,H34:H38)))</f>
+        <f t="shared" ref="O34:O35" si="12">(N34/1000)/((MAX(D34:D38,F34:F38,H34:H38)-MIN(D34:D38,F34:F38,H34:H38)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="86">
+      <c r="B35" s="60">
         <v>160</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="60">
         <v>35.6</v>
       </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="86">
+      <c r="D35" s="63"/>
+      <c r="E35" s="60">
         <v>35.700000000000003</v>
       </c>
-      <c r="F35" s="92"/>
-      <c r="G35" s="86">
+      <c r="F35" s="66"/>
+      <c r="G35" s="60">
         <v>35.799999999999997</v>
       </c>
-      <c r="H35" s="89"/>
-      <c r="I35" s="96">
+      <c r="H35" s="63"/>
+      <c r="I35" s="70">
         <f t="shared" si="7"/>
         <v>35.700000000000003</v>
       </c>
-      <c r="J35" s="96">
+      <c r="J35" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K35" s="68"/>
-      <c r="L35" s="101">
+      <c r="L35" s="75">
         <f t="shared" si="9"/>
         <v>99.999999999994316</v>
       </c>
@@ -48481,7 +47860,7 @@
         <f t="shared" si="10"/>
         <v>3.8654812524157064E-3</v>
       </c>
-      <c r="N35" s="101">
+      <c r="N35" s="75">
         <f t="shared" si="11"/>
         <v>-99999.99999999431</v>
       </c>
@@ -48491,33 +47870,33 @@
       </c>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="86">
+      <c r="B36" s="60">
         <v>240</v>
       </c>
-      <c r="C36" s="86">
+      <c r="C36" s="60">
         <v>51.39</v>
       </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="86">
+      <c r="D36" s="63"/>
+      <c r="E36" s="60">
         <v>51.45</v>
       </c>
-      <c r="F36" s="92"/>
-      <c r="G36" s="86">
+      <c r="F36" s="66"/>
+      <c r="G36" s="60">
         <v>51.54</v>
       </c>
-      <c r="H36" s="89"/>
-      <c r="I36" s="96">
+      <c r="H36" s="63"/>
+      <c r="I36" s="70">
         <f t="shared" si="7"/>
         <v>51.46</v>
       </c>
-      <c r="J36" s="96">
+      <c r="J36" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K36" s="98" t="s">
+      <c r="K36" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="101">
+      <c r="L36" s="75">
         <f t="shared" si="9"/>
         <v>79.999999999998295</v>
       </c>
@@ -48525,7 +47904,7 @@
         <f>(L36/1000)/((MAX(C36:C40,E36:E40,G36:G39)-MIN(C36:C40,E36:E40,G36:G39)))</f>
         <v>7.9365079365077695E-3</v>
       </c>
-      <c r="N36" s="101">
+      <c r="N36" s="75">
         <f t="shared" si="11"/>
         <v>-79999.999999998297</v>
       </c>
@@ -48535,34 +47914,34 @@
       </c>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="87">
+      <c r="B37" s="61">
         <v>290</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="61">
         <v>61.47</v>
       </c>
-      <c r="D37" s="90"/>
-      <c r="E37" s="87">
+      <c r="D37" s="64"/>
+      <c r="E37" s="61">
         <v>61.38</v>
       </c>
-      <c r="F37" s="93"/>
-      <c r="G37" s="87">
+      <c r="F37" s="67"/>
+      <c r="G37" s="61">
         <v>61.24</v>
       </c>
-      <c r="H37" s="90"/>
-      <c r="I37" s="97">
+      <c r="H37" s="64"/>
+      <c r="I37" s="71">
         <f t="shared" si="7"/>
         <v>61.363333333333337</v>
       </c>
-      <c r="J37" s="97">
+      <c r="J37" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K37" s="99">
+      <c r="K37" s="73">
         <f>(J37-J33)/K33/1</f>
         <v>0</v>
       </c>
-      <c r="L37" s="102">
+      <c r="L37" s="76">
         <f t="shared" si="9"/>
         <v>106.66666666666202</v>
       </c>
@@ -48570,7 +47949,7 @@
         <f>(L37/1000)/((MAX(C37:C41,E37:E41,G37:G39)-MIN(C37:C41,E37:E41,G37:G39)))</f>
         <v>0.46376811594201511</v>
       </c>
-      <c r="N37" s="102">
+      <c r="N37" s="76">
         <f t="shared" si="11"/>
         <v>-106666.66666666203</v>
       </c>
@@ -48581,129 +47960,135 @@
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="77" t="s">
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="73"/>
+      <c r="H40" s="113"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="67" t="s">
+      <c r="F41" s="111"/>
+      <c r="G41" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="67" t="s">
+      <c r="H41" s="53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="85">
+      <c r="B42" s="59">
         <v>0</v>
       </c>
-      <c r="F42" s="95">
+      <c r="F42" s="69">
         <f>(C42+D42+E42)/3</f>
         <v>0</v>
       </c>
-      <c r="G42" s="100">
+      <c r="G42" s="74">
         <f>MAX(C42-F42,D42-F42,E42-F42)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="83" t="e">
+      <c r="H42" s="58" t="e">
         <f>(G42)/((MAX(C42:E46)-MIN(C42:E46)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="86">
+      <c r="B43" s="60">
         <v>80</v>
       </c>
-      <c r="F43" s="95">
+      <c r="F43" s="69">
         <f t="shared" ref="F43:F46" si="13">(C43+D43+E43)/3</f>
         <v>0</v>
       </c>
-      <c r="G43" s="100">
+      <c r="G43" s="74">
         <f t="shared" ref="G43:G46" si="14">MAX(C43-F43,D43-F43,E43-F43)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="83" t="e">
+      <c r="H43" s="58" t="e">
         <f t="shared" ref="H43:H46" si="15">(G43)/((MAX(C43:E47)-MIN(C43:E47)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="86">
+      <c r="B44" s="60">
         <v>160</v>
       </c>
-      <c r="F44" s="95">
+      <c r="F44" s="69">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G44" s="100">
+      <c r="G44" s="74">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H44" s="83" t="e">
+      <c r="H44" s="58" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="86">
+      <c r="B45" s="60">
         <v>240</v>
       </c>
-      <c r="F45" s="95">
+      <c r="F45" s="69">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G45" s="100">
+      <c r="G45" s="74">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H45" s="83" t="e">
+      <c r="H45" s="58" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="87">
+      <c r="B46" s="61">
         <v>290</v>
       </c>
-      <c r="F46" s="95">
+      <c r="F46" s="69">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G46" s="100">
+      <c r="G46" s="74">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H46" s="83" t="e">
+      <c r="H46" s="58" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="B40:E40"/>
@@ -48713,12 +48098,6 @@
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48758,26 +48137,26 @@
       </c>
     </row>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-      <c r="K2" s="44" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
+      <c r="K2" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
       <c r="Z2" t="s">
         <v>28</v>
       </c>
@@ -49466,11 +48845,11 @@
       <c r="F14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="40"/>
-      <c r="Y14" s="47" t="s">
+      <c r="Y14" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="123"/>
       <c r="AE14">
         <v>0.4</v>
       </c>
@@ -49693,31 +49072,31 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51" t="s">
+      <c r="D35" s="115"/>
+      <c r="E35" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="52" t="s">
+      <c r="F35" s="115"/>
+      <c r="G35" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="52"/>
+      <c r="H35" s="128"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
@@ -50001,12 +49380,12 @@
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
@@ -50140,15 +49519,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
@@ -50466,15 +49845,15 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
@@ -50796,17 +50175,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0c8a948-a8a2-431d-a436-e17f069363af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6b745cbd-a34e-432a-9900-41e3803aa2e9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FD8BE65C2F837343AC2660C8B0889EAE" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b7eb9a75dd4706810b4c69081d8d48fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0c8a948-a8a2-431d-a436-e17f069363af" xmlns:ns3="6b745cbd-a34e-432a-9900-41e3803aa2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5420ca96eed7fa2cb1a1994b234afa6" ns2:_="" ns3:_="">
     <xsd:import namespace="c0c8a948-a8a2-431d-a436-e17f069363af"/>
@@ -51037,6 +50405,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0c8a948-a8a2-431d-a436-e17f069363af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6b745cbd-a34e-432a-9900-41e3803aa2e9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -51047,23 +50426,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9C1C43-49EE-494C-B635-B785FB629686}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c0c8a948-a8a2-431d-a436-e17f069363af"/>
-    <ds:schemaRef ds:uri="6b745cbd-a34e-432a-9900-41e3803aa2e9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5FF9E8C-A979-49D8-B0D6-7BF035D44D87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51082,6 +50444,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9C1C43-49EE-494C-B635-B785FB629686}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c0c8a948-a8a2-431d-a436-e17f069363af"/>
+    <ds:schemaRef ds:uri="6b745cbd-a34e-432a-9900-41e3803aa2e9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CB14B-EEEA-4E1E-B623-D870A775B6DB}">
   <ds:schemaRefs>

--- a/otherinfos/Kalibration/DruckSensor (version 1).xlsx
+++ b/otherinfos/Kalibration/DruckSensor (version 1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72914290-9759-4362-8FEB-EE25AD5F9105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8447AD88-C165-42FA-A2AE-D1433584779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1 Spannung" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="78">
   <si>
     <t>Gewicht [kg]</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Absoluter Fehler verstärkung</t>
+  </si>
+  <si>
+    <t>VCC ADC [V]</t>
+  </si>
+  <si>
+    <t>Absoluter Fehler [mV]</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1203,9 +1209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1254,6 +1257,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1272,19 +1281,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1308,34 +1332,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1520,19 +1528,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50.00000000000027</c:v>
+                  <c:v>5.0000000000000266E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.000000000002274</c:v>
+                  <c:v>6.0000000000002274E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.66666666667425</c:v>
+                  <c:v>0.11666666666667425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.999999999996305</c:v>
+                  <c:v>8.9999999999996305E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.666666666664867</c:v>
+                  <c:v>5.6666666666664867E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,19 +1635,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>263.33333333333275</c:v>
+                  <c:v>0.26333333333333275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.99999999999901</c:v>
+                  <c:v>0.12999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186.66666666666742</c:v>
+                  <c:v>0.18666666666666742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.00000000000085</c:v>
+                  <c:v>0.21000000000000085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>209.99999999999375</c:v>
+                  <c:v>0.20999999999999375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,7 +1837,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Absoluter Fehler [µV]</a:t>
+                  <a:t>Absoluter Fehler [mV]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10203,7 +10211,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.7229588276343812E-4</c:v>
+                  <c:v>8.7229588276343801E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0467550593161597E-3</c:v>
@@ -10310,19 +10318,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.5940916492207386E-3</c:v>
+                  <c:v>3.9244908097367031E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2679692951849094E-3</c:v>
+                  <c:v>1.9374068554396276E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2565712956501643E-3</c:v>
+                  <c:v>2.7819175360159084E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6636427076064348E-3</c:v>
+                  <c:v>3.1296572280178968E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6636427076063112E-3</c:v>
+                  <c:v>3.1296572280177909E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21812,19 +21820,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.6666666666666856E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.6666666666667282E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.12666666666666515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.9999999999997158E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.333333333332547E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21919,19 +21927,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.16333333333333311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.9999999999999858E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22333333333332916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.20999999999999375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.20666666666667766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22121,7 +22129,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Absoluter Fehler [µV]</a:t>
+                  <a:t>Absoluter Fehler [mV]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -22437,19 +22445,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.9554494828958154E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.5459711330834095E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.1593362882145438E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.5236958745307117E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0796681441071509E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22544,19 +22552,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.4090462143559451E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.3274336283185817E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.2940019665682763E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.09734513274327E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.0481809242872806E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23159,13 +23167,55 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.28577972950555419"/>
-                  <c:y val="9.3579527819901934E-2"/>
+                  <c:x val="0.19879582708637855"/>
+                  <c:y val="7.8016978671328107E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -23198,34 +23248,6 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'P2 Spannung'!$F$4:$F$8</c:f>
@@ -23233,19 +23255,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21.543333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>37.593333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>53.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>63.636666666666677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23257,19 +23279,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.9866666666666672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43.806666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>62.220000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>73.473333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23829,13 +23851,27 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.26851759016949733"/>
-                  <c:y val="-6.8019879180513443E-2"/>
+                  <c:x val="-0.21093708635010261"/>
+                  <c:y val="-4.0159191394463466E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -23867,7 +23903,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = 0,2314x + 4,6983</a:t>
+                      <a:t>y = 0,2328x + 6,252</a:t>
                     </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -23941,19 +23977,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.9866666666666672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43.806666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>62.220000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>73.473333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24072,13 +24108,27 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40410044043798216"/>
-                  <c:y val="-0.13361158503182199"/>
+                  <c:x val="-0.33880992498147161"/>
+                  <c:y val="-9.6188946232946687E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -24110,7 +24160,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = x</a:t>
+                      <a:t>y = 0,2016x + 5,2372</a:t>
                     </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -24184,19 +24234,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21.543333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>37.593333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>53.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>63.636666666666677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24329,13 +24379,27 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14600205555248888"/>
-                  <c:y val="-0.58066342910222768"/>
+                  <c:x val="-7.81044857031956E-2"/>
+                  <c:y val="-8.1501756884316406E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -24358,7 +24422,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Arduino angepasst</a:t>
+                      <a:t>Angepasst Arduino</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
@@ -24367,14 +24431,14 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = 0</a:t>
+                      <a:t>y = 0,2021x + 5,1914</a:t>
                     </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
                     </a:br>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = #N/A</a:t>
+                      <a:t>R² = 0,9999</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -24441,19 +24505,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21.303333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>37.883333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>53.706666666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>63.620000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -44152,8 +44216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D6FC5D-20FD-4585-85D2-0A365BB12AD8}">
   <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44181,17 +44245,17 @@
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
       <c r="S2" t="s">
         <v>75</v>
       </c>
@@ -44213,12 +44277,12 @@
         <v>48</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="89" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="78" t="s">
@@ -44232,7 +44296,7 @@
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
       <c r="S3" s="26">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -44248,24 +44312,24 @@
       <c r="E4" s="81">
         <v>3.83</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="95">
         <f>(C4+D4+E4)/3</f>
         <v>3.78</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="95">
         <f>MAX(C4-F4,D4-F4,E4-F4)*$S$3</f>
-        <v>50.00000000000027</v>
-      </c>
-      <c r="H4" s="100">
-        <f>(G4/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>8.7229588276343812E-4</v>
-      </c>
-      <c r="I4" s="85">
-        <v>5.2039999999999997</v>
-      </c>
-      <c r="J4" s="97">
+        <v>5.0000000000000266E-2</v>
+      </c>
+      <c r="H4" s="130">
+        <f>(G4/$S$3)/(MAX($C$4:$E$8)-MIN($C$4:$E$8))</f>
+        <v>8.7229588276343801E-4</v>
+      </c>
+      <c r="I4" s="84">
+        <v>4.3140000000000001</v>
+      </c>
+      <c r="J4" s="96">
         <f>(F8-F4)/I4/1</f>
-        <v>10.994107097104791</v>
+        <v>13.262246947921495</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
@@ -44276,7 +44340,7 @@
       <c r="R4" s="39"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="60">
         <v>80</v>
       </c>
@@ -44289,17 +44353,20 @@
       <c r="E5" s="82">
         <v>20</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="97">
         <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
         <v>19.95</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="95">
         <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
-        <v>60.000000000002274</v>
-      </c>
-      <c r="H5" s="101">
-        <f>(G5/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="H5" s="99">
+        <f t="shared" ref="H5:H8" si="2">(G5/$S$3)/(MAX($C$4:$E$8)-MIN($C$4:$E$8))</f>
         <v>1.0467550593161597E-3</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="J5" s="79"/>
       <c r="L5" s="38"/>
@@ -44310,7 +44377,7 @@
       <c r="R5" s="39"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="60">
         <v>160</v>
       </c>
@@ -44323,17 +44390,20 @@
       <c r="E6" s="82">
         <v>35.880000000000003</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="97">
         <f t="shared" si="0"/>
         <v>35.763333333333328</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="95">
         <f t="shared" si="1"/>
-        <v>116.66666666667425</v>
-      </c>
-      <c r="H6" s="101">
-        <f>(G6/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>0.11666666666667425</v>
+      </c>
+      <c r="H6" s="99">
+        <f t="shared" si="2"/>
         <v>2.0353570597814769E-3</v>
+      </c>
+      <c r="I6" s="129">
+        <v>5.2030000000000003</v>
       </c>
       <c r="J6" s="79"/>
       <c r="L6" s="38"/>
@@ -44358,16 +44428,16 @@
       <c r="E7" s="82">
         <v>51.23</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="97">
         <f t="shared" si="0"/>
         <v>51.21</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="95">
         <f t="shared" si="1"/>
-        <v>89.999999999996305</v>
-      </c>
-      <c r="H7" s="101">
-        <f>(G7/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="H7" s="99">
+        <f t="shared" si="2"/>
         <v>1.5701325889741155E-3</v>
       </c>
       <c r="J7" s="79"/>
@@ -44393,16 +44463,16 @@
       <c r="E8" s="83">
         <v>61.03</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="98">
         <f t="shared" si="0"/>
         <v>60.993333333333332</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="96">
         <f t="shared" si="1"/>
-        <v>56.666666666664867</v>
+        <v>5.6666666666664867E-2</v>
       </c>
       <c r="H8" s="102">
-        <f>(G8/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <f t="shared" si="2"/>
         <v>9.8860200046519309E-4</v>
       </c>
       <c r="I8" s="51"/>
@@ -44424,20 +44494,20 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
     </row>
     <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="80" t="s">
@@ -44456,12 +44526,12 @@
         <v>48</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H11" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="89" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="78" t="s">
@@ -44481,25 +44551,25 @@
       <c r="E12" s="19">
         <v>4.45</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="95">
         <f>(C12+D12+E12)/3</f>
         <v>4.5566666666666675</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="94">
         <f>MAX(C12-F12,D12-F12,E12-F12)*$S$3</f>
-        <v>263.33333333333275</v>
-      </c>
-      <c r="H12" s="100">
-        <f>(G12/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>4.5940916492207386E-3</v>
-      </c>
-      <c r="I12" s="85">
+        <v>0.26333333333333275</v>
+      </c>
+      <c r="H12" s="130">
+        <f>(G12/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
+        <v>3.9244908097367031E-3</v>
+      </c>
+      <c r="I12" s="84">
         <f>$I$4</f>
-        <v>5.2039999999999997</v>
-      </c>
-      <c r="J12" s="97">
+        <v>4.3140000000000001</v>
+      </c>
+      <c r="J12" s="96">
         <f>(F16-F12)/I12/1</f>
-        <v>12.823469126313093</v>
+        <v>15.469015608097667</v>
       </c>
       <c r="K12" s="38"/>
     </row>
@@ -44516,17 +44586,17 @@
       <c r="E13" s="9">
         <v>23.41</v>
       </c>
-      <c r="F13" s="98">
-        <f t="shared" ref="F13:F16" si="2">(C13+D13+E13)/3</f>
+      <c r="F13" s="97">
+        <f t="shared" ref="F13:F16" si="3">(C13+D13+E13)/3</f>
         <v>23.28</v>
       </c>
-      <c r="G13" s="96">
-        <f t="shared" ref="G13:G16" si="3">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
-        <v>129.99999999999901</v>
-      </c>
-      <c r="H13" s="101">
-        <f>(G13/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>2.2679692951849094E-3</v>
+      <c r="G13" s="95">
+        <f t="shared" ref="G13:G16" si="4">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="H13" s="99">
+        <f t="shared" ref="H13:H16" si="5">(G13/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
+        <v>1.9374068554396276E-3</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -44543,17 +44613,17 @@
       <c r="E14" s="9">
         <v>41.9</v>
       </c>
-      <c r="F14" s="98">
-        <f t="shared" si="2"/>
+      <c r="F14" s="97">
+        <f t="shared" si="3"/>
         <v>41.993333333333332</v>
       </c>
-      <c r="G14" s="96">
-        <f t="shared" si="3"/>
-        <v>186.66666666666742</v>
-      </c>
-      <c r="H14" s="101">
-        <f>(G14/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>3.2565712956501643E-3</v>
+      <c r="G14" s="95">
+        <f t="shared" si="4"/>
+        <v>0.18666666666666742</v>
+      </c>
+      <c r="H14" s="99">
+        <f t="shared" si="5"/>
+        <v>2.7819175360159084E-3</v>
       </c>
       <c r="J14" s="79"/>
     </row>
@@ -44570,17 +44640,17 @@
       <c r="E15" s="9">
         <v>59.78</v>
       </c>
-      <c r="F15" s="98">
-        <f t="shared" si="2"/>
+      <c r="F15" s="97">
+        <f t="shared" si="3"/>
         <v>60.06</v>
       </c>
-      <c r="G15" s="96">
-        <f t="shared" si="3"/>
-        <v>210.00000000000085</v>
-      </c>
-      <c r="H15" s="101">
-        <f>(G15/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>3.6636427076064348E-3</v>
+      <c r="G15" s="95">
+        <f t="shared" si="4"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="H15" s="99">
+        <f t="shared" si="5"/>
+        <v>3.1296572280178968E-3</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -44597,36 +44667,36 @@
       <c r="E16" s="41">
         <v>71.150000000000006</v>
       </c>
-      <c r="F16" s="99">
-        <f t="shared" si="2"/>
+      <c r="F16" s="98">
+        <f t="shared" si="3"/>
         <v>71.290000000000006</v>
       </c>
-      <c r="G16" s="97">
-        <f t="shared" si="3"/>
-        <v>209.99999999999375</v>
+      <c r="G16" s="96">
+        <f t="shared" si="4"/>
+        <v>0.20999999999999375</v>
       </c>
       <c r="H16" s="102">
-        <f>(G16/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>3.6636427076063112E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.1296572280177909E-3</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="52"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="85" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="77" t="s">
@@ -44638,21 +44708,21 @@
       <c r="E19" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="89" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H19" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="91" t="s">
+      <c r="I19" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="95" cm="1">
+      <c r="B20" s="94" cm="1">
         <f t="array" ref="B20:B24">F4:F8</f>
         <v>3.78</v>
       </c>
@@ -44666,22 +44736,22 @@
       <c r="E20" s="34">
         <v>3.96</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F20" s="95">
         <f>(C20+D20+E20)/3</f>
         <v>3.8833333333333329</v>
       </c>
-      <c r="G20" s="95">
+      <c r="G20" s="94">
         <f>MAX(C20-F20,D20-F20,E20-F20)*$S$3</f>
-        <v>126.66666666666693</v>
-      </c>
-      <c r="H20" s="100">
+        <v>0.12666666666666693</v>
+      </c>
+      <c r="H20" s="130">
         <f>(G20)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
-        <v>2.2055836090312888</v>
-      </c>
-      <c r="I20" s="92"/>
+        <v>2.2055836090312891E-3</v>
+      </c>
+      <c r="I20" s="91"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="96">
+      <c r="B21" s="95">
         <v>19.95</v>
       </c>
       <c r="C21" s="5">
@@ -44693,23 +44763,23 @@
       <c r="E21" s="30">
         <v>19.8</v>
       </c>
-      <c r="F21" s="98">
-        <f t="shared" ref="F21:F24" si="4">(C21+D21+E21)/3</f>
+      <c r="F21" s="97">
+        <f t="shared" ref="F21:F24" si="6">(C21+D21+E21)/3</f>
         <v>19.756666666666664</v>
       </c>
-      <c r="G21" s="96">
-        <f t="shared" ref="G21:G24" si="5">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
-        <v>43.333333333336554</v>
-      </c>
-      <c r="H21" s="100">
-        <f t="shared" ref="H21:H24" si="6">(G21)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
-        <v>0.75454176098444292</v>
-      </c>
-      <c r="I21" s="93"/>
+      <c r="G21" s="95">
+        <f t="shared" ref="G21:G24" si="7">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
+        <v>4.3333333333336554E-2</v>
+      </c>
+      <c r="H21" s="99">
+        <f t="shared" ref="H21:H23" si="8">(G21)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
+        <v>7.5454176098444284E-4</v>
+      </c>
+      <c r="I21" s="92"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="96">
+      <c r="B22" s="95">
         <v>35.763333333333328</v>
       </c>
       <c r="C22" s="5">
@@ -44721,23 +44791,23 @@
       <c r="E22" s="30">
         <v>35.909999999999997</v>
       </c>
-      <c r="F22" s="98">
-        <f t="shared" si="4"/>
+      <c r="F22" s="97">
+        <f t="shared" si="6"/>
         <v>35.853333333333332</v>
       </c>
-      <c r="G22" s="96">
-        <f t="shared" si="5"/>
-        <v>56.666666666664867</v>
-      </c>
-      <c r="H22" s="100">
-        <f t="shared" si="6"/>
-        <v>0.98670845667185902</v>
-      </c>
-      <c r="I22" s="93"/>
+      <c r="G22" s="95">
+        <f t="shared" si="7"/>
+        <v>5.6666666666664867E-2</v>
+      </c>
+      <c r="H22" s="99">
+        <f t="shared" si="8"/>
+        <v>9.8670845667185917E-4</v>
+      </c>
+      <c r="I22" s="92"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="96">
+      <c r="B23" s="95">
         <v>51.21</v>
       </c>
       <c r="C23" s="5">
@@ -44749,23 +44819,23 @@
       <c r="E23" s="30">
         <v>51.46</v>
       </c>
-      <c r="F23" s="98">
-        <f t="shared" si="4"/>
+      <c r="F23" s="97">
+        <f t="shared" si="6"/>
         <v>51.419999999999995</v>
       </c>
-      <c r="G23" s="96">
-        <f t="shared" si="5"/>
-        <v>80.0000000000054</v>
-      </c>
-      <c r="H23" s="100">
-        <f t="shared" si="6"/>
-        <v>1.3930001741251159</v>
-      </c>
-      <c r="I23" s="93"/>
+      <c r="G23" s="95">
+        <f t="shared" si="7"/>
+        <v>8.00000000000054E-2</v>
+      </c>
+      <c r="H23" s="99">
+        <f t="shared" si="8"/>
+        <v>1.3930001741251157E-3</v>
+      </c>
+      <c r="I23" s="92"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="97">
+      <c r="B24" s="96">
         <v>60.993333333333332</v>
       </c>
       <c r="C24" s="29">
@@ -44777,36 +44847,36 @@
       <c r="E24" s="31">
         <v>61.04</v>
       </c>
-      <c r="F24" s="99">
-        <f t="shared" si="4"/>
+      <c r="F24" s="98">
+        <f t="shared" si="6"/>
         <v>60.99</v>
       </c>
-      <c r="G24" s="97">
-        <f t="shared" si="5"/>
-        <v>119.99999999999744</v>
-      </c>
-      <c r="H24" s="100">
+      <c r="G24" s="96">
+        <f t="shared" si="7"/>
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="H24" s="102">
         <f>(G24)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
-        <v>2.0895002611874882</v>
-      </c>
-      <c r="I24" s="94"/>
+        <v>2.0895002611874881E-3</v>
+      </c>
+      <c r="I24" s="93"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="109"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -44826,12 +44896,12 @@
         <v>48</v>
       </c>
       <c r="G27" s="80" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H27" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="84" t="s">
+      <c r="I27" s="89" t="s">
         <v>51</v>
       </c>
       <c r="J27" s="78" t="s">
@@ -44852,25 +44922,25 @@
       <c r="E28" s="19">
         <v>3.96</v>
       </c>
-      <c r="F28" s="96">
+      <c r="F28" s="95">
         <f>(C28+D28+E28)/3</f>
         <v>3.8833333333333329</v>
       </c>
-      <c r="G28" s="95">
+      <c r="G28" s="94">
         <f>MAX(C28-F28,D28-F28,E28-F28)*$S$3</f>
-        <v>126.66666666666693</v>
-      </c>
-      <c r="H28" s="100">
-        <f>(G28/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>2.2098162363340355E-3</v>
-      </c>
-      <c r="I28" s="85">
+        <v>0.12666666666666693</v>
+      </c>
+      <c r="H28" s="130">
+        <f>(G28/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
+        <v>2.2055836090312891E-3</v>
+      </c>
+      <c r="I28" s="84">
         <f>$I$4</f>
-        <v>5.2039999999999997</v>
-      </c>
-      <c r="J28" s="97">
+        <v>4.3140000000000001</v>
+      </c>
+      <c r="J28" s="96">
         <f>(F32-F28)/I28/1</f>
-        <v>10.97361004355624</v>
+        <v>13.237521248647814</v>
       </c>
       <c r="L28" s="2"/>
     </row>
@@ -44887,17 +44957,17 @@
       <c r="E29" s="9">
         <v>19.8</v>
       </c>
-      <c r="F29" s="98">
-        <f t="shared" ref="F29:F32" si="7">(C29+D29+E29)/3</f>
+      <c r="F29" s="97">
+        <f t="shared" ref="F29:F32" si="9">(C29+D29+E29)/3</f>
         <v>19.756666666666664</v>
       </c>
-      <c r="G29" s="96">
-        <f t="shared" ref="G29:G32" si="8">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
-        <v>43.333333333336554</v>
-      </c>
-      <c r="H29" s="101">
-        <f>(G29/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>7.5598976506169844E-4</v>
+      <c r="G29" s="95">
+        <f t="shared" ref="G29:G32" si="10">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
+        <v>4.3333333333336554E-2</v>
+      </c>
+      <c r="H29" s="99">
+        <f t="shared" ref="H29:H32" si="11">(G29/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
+        <v>7.5454176098444284E-4</v>
       </c>
       <c r="J29" s="79"/>
       <c r="L29" s="2"/>
@@ -44915,17 +44985,17 @@
       <c r="E30" s="9">
         <v>35.909999999999997</v>
       </c>
-      <c r="F30" s="98">
-        <f t="shared" si="7"/>
+      <c r="F30" s="97">
+        <f t="shared" si="9"/>
         <v>35.853333333333332</v>
       </c>
-      <c r="G30" s="96">
-        <f t="shared" si="8"/>
-        <v>56.666666666664867</v>
-      </c>
-      <c r="H30" s="101">
-        <f>(G30/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>9.8860200046519309E-4</v>
+      <c r="G30" s="95">
+        <f t="shared" si="10"/>
+        <v>5.6666666666664867E-2</v>
+      </c>
+      <c r="H30" s="99">
+        <f t="shared" si="11"/>
+        <v>9.8670845667185917E-4</v>
       </c>
       <c r="J30" s="79"/>
       <c r="K30" s="54"/>
@@ -44947,17 +45017,17 @@
       <c r="E31" s="9">
         <v>51.46</v>
       </c>
-      <c r="F31" s="98">
-        <f t="shared" si="7"/>
+      <c r="F31" s="97">
+        <f t="shared" si="9"/>
         <v>51.419999999999995</v>
       </c>
-      <c r="G31" s="96">
-        <f t="shared" si="8"/>
-        <v>80.0000000000054</v>
-      </c>
-      <c r="H31" s="101">
-        <f>(G31/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>1.3956734124215876E-3</v>
+      <c r="G31" s="95">
+        <f t="shared" si="10"/>
+        <v>8.00000000000054E-2</v>
+      </c>
+      <c r="H31" s="99">
+        <f t="shared" si="11"/>
+        <v>1.3930001741251157E-3</v>
       </c>
       <c r="J31" s="79"/>
     </row>
@@ -44974,17 +45044,17 @@
       <c r="E32" s="41">
         <v>61.04</v>
       </c>
-      <c r="F32" s="99">
-        <f t="shared" si="7"/>
+      <c r="F32" s="98">
+        <f t="shared" si="9"/>
         <v>60.99</v>
       </c>
-      <c r="G32" s="97">
-        <f t="shared" si="8"/>
-        <v>119.99999999999744</v>
+      <c r="G32" s="96">
+        <f t="shared" si="10"/>
+        <v>0.11999999999999744</v>
       </c>
       <c r="H32" s="102">
-        <f>(G32/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>2.0935101186321955E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.0895002611874881E-3</v>
       </c>
       <c r="I32" s="51"/>
       <c r="J32" s="52"/>
@@ -44994,19 +45064,19 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="85" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="77" t="s">
@@ -45018,7 +45088,7 @@
       <c r="E35" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="89" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="77" t="s">
@@ -45027,12 +45097,12 @@
       <c r="H35" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="91" t="s">
+      <c r="I35" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="87">
+      <c r="B36" s="86">
         <v>0</v>
       </c>
       <c r="C36" s="32">
@@ -45044,22 +45114,22 @@
       <c r="E36" s="34">
         <v>0</v>
       </c>
-      <c r="F36" s="96">
+      <c r="F36" s="95">
         <f>(C36+D36+E36)/3</f>
         <v>0</v>
       </c>
-      <c r="G36" s="96">
+      <c r="G36" s="95">
         <f>MAX(C36-F36,D36-F36,E36-F36)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="100">
+      <c r="H36" s="130">
         <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>0</v>
       </c>
-      <c r="I36" s="92"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="88">
+      <c r="B37" s="87">
         <v>80</v>
       </c>
       <c r="C37" s="5">
@@ -45071,22 +45141,22 @@
       <c r="E37" s="30">
         <v>80.13</v>
       </c>
-      <c r="F37" s="98">
-        <f t="shared" ref="F37:F40" si="9">(C37+D37+E37)/3</f>
+      <c r="F37" s="97">
+        <f t="shared" ref="F37" si="12">(C37+D37+E37)/3</f>
         <v>80.5</v>
       </c>
-      <c r="G37" s="98">
-        <f t="shared" ref="G37:G40" si="10">MAX(C37-F37,D37-F37,E37-F37)</f>
+      <c r="G37" s="97">
+        <f t="shared" ref="G37" si="13">MAX(C37-F37,D37-F37,E37-F37)</f>
         <v>0.37000000000000455</v>
       </c>
-      <c r="H37" s="100">
-        <f t="shared" ref="H37:H40" si="11">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
+      <c r="H37" s="99">
+        <f t="shared" ref="H37:H40" si="14">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>1.2757300968865449E-3</v>
       </c>
-      <c r="I37" s="93"/>
+      <c r="I37" s="92"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="88">
+      <c r="B38" s="87">
         <v>160</v>
       </c>
       <c r="C38" s="5">
@@ -45098,22 +45168,22 @@
       <c r="E38" s="30">
         <v>160.78</v>
       </c>
-      <c r="F38" s="98">
+      <c r="F38" s="97">
         <f>(C38+D38+E38)/3</f>
         <v>161.09333333333333</v>
       </c>
-      <c r="G38" s="98">
+      <c r="G38" s="97">
         <f>MAX(C38-F38,D38-F38,E38-F38)</f>
         <v>0.20666666666667766</v>
       </c>
-      <c r="H38" s="100">
-        <f t="shared" si="11"/>
+      <c r="H38" s="99">
+        <f t="shared" si="14"/>
         <v>7.1256996402674789E-4</v>
       </c>
-      <c r="I38" s="93"/>
+      <c r="I38" s="92"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="88">
+      <c r="B39" s="87">
         <v>240</v>
       </c>
       <c r="C39" s="5">
@@ -45122,25 +45192,25 @@
       <c r="D39" s="3">
         <v>239.95</v>
       </c>
-      <c r="E39" s="129">
+      <c r="E39" s="79">
         <v>238.2</v>
       </c>
-      <c r="F39" s="98">
-        <f t="shared" ref="F39:F40" si="12">(C39+D39+E39)/3</f>
+      <c r="F39" s="97">
+        <f t="shared" ref="F39:F40" si="15">(C39+D39+E39)/3</f>
         <v>239.77666666666664</v>
       </c>
-      <c r="G39" s="98">
-        <f t="shared" ref="G39:G40" si="13">MAX(C39-F39,D39-F39,E39-F39)</f>
+      <c r="G39" s="97">
+        <f t="shared" ref="G39:G40" si="16">MAX(C39-F39,D39-F39,E39-F39)</f>
         <v>1.4033333333333644</v>
       </c>
-      <c r="H39" s="100">
-        <f t="shared" si="11"/>
+      <c r="H39" s="99">
+        <f t="shared" si="14"/>
         <v>4.8385799170201863E-3</v>
       </c>
-      <c r="I39" s="93"/>
+      <c r="I39" s="92"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="89">
+      <c r="B40" s="88">
         <v>290</v>
       </c>
       <c r="C40" s="29">
@@ -45152,28 +45222,28 @@
       <c r="E40" s="31">
         <v>288.89999999999998</v>
       </c>
-      <c r="F40" s="99">
-        <f t="shared" si="12"/>
+      <c r="F40" s="98">
+        <f t="shared" si="15"/>
         <v>289.64333333333332</v>
       </c>
-      <c r="G40" s="99">
-        <f t="shared" si="13"/>
+      <c r="G40" s="98">
+        <f t="shared" si="16"/>
         <v>0.38666666666665606</v>
       </c>
-      <c r="H40" s="130">
-        <f t="shared" si="11"/>
+      <c r="H40" s="102">
+        <f t="shared" si="14"/>
         <v>1.3331954165660658E-3</v>
       </c>
-      <c r="I40" s="94"/>
+      <c r="I40" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -45185,8 +45255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA93A4F-0A1B-4100-8CDC-C3CF8D673D9C}">
   <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45214,17 +45284,17 @@
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
       <c r="S2" t="s">
         <v>75</v>
       </c>
@@ -45246,12 +45316,12 @@
         <v>48</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="89" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="78" t="s">
@@ -45265,34 +45335,40 @@
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
       <c r="S3" s="26">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="59">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="96">
+      <c r="C4" s="49">
+        <v>5.04</v>
+      </c>
+      <c r="D4" s="55">
+        <v>5.12</v>
+      </c>
+      <c r="E4" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F4" s="95">
         <f>(C4+D4+E4)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="96">
+        <v>5.0733333333333333</v>
+      </c>
+      <c r="G4" s="95">
         <f>MAX(C4-F4,D4-F4,E4-F4)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="100" t="e">
-        <f>(G4/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="85">
-        <v>5</v>
-      </c>
-      <c r="J4" s="97">
+        <v>4.6666666666666856E-2</v>
+      </c>
+      <c r="H4" s="130">
+        <f>(G4/$S$3)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>7.9554494828958154E-4</v>
+      </c>
+      <c r="I4" s="84">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="J4" s="96">
         <f>(F8-F4)/I4/1</f>
-        <v>0</v>
+        <v>13.49074713967596</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
@@ -45303,24 +45379,33 @@
       <c r="R4" s="39"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="60">
         <v>80</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="98">
+      <c r="C5" s="8">
+        <v>21.57</v>
+      </c>
+      <c r="D5" s="9">
+        <v>21.51</v>
+      </c>
+      <c r="E5" s="82">
+        <v>21.55</v>
+      </c>
+      <c r="F5" s="97">
         <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="96">
+        <v>21.543333333333333</v>
+      </c>
+      <c r="G5" s="95">
         <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="101" t="e">
-        <f>(G5/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+        <v>2.6666666666667282E-2</v>
+      </c>
+      <c r="H5" s="99">
+        <f t="shared" ref="H5:H8" si="2">(G5/$S$3)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>4.5459711330834095E-4</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="J5" s="79"/>
       <c r="L5" s="38"/>
@@ -45331,24 +45416,33 @@
       <c r="R5" s="39"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="60">
         <v>160</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="98">
+      <c r="C6" s="8">
+        <v>37.46</v>
+      </c>
+      <c r="D6" s="9">
+        <v>37.72</v>
+      </c>
+      <c r="E6" s="82">
+        <v>37.6</v>
+      </c>
+      <c r="F6" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="96">
+        <v>37.593333333333334</v>
+      </c>
+      <c r="G6" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="101" t="e">
-        <f>(G6/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+        <v>0.12666666666666515</v>
+      </c>
+      <c r="H6" s="99">
+        <f t="shared" si="2"/>
+        <v>2.1593362882145438E-3</v>
+      </c>
+      <c r="I6" s="129">
+        <v>5.2030000000000003</v>
       </c>
       <c r="J6" s="79"/>
       <c r="L6" s="38"/>
@@ -45364,20 +45458,26 @@
       <c r="B7" s="60">
         <v>240</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="98">
+      <c r="C7" s="8">
+        <v>53.6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>53.55</v>
+      </c>
+      <c r="E7" s="82">
+        <v>53.65</v>
+      </c>
+      <c r="F7" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="96">
+        <v>53.6</v>
+      </c>
+      <c r="G7" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="101" t="e">
-        <f>(G7/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="H7" s="99">
+        <f t="shared" si="2"/>
+        <v>8.5236958745307117E-4</v>
       </c>
       <c r="J7" s="79"/>
       <c r="L7" s="38"/>
@@ -45393,20 +45493,26 @@
       <c r="B8" s="61">
         <v>290</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="99">
+      <c r="C8" s="12">
+        <v>63.61</v>
+      </c>
+      <c r="D8" s="41">
+        <v>63.6</v>
+      </c>
+      <c r="E8" s="83">
+        <v>63.7</v>
+      </c>
+      <c r="F8" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="97">
+        <v>63.636666666666677</v>
+      </c>
+      <c r="G8" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="102" t="e">
-        <f>(G8/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+        <v>6.333333333332547E-2</v>
+      </c>
+      <c r="H8" s="102">
+        <f t="shared" si="2"/>
+        <v>1.0796681441071509E-3</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="52"/>
@@ -45427,20 +45533,20 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
     </row>
     <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="80" t="s">
@@ -45459,12 +45565,12 @@
         <v>48</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H11" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="89" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="78" t="s">
@@ -45475,28 +45581,34 @@
       <c r="B12" s="59">
         <v>0</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="96">
+      <c r="C12" s="19">
+        <v>5.88</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5.93</v>
+      </c>
+      <c r="E12" s="19">
+        <v>6.15</v>
+      </c>
+      <c r="F12" s="95">
         <f>(C12+D12+E12)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="95">
+        <v>5.9866666666666672</v>
+      </c>
+      <c r="G12" s="94">
         <f>MAX(C12-F12,D12-F12,E12-F12)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="100" t="e">
-        <f>(G12/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="85">
+        <v>0.16333333333333311</v>
+      </c>
+      <c r="H12" s="130">
+        <f>(G12/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
+        <v>2.4090462143559451E-3</v>
+      </c>
+      <c r="I12" s="84">
         <f>$I$4</f>
-        <v>5</v>
-      </c>
-      <c r="J12" s="97">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="J12" s="96">
         <f>(F16-F12)/I12/1</f>
-        <v>0</v>
+        <v>15.546341088842816</v>
       </c>
       <c r="K12" s="38"/>
     </row>
@@ -45504,20 +45616,26 @@
       <c r="B13" s="60">
         <v>80</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="98">
-        <f t="shared" ref="F13:F16" si="2">(C13+D13+E13)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="96">
-        <f t="shared" ref="G13:G16" si="3">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="101" t="e">
-        <f>(G13/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+      <c r="C13" s="9">
+        <v>25.12</v>
+      </c>
+      <c r="D13" s="9">
+        <v>24.9</v>
+      </c>
+      <c r="E13" s="9">
+        <v>25.07</v>
+      </c>
+      <c r="F13" s="97">
+        <f t="shared" ref="F13:F16" si="3">(C13+D13+E13)/3</f>
+        <v>25.03</v>
+      </c>
+      <c r="G13" s="95">
+        <f t="shared" ref="G13:G16" si="4">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="H13" s="99">
+        <f t="shared" ref="H13:H16" si="5">(G13/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
+        <v>1.3274336283185817E-3</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -45525,20 +45643,26 @@
       <c r="B14" s="60">
         <v>160</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="98">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="96">
+      <c r="C14" s="9">
+        <v>43.7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>44.03</v>
+      </c>
+      <c r="E14" s="9">
+        <v>43.69</v>
+      </c>
+      <c r="F14" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="101" t="e">
-        <f>(G14/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+        <v>43.806666666666672</v>
+      </c>
+      <c r="G14" s="95">
+        <f t="shared" si="4"/>
+        <v>0.22333333333332916</v>
+      </c>
+      <c r="H14" s="99">
+        <f t="shared" si="5"/>
+        <v>3.2940019665682763E-3</v>
       </c>
       <c r="J14" s="79"/>
     </row>
@@ -45546,20 +45670,26 @@
       <c r="B15" s="60">
         <v>240</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="98">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="96">
+      <c r="C15" s="9">
+        <v>62.43</v>
+      </c>
+      <c r="D15" s="9">
+        <v>62.09</v>
+      </c>
+      <c r="E15" s="9">
+        <v>62.14</v>
+      </c>
+      <c r="F15" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="101" t="e">
-        <f>(G15/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+        <v>62.220000000000006</v>
+      </c>
+      <c r="G15" s="95">
+        <f t="shared" si="4"/>
+        <v>0.20999999999999375</v>
+      </c>
+      <c r="H15" s="99">
+        <f t="shared" si="5"/>
+        <v>3.09734513274327E-3</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -45567,39 +45697,45 @@
       <c r="B16" s="61">
         <v>290</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="99">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="97">
+      <c r="C16" s="41">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="D16" s="41">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="E16" s="41">
+        <v>73.28</v>
+      </c>
+      <c r="F16" s="98">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="102" t="e">
-        <f>(G16/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+        <v>73.473333333333329</v>
+      </c>
+      <c r="G16" s="96">
+        <f t="shared" si="4"/>
+        <v>0.20666666666667766</v>
+      </c>
+      <c r="H16" s="102">
+        <f t="shared" si="5"/>
+        <v>3.0481809242872806E-3</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="52"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="85" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="77" t="s">
@@ -45611,148 +45747,178 @@
       <c r="E19" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="89" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H19" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="91" t="s">
+      <c r="I19" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="95">
+      <c r="B20" s="94">
         <f>F4</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="96">
+        <v>5.0733333333333333</v>
+      </c>
+      <c r="C20" s="19">
+        <v>4.92</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5.31</v>
+      </c>
+      <c r="E20" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="F20" s="95">
         <f>(C20+D20+E20)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="95">
+        <v>5.0733333333333333</v>
+      </c>
+      <c r="G20" s="94">
         <f>MAX(C20-F20,D20-F20,E20-F20)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="100" t="e">
+        <v>0.23666666666666636</v>
+      </c>
+      <c r="H20" s="99">
         <f>(G20)/((MAX(C20:E24)-MIN(C20:E24)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="92"/>
+        <v>4.0194746376811547E-3</v>
+      </c>
+      <c r="I20" s="91"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="96">
-        <f t="shared" ref="B21:B24" si="4">F5</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="98">
-        <f t="shared" ref="F21:F24" si="5">(C21+D21+E21)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="96">
-        <f t="shared" ref="G21:G24" si="6">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="101" t="e">
+      <c r="B21" s="95">
+        <f t="shared" ref="B21:B24" si="6">F5</f>
+        <v>21.543333333333333</v>
+      </c>
+      <c r="C21" s="9">
+        <v>21.11</v>
+      </c>
+      <c r="D21" s="9">
+        <v>21.35</v>
+      </c>
+      <c r="E21" s="9">
+        <v>21.45</v>
+      </c>
+      <c r="F21" s="97">
+        <f t="shared" ref="F21:F24" si="7">(C21+D21+E21)/3</f>
+        <v>21.303333333333331</v>
+      </c>
+      <c r="G21" s="95">
+        <f t="shared" ref="G21:G24" si="8">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
+        <v>0.14666666666666828</v>
+      </c>
+      <c r="H21" s="100">
         <f>(G21)/((MAX(C35:E39)-MIN(C35:E39)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="93"/>
+        <v>6.0933388727323762E-4</v>
+      </c>
+      <c r="I21" s="92"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="96">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="98">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="96">
+      <c r="B22" s="95">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="101" t="e">
+        <v>37.593333333333334</v>
+      </c>
+      <c r="C22" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="D22" s="9">
+        <v>37.85</v>
+      </c>
+      <c r="E22" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="F22" s="97">
+        <f t="shared" si="7"/>
+        <v>37.883333333333333</v>
+      </c>
+      <c r="G22" s="95">
+        <f t="shared" si="8"/>
+        <v>1.6666666666665719E-2</v>
+      </c>
+      <c r="H22" s="100">
         <f>(G22)/((MAX(C39:E41)-MIN(C39:E41)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="93"/>
+        <v>3.2507639295232545E-4</v>
+      </c>
+      <c r="I22" s="92"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="96">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="98">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="96">
+      <c r="B23" s="95">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="101" t="e">
+        <v>53.6</v>
+      </c>
+      <c r="C23" s="9">
+        <v>53.56</v>
+      </c>
+      <c r="D23" s="9">
+        <v>53.72</v>
+      </c>
+      <c r="E23" s="9">
+        <v>53.84</v>
+      </c>
+      <c r="F23" s="97">
+        <f t="shared" si="7"/>
+        <v>53.706666666666671</v>
+      </c>
+      <c r="G23" s="95">
+        <f t="shared" si="8"/>
+        <v>0.13333333333333286</v>
+      </c>
+      <c r="H23" s="100">
         <f>(G23)/((MAX(C39:E41)-MIN(C39:E41)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="93"/>
+        <v>2.600611143618742E-3</v>
+      </c>
+      <c r="I23" s="92"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="97">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="99">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="97">
+      <c r="B24" s="96">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="102" t="e">
+        <v>63.636666666666677</v>
+      </c>
+      <c r="C24" s="41">
+        <v>63.69</v>
+      </c>
+      <c r="D24" s="41">
+        <v>63.37</v>
+      </c>
+      <c r="E24" s="41">
+        <v>63.8</v>
+      </c>
+      <c r="F24" s="98">
+        <f t="shared" si="7"/>
+        <v>63.620000000000005</v>
+      </c>
+      <c r="G24" s="96">
+        <f t="shared" si="8"/>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="H24" s="101">
         <f>(G24)/((MAX(C39:E41)-MIN(C39:E41)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="94"/>
+        <v>3.5108250438851702E-3</v>
+      </c>
+      <c r="I24" s="93"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="109"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45772,12 +45938,12 @@
         <v>48</v>
       </c>
       <c r="G27" s="80" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H27" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="84" t="s">
+      <c r="I27" s="89" t="s">
         <v>51</v>
       </c>
       <c r="J27" s="78" t="s">
@@ -45789,28 +45955,34 @@
       <c r="B28" s="59">
         <v>0</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="96">
+      <c r="C28" s="19">
+        <v>4.92</v>
+      </c>
+      <c r="D28" s="19">
+        <v>5.31</v>
+      </c>
+      <c r="E28" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="F28" s="95">
         <f>(C28+D28+E28)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="95">
+        <v>5.0733333333333333</v>
+      </c>
+      <c r="G28" s="94">
         <f>MAX(C28-F28,D28-F28,E28-F28)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="100" t="e">
-        <f>(G28/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="85">
+        <v>0.23666666666666636</v>
+      </c>
+      <c r="H28" s="130">
+        <f>(G28/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
+        <v>4.0194746376811547E-3</v>
+      </c>
+      <c r="I28" s="84">
         <f>$I$4</f>
-        <v>5</v>
-      </c>
-      <c r="J28" s="97">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="J28" s="96">
         <f>(F32-F28)/I28/1</f>
-        <v>0</v>
+        <v>13.486907778545651</v>
       </c>
       <c r="L28" s="2"/>
     </row>
@@ -45818,20 +45990,26 @@
       <c r="B29" s="60">
         <v>80</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="98">
-        <f t="shared" ref="F29:F32" si="7">(C29+D29+E29)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="96">
-        <f t="shared" ref="G29:G32" si="8">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="101" t="e">
-        <f>(G29/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+      <c r="C29" s="9">
+        <v>21.11</v>
+      </c>
+      <c r="D29" s="9">
+        <v>21.35</v>
+      </c>
+      <c r="E29" s="9">
+        <v>21.45</v>
+      </c>
+      <c r="F29" s="97">
+        <f t="shared" ref="F29:F32" si="9">(C29+D29+E29)/3</f>
+        <v>21.303333333333331</v>
+      </c>
+      <c r="G29" s="95">
+        <f t="shared" ref="G29:G32" si="10">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
+        <v>0.14666666666666828</v>
+      </c>
+      <c r="H29" s="99">
+        <f>(G29/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
+        <v>2.4909420289855348E-3</v>
       </c>
       <c r="J29" s="79"/>
       <c r="L29" s="2"/>
@@ -45840,20 +46018,26 @@
       <c r="B30" s="60">
         <v>160</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="98">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="101" t="e">
-        <f>(G30/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+      <c r="C30" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="D30" s="9">
+        <v>37.85</v>
+      </c>
+      <c r="E30" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="F30" s="97">
+        <f t="shared" si="9"/>
+        <v>37.883333333333333</v>
+      </c>
+      <c r="G30" s="95">
+        <f t="shared" si="10"/>
+        <v>1.6666666666665719E-2</v>
+      </c>
+      <c r="H30" s="99">
+        <f t="shared" ref="H29:H32" si="11">(G30/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
+        <v>2.8306159420288246E-4</v>
       </c>
       <c r="J30" s="79"/>
       <c r="K30" s="54"/>
@@ -45866,20 +46050,26 @@
       <c r="B31" s="60">
         <v>240</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="98">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="101" t="e">
-        <f>(G31/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+      <c r="C31" s="9">
+        <v>53.56</v>
+      </c>
+      <c r="D31" s="9">
+        <v>53.72</v>
+      </c>
+      <c r="E31" s="9">
+        <v>53.84</v>
+      </c>
+      <c r="F31" s="97">
+        <f t="shared" si="9"/>
+        <v>53.706666666666671</v>
+      </c>
+      <c r="G31" s="95">
+        <f t="shared" si="10"/>
+        <v>0.13333333333333286</v>
+      </c>
+      <c r="H31" s="99">
+        <f t="shared" si="11"/>
+        <v>2.2644927536231807E-3</v>
       </c>
       <c r="J31" s="79"/>
     </row>
@@ -45887,20 +46077,26 @@
       <c r="B32" s="61">
         <v>290</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="99">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="97">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="102" t="e">
-        <f>(G32/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>#DIV/0!</v>
+      <c r="C32" s="41">
+        <v>63.69</v>
+      </c>
+      <c r="D32" s="41">
+        <v>63.37</v>
+      </c>
+      <c r="E32" s="41">
+        <v>63.8</v>
+      </c>
+      <c r="F32" s="98">
+        <f t="shared" si="9"/>
+        <v>63.620000000000005</v>
+      </c>
+      <c r="G32" s="96">
+        <f t="shared" si="10"/>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="H32" s="102">
+        <f t="shared" si="11"/>
+        <v>3.0570652173911791E-3</v>
       </c>
       <c r="I32" s="51"/>
       <c r="J32" s="52"/>
@@ -45910,19 +46106,19 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="85" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="77" t="s">
@@ -45934,7 +46130,7 @@
       <c r="E35" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="89" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="77" t="s">
@@ -45943,114 +46139,144 @@
       <c r="H35" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="91" t="s">
+      <c r="I35" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="87">
+      <c r="B36" s="86">
         <v>0</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="96">
+      <c r="C36" s="15">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="131">
+        <v>0</v>
+      </c>
+      <c r="F36" s="95">
         <f>(C36+D36+E36)/3</f>
         <v>0</v>
       </c>
-      <c r="G36" s="96">
+      <c r="G36" s="95">
         <f>MAX(C36-F36,D36-F36,E36-F36)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="100" t="e">
+      <c r="H36" s="130">
         <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="88">
+      <c r="B37" s="87">
         <v>80</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="98">
-        <f t="shared" ref="F37:F40" si="9">(C37+D37+E37)/3</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="98">
-        <f t="shared" ref="G37:G40" si="10">MAX(C37-F37,D37-F37,E37-F37)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="100" t="e">
-        <f t="shared" ref="H37:H40" si="11">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="93"/>
+      <c r="C37" s="5">
+        <v>80.45</v>
+      </c>
+      <c r="D37" s="3">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="E37" s="30">
+        <v>80.25</v>
+      </c>
+      <c r="F37" s="97">
+        <f t="shared" ref="F37:F40" si="12">(C37+D37+E37)/3</f>
+        <v>80.33</v>
+      </c>
+      <c r="G37" s="97">
+        <f t="shared" ref="G37:G40" si="13">MAX(C37-F37,D37-F37,E37-F37)</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="H37" s="99">
+        <f t="shared" ref="H37:H40" si="14">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
+        <v>4.1279669762643464E-4</v>
+      </c>
+      <c r="I37" s="92"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="88">
+      <c r="B38" s="87">
         <v>160</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="98">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="98">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="100" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="93"/>
+      <c r="C38" s="5">
+        <v>160.6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>161.93</v>
+      </c>
+      <c r="E38" s="30">
+        <v>161.09</v>
+      </c>
+      <c r="F38" s="97">
+        <f t="shared" si="12"/>
+        <v>161.20666666666668</v>
+      </c>
+      <c r="G38" s="97">
+        <f t="shared" si="13"/>
+        <v>0.72333333333332916</v>
+      </c>
+      <c r="H38" s="99">
+        <f t="shared" si="14"/>
+        <v>2.488246760692567E-3</v>
+      </c>
+      <c r="I38" s="92"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="88">
+      <c r="B39" s="87">
         <v>240</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="98">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="98">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="100" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="93"/>
+      <c r="C39" s="5">
+        <v>239.43</v>
+      </c>
+      <c r="D39" s="3">
+        <v>240.65</v>
+      </c>
+      <c r="E39" s="30">
+        <v>240.7</v>
+      </c>
+      <c r="F39" s="97">
+        <f t="shared" si="12"/>
+        <v>240.26</v>
+      </c>
+      <c r="G39" s="97">
+        <f t="shared" si="13"/>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="H39" s="99">
+        <f t="shared" si="14"/>
+        <v>1.5135878912968619E-3</v>
+      </c>
+      <c r="I39" s="92"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="89">
+      <c r="B40" s="88">
         <v>290</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="99">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="99">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="100" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="94"/>
+      <c r="C40" s="29">
+        <v>289.5</v>
+      </c>
+      <c r="D40" s="6">
+        <v>290.16000000000003</v>
+      </c>
+      <c r="E40" s="132">
+        <v>290.7</v>
+      </c>
+      <c r="F40" s="98">
+        <f>(C40+D40+E40)/3</f>
+        <v>290.12000000000006</v>
+      </c>
+      <c r="G40" s="98">
+        <f>MAX(C40-F40,D40-F40,E40-F40)</f>
+        <v>0.57999999999992724</v>
+      </c>
+      <c r="H40" s="102">
+        <f>(G40)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
+        <v>1.9951840385274418E-3</v>
+      </c>
+      <c r="I40" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -46072,7 +46298,7 @@
   <dimension ref="B1:AA40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46100,17 +46326,17 @@
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
       <c r="S2" t="s">
         <v>75</v>
       </c>
@@ -46137,7 +46363,7 @@
       <c r="H3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="89" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="78" t="s">
@@ -46161,22 +46387,22 @@
       <c r="C4" s="49"/>
       <c r="D4" s="55"/>
       <c r="E4" s="81"/>
-      <c r="F4" s="96">
+      <c r="F4" s="95">
         <f>(C4+D4+E4)/3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="95">
         <f>MAX(C4-F4,D4-F4,E4-F4)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="100" t="e">
+      <c r="H4" s="99" t="e">
         <f>(G4/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="84">
         <v>5</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="96">
         <f>(F8-F4)/I4/1</f>
         <v>0</v>
       </c>
@@ -46189,24 +46415,27 @@
       <c r="R4" s="39"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="60">
         <v>80</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="82"/>
-      <c r="F5" s="98">
+      <c r="F5" s="97">
         <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
         <v>0</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="95">
         <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H5" s="101" t="e">
+      <c r="H5" s="100" t="e">
         <f>(G5/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="J5" s="79"/>
       <c r="L5" s="38"/>
@@ -46217,24 +46446,27 @@
       <c r="R5" s="39"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="60">
         <v>160</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="82"/>
-      <c r="F6" s="98">
+      <c r="F6" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="101" t="e">
+      <c r="H6" s="100" t="e">
         <f>(G6/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="129">
+        <v>5.2030000000000003</v>
       </c>
       <c r="J6" s="79"/>
       <c r="L6" s="38"/>
@@ -46253,15 +46485,15 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="82"/>
-      <c r="F7" s="98">
+      <c r="F7" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="101" t="e">
+      <c r="H7" s="100" t="e">
         <f>(G7/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46282,15 +46514,15 @@
       <c r="C8" s="12"/>
       <c r="D8" s="41"/>
       <c r="E8" s="83"/>
-      <c r="F8" s="99">
+      <c r="F8" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="102" t="e">
+      <c r="H8" s="101" t="e">
         <f>(G8/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46313,20 +46545,20 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
     </row>
     <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="80" t="s">
@@ -46350,7 +46582,7 @@
       <c r="H11" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="89" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="78" t="s">
@@ -46364,23 +46596,23 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="96">
+      <c r="F12" s="95">
         <f>(C12+D12+E12)/3</f>
         <v>0</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="94">
         <f>MAX(C12-F12,D12-F12,E12-F12)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H12" s="100" t="e">
+      <c r="H12" s="99" t="e">
         <f>(G12/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="84">
         <f>$I$4</f>
         <v>5</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="96">
         <f>(F16-F12)/I12/1</f>
         <v>0</v>
       </c>
@@ -46393,15 +46625,15 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="98">
+      <c r="F13" s="97">
         <f t="shared" ref="F13:F16" si="2">(C13+D13+E13)/3</f>
         <v>0</v>
       </c>
-      <c r="G13" s="96">
+      <c r="G13" s="95">
         <f t="shared" ref="G13:G16" si="3">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H13" s="101" t="e">
+      <c r="H13" s="100" t="e">
         <f>(G13/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46414,15 +46646,15 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="98">
+      <c r="F14" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H14" s="101" t="e">
+      <c r="H14" s="100" t="e">
         <f>(G14/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46435,15 +46667,15 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="98">
+      <c r="F15" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="96">
+      <c r="G15" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="101" t="e">
+      <c r="H15" s="100" t="e">
         <f>(G15/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46456,15 +46688,15 @@
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="99">
+      <c r="F16" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="97">
+      <c r="G16" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="102" t="e">
+      <c r="H16" s="101" t="e">
         <f>(G16/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46473,19 +46705,19 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="85" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="77" t="s">
@@ -46497,7 +46729,7 @@
       <c r="E19" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="89" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="77" t="s">
@@ -46506,139 +46738,139 @@
       <c r="H19" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="91" t="s">
+      <c r="I19" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="95">
+      <c r="B20" s="94">
         <f>F4</f>
         <v>0</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="96">
+      <c r="F20" s="95">
         <f>(C20+D20+E20)/3</f>
         <v>0</v>
       </c>
-      <c r="G20" s="95">
+      <c r="G20" s="94">
         <f>MAX(C20-F20,D20-F20,E20-F20)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H20" s="100" t="e">
+      <c r="H20" s="99" t="e">
         <f>(G20)/((MAX(C20:E24)-MIN(C20:E24)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="92"/>
+      <c r="I20" s="91"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="96">
+      <c r="B21" s="95">
         <f t="shared" ref="B21:B24" si="4">F5</f>
         <v>0</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="3"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="98">
+      <c r="F21" s="97">
         <f t="shared" ref="F21:F24" si="5">(C21+D21+E21)/3</f>
         <v>0</v>
       </c>
-      <c r="G21" s="96">
+      <c r="G21" s="95">
         <f t="shared" ref="G21:G24" si="6">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H21" s="101" t="e">
+      <c r="H21" s="100" t="e">
         <f>(G21)/((MAX(C35:E39)-MIN(C35:E39)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="93"/>
+      <c r="I21" s="92"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="96">
+      <c r="B22" s="95">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="98">
+      <c r="F22" s="97">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G22" s="96">
+      <c r="G22" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H22" s="101" t="e">
+      <c r="H22" s="100" t="e">
         <f>(G22)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="93"/>
+      <c r="I22" s="92"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="96">
+      <c r="B23" s="95">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="98">
+      <c r="F23" s="97">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="96">
+      <c r="G23" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H23" s="101" t="e">
+      <c r="H23" s="100" t="e">
         <f>(G23)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="93"/>
+      <c r="I23" s="92"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="97">
+      <c r="B24" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="6"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="99">
+      <c r="F24" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="97">
+      <c r="G24" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="102" t="e">
+      <c r="H24" s="101" t="e">
         <f>(G24)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="94"/>
+      <c r="I24" s="93"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="109"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -46663,7 +46895,7 @@
       <c r="H27" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="84" t="s">
+      <c r="I27" s="89" t="s">
         <v>51</v>
       </c>
       <c r="J27" s="78" t="s">
@@ -46678,23 +46910,23 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="96">
+      <c r="F28" s="95">
         <f>(C28+D28+E28)/3</f>
         <v>0</v>
       </c>
-      <c r="G28" s="95">
+      <c r="G28" s="94">
         <f>MAX(C28-F28,D28-F28,E28-F28)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H28" s="100" t="e">
+      <c r="H28" s="99" t="e">
         <f>(G28/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="85">
+      <c r="I28" s="84">
         <f>$I$4</f>
         <v>5</v>
       </c>
-      <c r="J28" s="97">
+      <c r="J28" s="96">
         <f>(F32-F28)/I28/1</f>
         <v>0</v>
       </c>
@@ -46707,15 +46939,15 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="98">
+      <c r="F29" s="97">
         <f t="shared" ref="F29:F32" si="7">(C29+D29+E29)/3</f>
         <v>0</v>
       </c>
-      <c r="G29" s="96">
+      <c r="G29" s="95">
         <f t="shared" ref="G29:G32" si="8">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
         <v>0</v>
       </c>
-      <c r="H29" s="101" t="e">
+      <c r="H29" s="100" t="e">
         <f>(G29/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46729,15 +46961,15 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="98">
+      <c r="F30" s="97">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G30" s="96">
+      <c r="G30" s="95">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H30" s="101" t="e">
+      <c r="H30" s="100" t="e">
         <f>(G30/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46755,15 +46987,15 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="98">
+      <c r="F31" s="97">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G31" s="96">
+      <c r="G31" s="95">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H31" s="101" t="e">
+      <c r="H31" s="100" t="e">
         <f>(G31/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46776,15 +47008,15 @@
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="99">
+      <c r="F32" s="98">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G32" s="97">
+      <c r="G32" s="96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H32" s="102" t="e">
+      <c r="H32" s="101" t="e">
         <f>(G32/1000)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -46796,19 +47028,19 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="85" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="77" t="s">
@@ -46820,7 +47052,7 @@
       <c r="E35" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="89" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="77" t="s">
@@ -46829,114 +47061,114 @@
       <c r="H35" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="91" t="s">
+      <c r="I35" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="87">
+      <c r="B36" s="86">
         <v>0</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="33"/>
       <c r="E36" s="34"/>
-      <c r="F36" s="96">
+      <c r="F36" s="95">
         <f>(C36+D36+E36)/3</f>
         <v>0</v>
       </c>
-      <c r="G36" s="96">
+      <c r="G36" s="95">
         <f>MAX(C36-F36,D36-F36,E36-F36)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="100" t="e">
+      <c r="H36" s="99" t="e">
         <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="92"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="88">
+      <c r="B37" s="87">
         <v>80</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="30"/>
-      <c r="F37" s="98">
+      <c r="F37" s="97">
         <f t="shared" ref="F37:F40" si="9">(C37+D37+E37)/3</f>
         <v>0</v>
       </c>
-      <c r="G37" s="98">
+      <c r="G37" s="97">
         <f t="shared" ref="G37:G40" si="10">MAX(C37-F37,D37-F37,E37-F37)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="100" t="e">
+      <c r="H37" s="99" t="e">
         <f t="shared" ref="H37:H40" si="11">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="93"/>
+      <c r="I37" s="92"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="88">
+      <c r="B38" s="87">
         <v>160</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="3"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="98">
+      <c r="F38" s="97">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G38" s="98">
+      <c r="G38" s="97">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H38" s="100" t="e">
+      <c r="H38" s="99" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="93"/>
+      <c r="I38" s="92"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="88">
+      <c r="B39" s="87">
         <v>240</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="3"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="98">
+      <c r="F39" s="97">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G39" s="98">
+      <c r="G39" s="97">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H39" s="100" t="e">
+      <c r="H39" s="99" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="93"/>
+      <c r="I39" s="92"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="89">
+      <c r="B40" s="88">
         <v>290</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="6"/>
       <c r="E40" s="31"/>
-      <c r="F40" s="99">
+      <c r="F40" s="98">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G40" s="99">
+      <c r="G40" s="98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H40" s="100" t="e">
+      <c r="H40" s="99" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="94"/>
+      <c r="I40" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -46982,26 +47214,26 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108"/>
-      <c r="K2" s="106" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
+      <c r="K2" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="109"/>
       <c r="Z2" t="s">
         <v>28</v>
       </c>
@@ -47429,11 +47661,11 @@
       <c r="F10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="40"/>
-      <c r="Y10" s="121" t="s">
+      <c r="Y10" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="123"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="112"/>
       <c r="AE10">
         <v>0.4</v>
       </c>
@@ -47656,57 +47888,57 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="113"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="114"/>
     </row>
     <row r="31" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="124" t="s">
+      <c r="C31" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="113"/>
-      <c r="E31" s="112" t="s">
+      <c r="D31" s="114"/>
+      <c r="E31" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="113"/>
-      <c r="G31" s="125" t="s">
+      <c r="F31" s="114"/>
+      <c r="G31" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="126"/>
-      <c r="I31" s="110" t="s">
+      <c r="H31" s="117"/>
+      <c r="I31" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="110" t="s">
+      <c r="J31" s="118" t="s">
         <v>52</v>
       </c>
       <c r="K31" s="54"/>
-      <c r="L31" s="112" t="s">
+      <c r="L31" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="113"/>
-      <c r="N31" s="112" t="s">
+      <c r="M31" s="114"/>
+      <c r="N31" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="O31" s="113"/>
+      <c r="O31" s="114"/>
     </row>
     <row r="32" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="118"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="53" t="s">
         <v>38</v>
       </c>
@@ -47725,8 +47957,8 @@
       <c r="H32" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
       <c r="K32" s="57" t="s">
         <v>51</v>
       </c>
@@ -47960,19 +48192,19 @@
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="110" t="s">
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="112" t="s">
+      <c r="G40" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="113"/>
+      <c r="H40" s="114"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="50" t="s">
@@ -47987,7 +48219,7 @@
       <c r="E41" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="111"/>
+      <c r="F41" s="119"/>
       <c r="G41" s="53" t="s">
         <v>60</v>
       </c>
@@ -48083,12 +48315,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="B40:E40"/>
@@ -48098,6 +48324,12 @@
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="J31:J32"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48137,26 +48369,26 @@
       </c>
     </row>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108"/>
-      <c r="K2" s="106" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
+      <c r="K2" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="109"/>
       <c r="Z2" t="s">
         <v>28</v>
       </c>
@@ -48845,11 +49077,11 @@
       <c r="F14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="40"/>
-      <c r="Y14" s="121" t="s">
+      <c r="Y14" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="123"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="112"/>
       <c r="AE14">
         <v>0.4</v>
       </c>
@@ -49072,27 +49304,27 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="109"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="115"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="115"/>
+      <c r="F35" s="121"/>
       <c r="G35" s="128" t="s">
         <v>42</v>
       </c>
@@ -49380,12 +49612,12 @@
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
@@ -49519,15 +49751,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
@@ -49845,15 +50077,15 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="109"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
@@ -50406,6 +50638,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0c8a948-a8a2-431d-a436-e17f069363af">
@@ -50414,15 +50655,6 @@
     <TaxCatchAll xmlns="6b745cbd-a34e-432a-9900-41e3803aa2e9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50445,6 +50677,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CB14B-EEEA-4E1E-B623-D870A775B6DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9C1C43-49EE-494C-B635-B785FB629686}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -50459,12 +50699,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CB14B-EEEA-4E1E-B623-D870A775B6DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/otherinfos/Kalibration/DruckSensor (version 1).xlsx
+++ b/otherinfos/Kalibration/DruckSensor (version 1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5A4F6F-7251-46DD-A90D-F91E5789D89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5999D909-CE3B-401B-AAA9-C4D92A180905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="10" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet name="Analog" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'P1 Spannung'!$B$2:$J$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'P2 Spannung'!$B$2:$J$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'P3 Spannung'!$B$2:$J$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'P1 Spannung'!$A:$R</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'P2 Spannung'!$A:$R</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'P3 Spannung'!$A:$R</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -873,18 +873,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -895,15 +883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,15 +890,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -928,15 +898,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -983,6 +944,45 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21038,15 +21038,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>7140</xdr:colOff>
+      <xdr:colOff>23015</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>202404</xdr:rowOff>
+      <xdr:rowOff>186529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>345281</xdr:rowOff>
+      <xdr:rowOff>329406</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21888,7 +21888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F616FF6-8926-4223-AA20-EFFB0EBBC2D2}">
   <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -21900,20 +21900,20 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="75" t="s">
         <v>45</v>
       </c>
     </row>
@@ -21921,26 +21921,26 @@
       <c r="B4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="73">
         <v>1</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="73" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="77">
         <v>0.01</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="77" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="74" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="64">
@@ -21955,6 +21955,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21962,8 +21963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D6FC5D-20FD-4585-85D2-0A365BB12AD8}">
   <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:I39"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21978,60 +21979,60 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="19.140625" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
     <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
       <c r="S2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="79" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="26"/>
@@ -22087,31 +22088,31 @@
       <c r="S4" s="36"/>
     </row>
     <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="98">
+      <c r="B5" s="85">
         <v>80</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="86">
         <v>20.010000000000002</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="87">
         <v>19.84</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="88">
         <v>20</v>
       </c>
-      <c r="F5" s="102">
+      <c r="F5" s="89">
         <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
         <v>19.95</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="90">
         <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="91">
         <f t="shared" ref="H5:H8" si="2">(G5/$S$3)/(MAX($C$4:$E$8)-MIN($C$4:$E$8))</f>
         <v>1.0467550593161597E-3</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="84" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="47"/>
@@ -22162,27 +22163,27 @@
       <c r="S6" s="36"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="98">
+      <c r="B7" s="85">
         <v>240</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="86">
         <v>51.1</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="87">
         <v>51.3</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="88">
         <v>51.23</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="89">
         <f t="shared" si="0"/>
         <v>51.21</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="90">
         <f t="shared" si="1"/>
         <v>8.9999999999996305E-2</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="91">
         <f t="shared" si="2"/>
         <v>1.5701325889741155E-3</v>
       </c>
@@ -22240,47 +22241,47 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
     </row>
     <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="79" t="s">
         <v>16</v>
       </c>
     </row>
@@ -22320,27 +22321,27 @@
       <c r="K12" s="34"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="98">
+      <c r="B13" s="85">
         <v>80</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="87">
         <v>23.23</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="87">
         <v>23.2</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="87">
         <v>23.41</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="89">
         <f t="shared" ref="F13:F16" si="3">(C13+D13+E13)/3</f>
         <v>23.28</v>
       </c>
-      <c r="G13" s="103">
+      <c r="G13" s="90">
         <f t="shared" ref="G13:G16" si="4">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
         <v>0.12999999999999901</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="91">
         <f t="shared" ref="H13:H16" si="5">(G13/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
         <v>1.9374068554396276E-3</v>
       </c>
@@ -22374,27 +22375,27 @@
       <c r="J14" s="47"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="98">
+      <c r="B15" s="85">
         <v>240</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="87">
         <v>60.13</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="87">
         <v>60.27</v>
       </c>
-      <c r="E15" s="100">
+      <c r="E15" s="87">
         <v>59.78</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="89">
         <f t="shared" si="3"/>
         <v>60.06</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="90">
         <f t="shared" si="4"/>
         <v>0.21000000000000085</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="91">
         <f t="shared" si="5"/>
         <v>3.1296572280178968E-3</v>
       </c>
@@ -22430,44 +22431,44 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
     </row>
     <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="95" t="s">
+      <c r="H19" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="J19" s="82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -22498,7 +22499,7 @@
         <f>(G20)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
         <v>2.2055836090312891E-3</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="70">
         <f>F20-B20</f>
         <v>0.10333333333333306</v>
       </c>
@@ -22508,31 +22509,31 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="103">
+      <c r="B21" s="90">
         <v>19.95</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="92">
         <v>19.760000000000002</v>
       </c>
-      <c r="D21" s="106">
+      <c r="D21" s="93">
         <v>19.71</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="94">
         <v>19.8</v>
       </c>
-      <c r="F21" s="102">
+      <c r="F21" s="89">
         <f t="shared" ref="F21:F24" si="6">(C21+D21+E21)/3</f>
         <v>19.756666666666664</v>
       </c>
-      <c r="G21" s="103">
+      <c r="G21" s="90">
         <f t="shared" ref="G21:G24" si="7">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
         <v>4.3333333333336554E-2</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="91">
         <f t="shared" ref="H21:H23" si="8">(G21)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
         <v>7.5454176098444284E-4</v>
       </c>
-      <c r="I21" s="108">
+      <c r="I21" s="95">
         <f t="shared" ref="I21:I24" si="9">F21-B21</f>
         <v>-0.19333333333333513</v>
       </c>
@@ -22564,7 +22565,7 @@
         <f t="shared" si="8"/>
         <v>9.8670845667185917E-4</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="71">
         <f t="shared" si="9"/>
         <v>9.0000000000003411E-2</v>
       </c>
@@ -22572,31 +22573,31 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="103">
+      <c r="B23" s="90">
         <v>51.21</v>
       </c>
-      <c r="C23" s="105">
+      <c r="C23" s="92">
         <v>51.3</v>
       </c>
-      <c r="D23" s="106">
+      <c r="D23" s="93">
         <v>51.5</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="94">
         <v>51.46</v>
       </c>
-      <c r="F23" s="102">
+      <c r="F23" s="89">
         <f t="shared" si="6"/>
         <v>51.419999999999995</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G23" s="90">
         <f t="shared" si="7"/>
         <v>8.00000000000054E-2</v>
       </c>
-      <c r="H23" s="104">
+      <c r="H23" s="91">
         <f t="shared" si="8"/>
         <v>1.3930001741251157E-3</v>
       </c>
-      <c r="I23" s="108">
+      <c r="I23" s="95">
         <f t="shared" si="9"/>
         <v>0.20999999999999375</v>
       </c>
@@ -22628,7 +22629,7 @@
         <f>(G24)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
         <v>2.0895002611874881E-3</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="72">
         <f t="shared" si="9"/>
         <v>-3.3333333333303017E-3</v>
       </c>
@@ -22639,45 +22640,45 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="88" t="s">
+      <c r="E27" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="88" t="s">
+      <c r="G27" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="90" t="s">
+      <c r="I27" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="89" t="s">
+      <c r="J27" s="79" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="2"/>
@@ -22718,27 +22719,27 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="98">
+      <c r="B29" s="85">
         <v>80</v>
       </c>
-      <c r="C29" s="100">
+      <c r="C29" s="87">
         <v>19.760000000000002</v>
       </c>
-      <c r="D29" s="100">
+      <c r="D29" s="87">
         <v>19.71</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E29" s="87">
         <v>19.8</v>
       </c>
-      <c r="F29" s="102">
+      <c r="F29" s="89">
         <f t="shared" ref="F29:F32" si="10">(C29+D29+E29)/3</f>
         <v>19.756666666666664</v>
       </c>
-      <c r="G29" s="103">
+      <c r="G29" s="90">
         <f t="shared" ref="G29:G32" si="11">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
         <v>4.3333333333336554E-2</v>
       </c>
-      <c r="H29" s="104">
+      <c r="H29" s="91">
         <f t="shared" ref="H29:H32" si="12">(G29/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
         <v>7.5454176098444284E-4</v>
       </c>
@@ -22778,27 +22779,27 @@
       <c r="O30" s="42"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="98">
+      <c r="B31" s="85">
         <v>240</v>
       </c>
-      <c r="C31" s="100">
+      <c r="C31" s="87">
         <v>51.3</v>
       </c>
-      <c r="D31" s="100">
+      <c r="D31" s="87">
         <v>51.5</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="87">
         <v>51.46</v>
       </c>
-      <c r="F31" s="102">
+      <c r="F31" s="89">
         <f t="shared" si="10"/>
         <v>51.419999999999995</v>
       </c>
-      <c r="G31" s="103">
+      <c r="G31" s="90">
         <f t="shared" si="11"/>
         <v>8.00000000000054E-2</v>
       </c>
-      <c r="H31" s="104">
+      <c r="H31" s="91">
         <f t="shared" si="12"/>
         <v>1.3930001741251157E-3</v>
       </c>
@@ -22837,44 +22838,44 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="93"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="95" t="s">
+      <c r="E35" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="95" t="s">
+      <c r="H35" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="96" t="s">
+      <c r="I35" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="95" t="s">
+      <c r="J35" s="82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -22903,7 +22904,7 @@
         <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>1.3724951962668143E-4</v>
       </c>
-      <c r="I36" s="71">
+      <c r="I36" s="67">
         <f>F36-B36</f>
         <v>-1.37</v>
       </c>
@@ -22913,31 +22914,31 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="109">
+      <c r="B37" s="96">
         <v>80</v>
       </c>
-      <c r="C37" s="105">
+      <c r="C37" s="92">
         <v>80.5</v>
       </c>
-      <c r="D37" s="106">
+      <c r="D37" s="93">
         <v>80.87</v>
       </c>
-      <c r="E37" s="107">
+      <c r="E37" s="94">
         <v>80.13</v>
       </c>
-      <c r="F37" s="102">
+      <c r="F37" s="89">
         <f t="shared" ref="F37" si="13">(C37+D37+E37)/3</f>
         <v>80.5</v>
       </c>
-      <c r="G37" s="102">
+      <c r="G37" s="89">
         <f t="shared" ref="G37" si="14">MAX(C37-F37,D37-F37,E37-F37)</f>
         <v>0.37000000000000455</v>
       </c>
-      <c r="H37" s="104">
+      <c r="H37" s="91">
         <f t="shared" ref="H37:H40" si="15">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>1.2695580565468176E-3</v>
       </c>
-      <c r="I37" s="110">
+      <c r="I37" s="97">
         <f>E37-B37</f>
         <v>0.12999999999999545</v>
       </c>
@@ -22968,38 +22969,38 @@
         <f t="shared" si="15"/>
         <v>7.0912251807122445E-4</v>
       </c>
-      <c r="I38" s="72">
+      <c r="I38" s="68">
         <f>F38-B38</f>
         <v>1.0933333333333337</v>
       </c>
       <c r="J38" s="47"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="109">
+      <c r="B39" s="96">
         <v>240</v>
       </c>
-      <c r="C39" s="105">
+      <c r="C39" s="92">
         <v>241.18</v>
       </c>
-      <c r="D39" s="106">
+      <c r="D39" s="93">
         <v>239.95</v>
       </c>
-      <c r="E39" s="111">
+      <c r="E39" s="98">
         <v>238.2</v>
       </c>
-      <c r="F39" s="102">
+      <c r="F39" s="89">
         <f t="shared" ref="F39:F40" si="16">(C39+D39+E39)/3</f>
         <v>239.77666666666664</v>
       </c>
-      <c r="G39" s="102">
+      <c r="G39" s="89">
         <f t="shared" ref="G39:G40" si="17">MAX(C39-F39,D39-F39,E39-F39)</f>
         <v>1.4033333333333644</v>
       </c>
-      <c r="H39" s="104">
+      <c r="H39" s="91">
         <f t="shared" si="15"/>
         <v>4.8151706469028426E-3</v>
       </c>
-      <c r="I39" s="112">
+      <c r="I39" s="99">
         <f>F39-B39</f>
         <v>-0.22333333333335759</v>
       </c>
@@ -23030,7 +23031,7 @@
         <f t="shared" si="15"/>
         <v>1.3267453563912163E-3</v>
       </c>
-      <c r="I40" s="73">
+      <c r="I40" s="69">
         <f>F40-B40</f>
         <v>-0.35666666666668334</v>
       </c>
@@ -23046,7 +23047,10 @@
     <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -23055,8 +23059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA93A4F-0A1B-4100-8CDC-C3CF8D673D9C}">
   <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:I39"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23071,60 +23075,60 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="19.140625" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
     <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
       <c r="S2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="79" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="26"/>
@@ -23180,31 +23184,31 @@
       <c r="S4" s="36"/>
     </row>
     <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="98">
+      <c r="B5" s="85">
         <v>80</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="86">
         <v>21.57</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="87">
         <v>21.51</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="88">
         <v>21.55</v>
       </c>
-      <c r="F5" s="102">
+      <c r="F5" s="89">
         <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
         <v>21.543333333333333</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="90">
         <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
         <v>2.6666666666667282E-2</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="91">
         <f t="shared" ref="H5:H8" si="2">(G5/$S$3)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>4.5459711330834095E-4</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="84" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="47"/>
@@ -23255,27 +23259,27 @@
       <c r="S6" s="36"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="98">
+      <c r="B7" s="85">
         <v>240</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="86">
         <v>53.6</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="87">
         <v>53.55</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="88">
         <v>53.65</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="89">
         <f t="shared" si="0"/>
         <v>53.6</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="90">
         <f t="shared" si="1"/>
         <v>4.9999999999997158E-2</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="91">
         <f t="shared" si="2"/>
         <v>8.5236958745307117E-4</v>
       </c>
@@ -23333,47 +23337,47 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
     </row>
     <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="79" t="s">
         <v>16</v>
       </c>
     </row>
@@ -23413,27 +23417,27 @@
       <c r="K12" s="34"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="98">
+      <c r="B13" s="85">
         <v>80</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="87">
         <v>25.12</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="87">
         <v>24.9</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="87">
         <v>25.07</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="89">
         <f t="shared" ref="F13:F16" si="3">(C13+D13+E13)/3</f>
         <v>25.03</v>
       </c>
-      <c r="G13" s="103">
+      <c r="G13" s="90">
         <f t="shared" ref="G13:G16" si="4">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="91">
         <f t="shared" ref="H13:H16" si="5">(G13/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
         <v>1.3274336283185817E-3</v>
       </c>
@@ -23467,27 +23471,27 @@
       <c r="J14" s="47"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="98">
+      <c r="B15" s="85">
         <v>240</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="87">
         <v>62.43</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="87">
         <v>62.09</v>
       </c>
-      <c r="E15" s="100">
+      <c r="E15" s="87">
         <v>62.14</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="89">
         <f t="shared" si="3"/>
         <v>62.220000000000006</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="90">
         <f t="shared" si="4"/>
         <v>0.20999999999999375</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="91">
         <f t="shared" si="5"/>
         <v>3.09734513274327E-3</v>
       </c>
@@ -23523,44 +23527,44 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
     </row>
     <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="95" t="s">
+      <c r="H19" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="J19" s="82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -23590,7 +23594,7 @@
         <f>(G20)/((MAX(C20:E24)-MIN(C20:E24)))</f>
         <v>4.0194746376811547E-3</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="70">
         <f>F20-B20</f>
         <v>0</v>
       </c>
@@ -23600,32 +23604,32 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="103">
+      <c r="B21" s="90">
         <f t="shared" ref="B21:B24" si="6">F5</f>
         <v>21.543333333333333</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="87">
         <v>21.11</v>
       </c>
-      <c r="D21" s="100">
+      <c r="D21" s="87">
         <v>21.35</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="87">
         <v>21.45</v>
       </c>
-      <c r="F21" s="102">
+      <c r="F21" s="89">
         <f t="shared" ref="F21:F24" si="7">(C21+D21+E21)/3</f>
         <v>21.303333333333331</v>
       </c>
-      <c r="G21" s="103">
+      <c r="G21" s="90">
         <f t="shared" ref="G21:G24" si="8">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
         <v>0.14666666666666828</v>
       </c>
-      <c r="H21" s="113">
+      <c r="H21" s="100">
         <f>(G21)/((MAX(C35:E39)-MIN(C35:E39)))</f>
         <v>6.0611069785382376E-4</v>
       </c>
-      <c r="I21" s="108">
+      <c r="I21" s="95">
         <f t="shared" ref="I21:I24" si="9">F21-B21</f>
         <v>-0.24000000000000199</v>
       </c>
@@ -23658,7 +23662,7 @@
         <f>(G22)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>3.2507639295232545E-4</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="71">
         <f t="shared" si="9"/>
         <v>0.28999999999999915</v>
       </c>
@@ -23666,32 +23670,32 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="103">
+      <c r="B23" s="90">
         <f t="shared" si="6"/>
         <v>53.6</v>
       </c>
-      <c r="C23" s="100">
+      <c r="C23" s="87">
         <v>53.56</v>
       </c>
-      <c r="D23" s="100">
+      <c r="D23" s="87">
         <v>53.72</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E23" s="87">
         <v>53.84</v>
       </c>
-      <c r="F23" s="102">
+      <c r="F23" s="89">
         <f t="shared" si="7"/>
         <v>53.706666666666671</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G23" s="90">
         <f t="shared" si="8"/>
         <v>0.13333333333333286</v>
       </c>
-      <c r="H23" s="113">
+      <c r="H23" s="100">
         <f>(G23)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>2.600611143618742E-3</v>
       </c>
-      <c r="I23" s="108">
+      <c r="I23" s="95">
         <f t="shared" si="9"/>
         <v>0.10666666666666913</v>
       </c>
@@ -23724,7 +23728,7 @@
         <f>(G24)/((MAX(C39:E41)-MIN(C39:E41)))</f>
         <v>3.5108250438851702E-3</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="72">
         <f t="shared" si="9"/>
         <v>-1.6666666666672825E-2</v>
       </c>
@@ -23735,45 +23739,45 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="88" t="s">
+      <c r="E27" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="88" t="s">
+      <c r="G27" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="90" t="s">
+      <c r="I27" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="89" t="s">
+      <c r="J27" s="79" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="2"/>
@@ -23814,27 +23818,27 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="98">
+      <c r="B29" s="85">
         <v>80</v>
       </c>
-      <c r="C29" s="100">
+      <c r="C29" s="87">
         <v>21.11</v>
       </c>
-      <c r="D29" s="100">
+      <c r="D29" s="87">
         <v>21.35</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E29" s="87">
         <v>21.45</v>
       </c>
-      <c r="F29" s="102">
+      <c r="F29" s="89">
         <f t="shared" ref="F29:F32" si="10">(C29+D29+E29)/3</f>
         <v>21.303333333333331</v>
       </c>
-      <c r="G29" s="103">
+      <c r="G29" s="90">
         <f t="shared" ref="G29:G32" si="11">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
         <v>0.14666666666666828</v>
       </c>
-      <c r="H29" s="104">
+      <c r="H29" s="91">
         <f>(G29/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
         <v>2.4909420289855348E-3</v>
       </c>
@@ -23874,27 +23878,27 @@
       <c r="O30" s="42"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="98">
+      <c r="B31" s="85">
         <v>240</v>
       </c>
-      <c r="C31" s="100">
+      <c r="C31" s="87">
         <v>53.56</v>
       </c>
-      <c r="D31" s="100">
+      <c r="D31" s="87">
         <v>53.72</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="87">
         <v>53.84</v>
       </c>
-      <c r="F31" s="102">
+      <c r="F31" s="89">
         <f t="shared" si="10"/>
         <v>53.706666666666671</v>
       </c>
-      <c r="G31" s="103">
+      <c r="G31" s="90">
         <f t="shared" si="11"/>
         <v>0.13333333333333286</v>
       </c>
-      <c r="H31" s="104">
+      <c r="H31" s="91">
         <f t="shared" si="12"/>
         <v>2.2644927536231807E-3</v>
       </c>
@@ -23933,44 +23937,44 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="93"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="95" t="s">
+      <c r="E35" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="95" t="s">
+      <c r="H35" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="96" t="s">
+      <c r="I35" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="95" t="s">
+      <c r="J35" s="82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -23999,7 +24003,7 @@
         <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>3.5390551864283002E-4</v>
       </c>
-      <c r="I36" s="74">
+      <c r="I36" s="70">
         <f>F36-B36</f>
         <v>-1.1333333333333335</v>
       </c>
@@ -24009,31 +24013,31 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="109">
+      <c r="B37" s="96">
         <v>80</v>
       </c>
-      <c r="C37" s="105">
+      <c r="C37" s="92">
         <v>80.45</v>
       </c>
-      <c r="D37" s="106">
+      <c r="D37" s="93">
         <v>80.290000000000006</v>
       </c>
-      <c r="E37" s="107">
+      <c r="E37" s="94">
         <v>80.25</v>
       </c>
-      <c r="F37" s="102">
+      <c r="F37" s="89">
         <f t="shared" ref="F37:F39" si="13">(C37+D37+E37)/3</f>
         <v>80.33</v>
       </c>
-      <c r="G37" s="102">
+      <c r="G37" s="89">
         <f t="shared" ref="G37:G39" si="14">MAX(C37-F37,D37-F37,E37-F37)</f>
         <v>0.12000000000000455</v>
       </c>
-      <c r="H37" s="104">
+      <c r="H37" s="91">
         <f t="shared" ref="H37:H39" si="15">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>4.1098705390781753E-4</v>
       </c>
-      <c r="I37" s="108">
+      <c r="I37" s="95">
         <f t="shared" ref="I37:I40" si="16">F37-B37</f>
         <v>0.32999999999999829</v>
       </c>
@@ -24064,38 +24068,38 @@
         <f t="shared" si="15"/>
         <v>2.4773386304997921E-3</v>
       </c>
-      <c r="I38" s="75">
+      <c r="I38" s="71">
         <f t="shared" si="16"/>
         <v>1.2066666666666777</v>
       </c>
       <c r="J38" s="47"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="109">
+      <c r="B39" s="96">
         <v>240</v>
       </c>
-      <c r="C39" s="105">
+      <c r="C39" s="92">
         <v>239.43</v>
       </c>
-      <c r="D39" s="106">
+      <c r="D39" s="93">
         <v>240.65</v>
       </c>
-      <c r="E39" s="107">
+      <c r="E39" s="94">
         <v>240.7</v>
       </c>
-      <c r="F39" s="102">
+      <c r="F39" s="89">
         <f t="shared" si="13"/>
         <v>240.26</v>
       </c>
-      <c r="G39" s="102">
+      <c r="G39" s="89">
         <f t="shared" si="14"/>
         <v>0.43999999999999773</v>
       </c>
-      <c r="H39" s="104">
+      <c r="H39" s="91">
         <f t="shared" si="15"/>
         <v>1.506952530995266E-3</v>
       </c>
-      <c r="I39" s="108">
+      <c r="I39" s="95">
         <f t="shared" si="16"/>
         <v>0.25999999999999091</v>
       </c>
@@ -24126,7 +24130,7 @@
         <f>(G40)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>1.9864374272207936E-3</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="72">
         <f t="shared" si="16"/>
         <v>0.12000000000006139</v>
       </c>
@@ -24142,7 +24146,10 @@
     <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="39" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -24151,8 +24158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EB5308-17EB-475C-A711-221EA997DC89}">
   <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:J35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24167,60 +24174,60 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="19.140625" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
     <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
     <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
       <c r="S2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="79" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="26"/>
@@ -24300,7 +24307,7 @@
         <f t="shared" ref="H5:H8" si="2">(G5/$S$3)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
         <v>4.1838606143971089E-3</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="84" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="47"/>
@@ -24429,47 +24436,47 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
     </row>
     <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="79" t="s">
         <v>16</v>
       </c>
     </row>
@@ -24619,44 +24626,44 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
     </row>
     <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="95" t="s">
+      <c r="H19" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="J19" s="82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -24686,7 +24693,7 @@
         <f>(G20)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
         <v>3.1419594401599512E-3</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="70">
         <f>F20-B20</f>
         <v>-0.1333333333333333</v>
       </c>
@@ -24721,7 +24728,7 @@
         <f t="shared" ref="H21:H24" si="8">(G21)/((MAX($C$20:$E$24)-MIN($C$20:$E$24)))</f>
         <v>1.999428734647252E-3</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="71">
         <f t="shared" ref="I21:I24" si="9">F21-B21</f>
         <v>6.6666666666669983E-2</v>
       </c>
@@ -24747,14 +24754,14 @@
         <v>35.323333333333331</v>
       </c>
       <c r="G22" s="56">
-        <f t="shared" ref="G21:G24" si="10">MAX(C22-F22,D22-F22,E22-F22)*$S$3</f>
+        <f t="shared" ref="G22:G24" si="10">MAX(C22-F22,D22-F22,E22-F22)*$S$3</f>
         <v>1.6666666666672825E-2</v>
       </c>
       <c r="H22" s="60">
         <f t="shared" si="8"/>
         <v>2.8563267637828321E-4</v>
       </c>
-      <c r="I22" s="75">
+      <c r="I22" s="71">
         <f t="shared" si="9"/>
         <v>0.11333333333332973</v>
       </c>
@@ -24787,7 +24794,7 @@
         <f t="shared" si="8"/>
         <v>2.8563267637816145E-4</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="71">
         <f t="shared" si="9"/>
         <v>-3.9999999999999147E-2</v>
       </c>
@@ -24820,7 +24827,7 @@
         <f t="shared" si="8"/>
         <v>4.2273636103970814E-3</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="72">
         <f t="shared" si="9"/>
         <v>-5.0000000000004263E-2</v>
       </c>
@@ -24831,45 +24838,45 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="88" t="s">
+      <c r="E27" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="88" t="s">
+      <c r="G27" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="90" t="s">
+      <c r="I27" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="89" t="s">
+      <c r="J27" s="79" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="2"/>
@@ -25029,44 +25036,44 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="93"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="95" t="s">
+      <c r="E35" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="95" t="s">
+      <c r="H35" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="96" t="s">
+      <c r="I35" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="95" t="s">
+      <c r="J35" s="82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25095,7 +25102,7 @@
         <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>1.1102336068857376E-3</v>
       </c>
-      <c r="I36" s="74">
+      <c r="I36" s="70">
         <f>F36-B36</f>
         <v>-1.1433333333333333</v>
       </c>
@@ -25129,7 +25136,7 @@
         <f t="shared" ref="H37:H39" si="16">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>1.6825189712598601E-3</v>
       </c>
-      <c r="I37" s="75">
+      <c r="I37" s="71">
         <f t="shared" ref="I37:I40" si="17">F37-B37</f>
         <v>0.15999999999999659</v>
       </c>
@@ -25160,7 +25167,7 @@
         <f t="shared" si="16"/>
         <v>7.7830809554873962E-4</v>
       </c>
-      <c r="I38" s="75">
+      <c r="I38" s="71">
         <f t="shared" si="17"/>
         <v>1.3133333333333326</v>
       </c>
@@ -25191,7 +25198,7 @@
         <f t="shared" si="16"/>
         <v>1.453604825510139E-3</v>
       </c>
-      <c r="I39" s="75">
+      <c r="I39" s="71">
         <f t="shared" si="17"/>
         <v>-4.3333333333322344E-2</v>
       </c>
@@ -25222,7 +25229,7 @@
         <f>(G40)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
         <v>1.6138447275348363E-3</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="72">
         <f t="shared" si="17"/>
         <v>-0.77999999999997272</v>
       </c>
@@ -25238,7 +25245,10 @@
     <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="39" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -25263,15 +25273,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
@@ -25589,15 +25599,15 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="113"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
@@ -25919,6 +25929,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0c8a948-a8a2-431d-a436-e17f069363af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6b745cbd-a34e-432a-9900-41e3803aa2e9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FD8BE65C2F837343AC2660C8B0889EAE" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b7eb9a75dd4706810b4c69081d8d48fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0c8a948-a8a2-431d-a436-e17f069363af" xmlns:ns3="6b745cbd-a34e-432a-9900-41e3803aa2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5420ca96eed7fa2cb1a1994b234afa6" ns2:_="" ns3:_="">
     <xsd:import namespace="c0c8a948-a8a2-431d-a436-e17f069363af"/>
@@ -26149,17 +26170,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0c8a948-a8a2-431d-a436-e17f069363af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6b745cbd-a34e-432a-9900-41e3803aa2e9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26170,6 +26180,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9C1C43-49EE-494C-B635-B785FB629686}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b745cbd-a34e-432a-9900-41e3803aa2e9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c0c8a948-a8a2-431d-a436-e17f069363af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5FF9E8C-A979-49D8-B0D6-7BF035D44D87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26188,23 +26215,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9C1C43-49EE-494C-B635-B785FB629686}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c0c8a948-a8a2-431d-a436-e17f069363af"/>
-    <ds:schemaRef ds:uri="6b745cbd-a34e-432a-9900-41e3803aa2e9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CB14B-EEEA-4E1E-B623-D870A775B6DB}">
   <ds:schemaRefs>

--- a/otherinfos/Kalibration/DruckSensor (version 1).xlsx
+++ b/otherinfos/Kalibration/DruckSensor (version 1).xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5999D909-CE3B-401B-AAA9-C4D92A180905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF7C189-E8EE-4A8C-B180-A2544CA13D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="10" r:id="rId1"/>
     <sheet name="P1 Spannung" sheetId="6" r:id="rId2"/>
     <sheet name="P2 Spannung" sheetId="7" r:id="rId3"/>
     <sheet name="P3 Spannung" sheetId="9" r:id="rId4"/>
-    <sheet name="Analog" sheetId="4" r:id="rId5"/>
+    <sheet name="F1 Messungen" sheetId="11" r:id="rId5"/>
+    <sheet name="Analog" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'F1 Messungen'!$A:$R</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'P1 Spannung'!$A:$R</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'P2 Spannung'!$A:$R</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3 Spannung'!$A:$R</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="49">
   <si>
     <t>Gewicht [kg]</t>
   </si>
@@ -4333,6 +4335,3232 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
+              <a:t>Absoluter Fehler</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32131351211683318"/>
+          <c:y val="2.5599987099219099E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F1 Messungen'!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multimeter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6666666666666856E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6666666666667282E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12666666666666515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9999999999997158E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.333333333332547E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B80-4281-9432-12B116B9B908}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F1 Messungen'!$B$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$B$12:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$G$12:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16333333333333311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999858E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22333333333332916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20999999999999375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20666666666667766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B80-4281-9432-12B116B9B908}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1219942239"/>
+        <c:axId val="1217668111"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1219942239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Druck [mmHg]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217668111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1217668111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Absoluter Fehler [mV]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219942239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Reduzierter Fehler</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F1 Messungen'!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multimeter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.9554494828958154E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5459711330834095E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1593362882145438E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5236958745307117E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0796681441071509E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F02-46DA-AE3B-A7B009396CD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F1 Messungen'!$B$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$B$12:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$H$12:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4090462143559451E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3274336283185817E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2940019665682763E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.09734513274327E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0481809242872806E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F02-46DA-AE3B-A7B009396CD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1293022879"/>
+        <c:axId val="1218501903"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1293022879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Druck [mmHg]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1218501903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1218501903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Reduzierter Fehler</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293022879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Verhältnis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Spannungen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Multimeter / Arduino</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19879582708637855"/>
+                  <c:y val="7.8016978671328107E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.543333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.593333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.636666666666677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$F$12:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.9866666666666672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.806666666666672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.473333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BA21-4931-A2A4-3493D9B1170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1397684031"/>
+        <c:axId val="2064268015"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1397684031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Spannung Multimeter [mV]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064268015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2064268015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Spannung</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Arduino [mV]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397684031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Verhälltnis Spannung zu mmHg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F1 Messungen'!$B$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21093708635010261"/>
+                  <c:y val="-4.0159191394463466E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Arduino</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0,2328x + 6,252</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0,9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$B$12:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$F$12:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.9866666666666672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.806666666666672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.473333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-980F-40AB-A2AF-E24AF0920BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F1 Messungen'!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multimeter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33880992498147161"/>
+                  <c:y val="-9.6188946232946687E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Multimeter</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0,2016x + 5,2372</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.543333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.593333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.636666666666677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-980F-40AB-A2AF-E24AF0920BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F1 Messungen'!$B$26:$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angepasster Druck Arduino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.81044857031956E-2"/>
+                  <c:y val="-8.1501756884316406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Angepasst Arduino</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0,2021x + 5,1914</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0,9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$B$28:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'F1 Messungen'!$F$28:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.303333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.883333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.706666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.620000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-980F-40AB-A2AF-E24AF0920BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1397684031"/>
+        <c:axId val="2064268015"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1397684031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Druck [mmHg]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064268015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2064268015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Spannung [mV]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397684031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71927201248001493"/>
+          <c:y val="0.32082412478579547"/>
+          <c:w val="0.26642098170593331"/>
+          <c:h val="0.40298776887600773"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
               <a:t>Gegenüberstellung Messwerte </a:t>
             </a:r>
           </a:p>
@@ -4997,7 +8225,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5686,7 +8914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -12973,6 +16201,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16390,6 +19778,2070 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21508,6 +26960,163 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7140</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>202404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>345281</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9CBED8-5F90-4B17-838E-7E16BC26326E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>197645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>345280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD378A82-E8CF-4718-8710-4BA665BC3BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>379336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C141E3-6007-4C1C-A700-A87C39BCAD89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7B8089-D707-4AE2-BFB2-5F2C45518DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -24158,7 +29767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EB5308-17EB-475C-A711-221EA997DC89}">
   <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
@@ -25254,6 +30863,1105 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8A430F-C726-449E-8CFF-4943FFD7A5C8}">
+  <dimension ref="B1:AA40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38">
+        <v>5.04</v>
+      </c>
+      <c r="D4" s="43">
+        <v>5.12</v>
+      </c>
+      <c r="E4" s="48">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F4" s="56">
+        <f>(C4+D4+E4)/3</f>
+        <v>5.0733333333333333</v>
+      </c>
+      <c r="G4" s="56">
+        <f>MAX(C4-F4,D4-F4,E4-F4)*$S$3</f>
+        <v>4.6666666666666856E-2</v>
+      </c>
+      <c r="H4" s="65">
+        <f>(G4/$S$3)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>7.9554494828958154E-4</v>
+      </c>
+      <c r="I4" s="51">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="J4" s="57">
+        <f>(F8-F4)/I4/1</f>
+        <v>13.49074713967596</v>
+      </c>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="36"/>
+    </row>
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="85">
+        <v>80</v>
+      </c>
+      <c r="C5" s="86">
+        <v>21.57</v>
+      </c>
+      <c r="D5" s="87">
+        <v>21.51</v>
+      </c>
+      <c r="E5" s="88">
+        <v>21.55</v>
+      </c>
+      <c r="F5" s="89">
+        <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
+        <v>21.543333333333333</v>
+      </c>
+      <c r="G5" s="90">
+        <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
+        <v>2.6666666666667282E-2</v>
+      </c>
+      <c r="H5" s="91">
+        <f t="shared" ref="H5:H8" si="2">(G5/$S$3)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
+        <v>4.5459711330834095E-4</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="45">
+        <v>160</v>
+      </c>
+      <c r="C6" s="8">
+        <v>37.46</v>
+      </c>
+      <c r="D6" s="9">
+        <v>37.72</v>
+      </c>
+      <c r="E6" s="49">
+        <v>37.6</v>
+      </c>
+      <c r="F6" s="58">
+        <f t="shared" si="0"/>
+        <v>37.593333333333334</v>
+      </c>
+      <c r="G6" s="56">
+        <f t="shared" si="1"/>
+        <v>0.12666666666666515</v>
+      </c>
+      <c r="H6" s="60">
+        <f t="shared" si="2"/>
+        <v>2.1593362882145438E-3</v>
+      </c>
+      <c r="I6" s="64">
+        <v>5.2030000000000003</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="85">
+        <v>240</v>
+      </c>
+      <c r="C7" s="86">
+        <v>53.6</v>
+      </c>
+      <c r="D7" s="87">
+        <v>53.55</v>
+      </c>
+      <c r="E7" s="88">
+        <v>53.65</v>
+      </c>
+      <c r="F7" s="89">
+        <f t="shared" si="0"/>
+        <v>53.6</v>
+      </c>
+      <c r="G7" s="90">
+        <f t="shared" si="1"/>
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="H7" s="91">
+        <f t="shared" si="2"/>
+        <v>8.5236958745307117E-4</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="46">
+        <v>290</v>
+      </c>
+      <c r="C8" s="12">
+        <v>63.61</v>
+      </c>
+      <c r="D8" s="37">
+        <v>63.6</v>
+      </c>
+      <c r="E8" s="50">
+        <v>63.7</v>
+      </c>
+      <c r="F8" s="59">
+        <f t="shared" si="0"/>
+        <v>63.636666666666677</v>
+      </c>
+      <c r="G8" s="57">
+        <f t="shared" si="1"/>
+        <v>6.333333333332547E-2</v>
+      </c>
+      <c r="H8" s="63">
+        <f t="shared" si="2"/>
+        <v>1.0796681441071509E-3</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="36"/>
+    </row>
+    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
+    </row>
+    <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="44">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
+        <v>5.88</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5.93</v>
+      </c>
+      <c r="E12" s="19">
+        <v>6.15</v>
+      </c>
+      <c r="F12" s="56">
+        <f>(C12+D12+E12)/3</f>
+        <v>5.9866666666666672</v>
+      </c>
+      <c r="G12" s="55">
+        <f>MAX(C12-F12,D12-F12,E12-F12)*$S$3</f>
+        <v>0.16333333333333311</v>
+      </c>
+      <c r="H12" s="65">
+        <f>(G12/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
+        <v>2.4090462143559451E-3</v>
+      </c>
+      <c r="I12" s="51">
+        <f>$I$4</f>
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="J12" s="57">
+        <f>(F16-F12)/I12/1</f>
+        <v>15.546341088842816</v>
+      </c>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="85">
+        <v>80</v>
+      </c>
+      <c r="C13" s="87">
+        <v>25.12</v>
+      </c>
+      <c r="D13" s="87">
+        <v>24.9</v>
+      </c>
+      <c r="E13" s="87">
+        <v>25.07</v>
+      </c>
+      <c r="F13" s="89">
+        <f t="shared" ref="F13:F16" si="3">(C13+D13+E13)/3</f>
+        <v>25.03</v>
+      </c>
+      <c r="G13" s="90">
+        <f t="shared" ref="G13:G16" si="4">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="H13" s="91">
+        <f t="shared" ref="H13:H16" si="5">(G13/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
+        <v>1.3274336283185817E-3</v>
+      </c>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="45">
+        <v>160</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43.7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>44.03</v>
+      </c>
+      <c r="E14" s="9">
+        <v>43.69</v>
+      </c>
+      <c r="F14" s="58">
+        <f t="shared" si="3"/>
+        <v>43.806666666666672</v>
+      </c>
+      <c r="G14" s="56">
+        <f t="shared" si="4"/>
+        <v>0.22333333333332916</v>
+      </c>
+      <c r="H14" s="60">
+        <f t="shared" si="5"/>
+        <v>3.2940019665682763E-3</v>
+      </c>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="85">
+        <v>240</v>
+      </c>
+      <c r="C15" s="87">
+        <v>62.43</v>
+      </c>
+      <c r="D15" s="87">
+        <v>62.09</v>
+      </c>
+      <c r="E15" s="87">
+        <v>62.14</v>
+      </c>
+      <c r="F15" s="89">
+        <f t="shared" si="3"/>
+        <v>62.220000000000006</v>
+      </c>
+      <c r="G15" s="90">
+        <f t="shared" si="4"/>
+        <v>0.20999999999999375</v>
+      </c>
+      <c r="H15" s="91">
+        <f t="shared" si="5"/>
+        <v>3.09734513274327E-3</v>
+      </c>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="46">
+        <v>290</v>
+      </c>
+      <c r="C16" s="37">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="D16" s="37">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="E16" s="37">
+        <v>73.28</v>
+      </c>
+      <c r="F16" s="59">
+        <f t="shared" si="3"/>
+        <v>73.473333333333329</v>
+      </c>
+      <c r="G16" s="57">
+        <f t="shared" si="4"/>
+        <v>0.20666666666667766</v>
+      </c>
+      <c r="H16" s="63">
+        <f t="shared" si="5"/>
+        <v>3.0481809242872806E-3</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
+    </row>
+    <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="55">
+        <f>F4</f>
+        <v>5.0733333333333333</v>
+      </c>
+      <c r="C20" s="19">
+        <v>4.92</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5.31</v>
+      </c>
+      <c r="E20" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="F20" s="56">
+        <f>(C20+D20+E20)/3</f>
+        <v>5.0733333333333333</v>
+      </c>
+      <c r="G20" s="55">
+        <f>MAX(C20-F20,D20-F20,E20-F20)*$S$3</f>
+        <v>0.23666666666666636</v>
+      </c>
+      <c r="H20" s="60">
+        <f>(G20)/((MAX(C20:E24)-MIN(C20:E24)))</f>
+        <v>4.0194746376811547E-3</v>
+      </c>
+      <c r="I20" s="70">
+        <f>F20-B20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="64">
+        <f>(ABS(I20)+ABS(I21)+ABS(I22)+ABS(I23)+ABS(I24))/5</f>
+        <v>0.13066666666666862</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="90">
+        <f t="shared" ref="B21:B24" si="6">F5</f>
+        <v>21.543333333333333</v>
+      </c>
+      <c r="C21" s="87">
+        <v>21.11</v>
+      </c>
+      <c r="D21" s="87">
+        <v>21.35</v>
+      </c>
+      <c r="E21" s="87">
+        <v>21.45</v>
+      </c>
+      <c r="F21" s="89">
+        <f t="shared" ref="F21:F24" si="7">(C21+D21+E21)/3</f>
+        <v>21.303333333333331</v>
+      </c>
+      <c r="G21" s="90">
+        <f t="shared" ref="G21:G24" si="8">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
+        <v>0.14666666666666828</v>
+      </c>
+      <c r="H21" s="100">
+        <f>(G21)/((MAX(C35:E39)-MIN(C35:E39)))</f>
+        <v>6.0611069785382376E-4</v>
+      </c>
+      <c r="I21" s="95">
+        <f t="shared" ref="I21:I24" si="9">F21-B21</f>
+        <v>-0.24000000000000199</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="56">
+        <f t="shared" si="6"/>
+        <v>37.593333333333334</v>
+      </c>
+      <c r="C22" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="D22" s="9">
+        <v>37.85</v>
+      </c>
+      <c r="E22" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="F22" s="58">
+        <f t="shared" si="7"/>
+        <v>37.883333333333333</v>
+      </c>
+      <c r="G22" s="56">
+        <f t="shared" si="8"/>
+        <v>1.6666666666665719E-2</v>
+      </c>
+      <c r="H22" s="61">
+        <f>(G22)/((MAX(C39:E41)-MIN(C39:E41)))</f>
+        <v>3.2507639295232545E-4</v>
+      </c>
+      <c r="I22" s="71">
+        <f t="shared" si="9"/>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="90">
+        <f t="shared" si="6"/>
+        <v>53.6</v>
+      </c>
+      <c r="C23" s="87">
+        <v>53.56</v>
+      </c>
+      <c r="D23" s="87">
+        <v>53.72</v>
+      </c>
+      <c r="E23" s="87">
+        <v>53.84</v>
+      </c>
+      <c r="F23" s="89">
+        <f t="shared" si="7"/>
+        <v>53.706666666666671</v>
+      </c>
+      <c r="G23" s="90">
+        <f t="shared" si="8"/>
+        <v>0.13333333333333286</v>
+      </c>
+      <c r="H23" s="100">
+        <f>(G23)/((MAX(C39:E41)-MIN(C39:E41)))</f>
+        <v>2.600611143618742E-3</v>
+      </c>
+      <c r="I23" s="95">
+        <f t="shared" si="9"/>
+        <v>0.10666666666666913</v>
+      </c>
+      <c r="J23" s="47"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="57">
+        <f t="shared" si="6"/>
+        <v>63.636666666666677</v>
+      </c>
+      <c r="C24" s="37">
+        <v>63.69</v>
+      </c>
+      <c r="D24" s="37">
+        <v>63.37</v>
+      </c>
+      <c r="E24" s="37">
+        <v>63.8</v>
+      </c>
+      <c r="F24" s="59">
+        <f t="shared" si="7"/>
+        <v>63.620000000000005</v>
+      </c>
+      <c r="G24" s="57">
+        <f t="shared" si="8"/>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="H24" s="62">
+        <f>(G24)/((MAX(C39:E41)-MIN(C39:E41)))</f>
+        <v>3.5108250438851702E-3</v>
+      </c>
+      <c r="I24" s="72">
+        <f t="shared" si="9"/>
+        <v>-1.6666666666672825E-2</v>
+      </c>
+      <c r="J24" s="40"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="44">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19">
+        <v>4.92</v>
+      </c>
+      <c r="D28" s="19">
+        <v>5.31</v>
+      </c>
+      <c r="E28" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="F28" s="56">
+        <f>(C28+D28+E28)/3</f>
+        <v>5.0733333333333333</v>
+      </c>
+      <c r="G28" s="55">
+        <f>MAX(C28-F28,D28-F28,E28-F28)*$S$3</f>
+        <v>0.23666666666666636</v>
+      </c>
+      <c r="H28" s="65">
+        <f>(G28/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
+        <v>4.0194746376811547E-3</v>
+      </c>
+      <c r="I28" s="51">
+        <f>$I$4</f>
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="J28" s="57">
+        <f>(F32-F28)/I28/1</f>
+        <v>13.486907778545651</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="85">
+        <v>80</v>
+      </c>
+      <c r="C29" s="87">
+        <v>21.11</v>
+      </c>
+      <c r="D29" s="87">
+        <v>21.35</v>
+      </c>
+      <c r="E29" s="87">
+        <v>21.45</v>
+      </c>
+      <c r="F29" s="89">
+        <f t="shared" ref="F29:F32" si="10">(C29+D29+E29)/3</f>
+        <v>21.303333333333331</v>
+      </c>
+      <c r="G29" s="90">
+        <f t="shared" ref="G29:G32" si="11">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
+        <v>0.14666666666666828</v>
+      </c>
+      <c r="H29" s="91">
+        <f>(G29/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
+        <v>2.4909420289855348E-3</v>
+      </c>
+      <c r="J29" s="47"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="45">
+        <v>160</v>
+      </c>
+      <c r="C30" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="D30" s="9">
+        <v>37.85</v>
+      </c>
+      <c r="E30" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="F30" s="58">
+        <f t="shared" si="10"/>
+        <v>37.883333333333333</v>
+      </c>
+      <c r="G30" s="56">
+        <f t="shared" si="11"/>
+        <v>1.6666666666665719E-2</v>
+      </c>
+      <c r="H30" s="60">
+        <f t="shared" ref="H30:H32" si="12">(G30/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
+        <v>2.8306159420288246E-4</v>
+      </c>
+      <c r="J30" s="47"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="85">
+        <v>240</v>
+      </c>
+      <c r="C31" s="87">
+        <v>53.56</v>
+      </c>
+      <c r="D31" s="87">
+        <v>53.72</v>
+      </c>
+      <c r="E31" s="87">
+        <v>53.84</v>
+      </c>
+      <c r="F31" s="89">
+        <f t="shared" si="10"/>
+        <v>53.706666666666671</v>
+      </c>
+      <c r="G31" s="90">
+        <f t="shared" si="11"/>
+        <v>0.13333333333333286</v>
+      </c>
+      <c r="H31" s="91">
+        <f t="shared" si="12"/>
+        <v>2.2644927536231807E-3</v>
+      </c>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="46">
+        <v>290</v>
+      </c>
+      <c r="C32" s="37">
+        <v>63.69</v>
+      </c>
+      <c r="D32" s="37">
+        <v>63.37</v>
+      </c>
+      <c r="E32" s="37">
+        <v>63.8</v>
+      </c>
+      <c r="F32" s="59">
+        <f t="shared" si="10"/>
+        <v>63.620000000000005</v>
+      </c>
+      <c r="G32" s="57">
+        <f t="shared" si="11"/>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="H32" s="63">
+        <f t="shared" si="12"/>
+        <v>3.0570652173911791E-3</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
+    </row>
+    <row r="35" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="52">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
+        <v>-1.03</v>
+      </c>
+      <c r="D36" s="16">
+        <v>-1.28</v>
+      </c>
+      <c r="E36" s="66">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="F36" s="56">
+        <f>(C36+D36+E36)/3</f>
+        <v>-1.1333333333333335</v>
+      </c>
+      <c r="G36" s="56">
+        <f>MAX(C36-F36,D36-F36,E36-F36)</f>
+        <v>0.1033333333333335</v>
+      </c>
+      <c r="H36" s="65">
+        <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
+        <v>3.5390551864283002E-4</v>
+      </c>
+      <c r="I36" s="70">
+        <f>F36-B36</f>
+        <v>-1.1333333333333335</v>
+      </c>
+      <c r="J36" s="64">
+        <f>(ABS(I36)+ABS(I37)+ABS(I38)+ABS(I39)+ABS(I40))/5</f>
+        <v>0.61000000000001242</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="96">
+        <v>80</v>
+      </c>
+      <c r="C37" s="92">
+        <v>80.45</v>
+      </c>
+      <c r="D37" s="93">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="E37" s="94">
+        <v>80.25</v>
+      </c>
+      <c r="F37" s="89">
+        <f t="shared" ref="F37:F39" si="13">(C37+D37+E37)/3</f>
+        <v>80.33</v>
+      </c>
+      <c r="G37" s="89">
+        <f t="shared" ref="G37:G39" si="14">MAX(C37-F37,D37-F37,E37-F37)</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="H37" s="91">
+        <f t="shared" ref="H37:H39" si="15">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
+        <v>4.1098705390781753E-4</v>
+      </c>
+      <c r="I37" s="95">
+        <f t="shared" ref="I37:I40" si="16">F37-B37</f>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="J37" s="47"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="53">
+        <v>160</v>
+      </c>
+      <c r="C38" s="5">
+        <v>160.6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>161.93</v>
+      </c>
+      <c r="E38" s="29">
+        <v>161.09</v>
+      </c>
+      <c r="F38" s="58">
+        <f t="shared" si="13"/>
+        <v>161.20666666666668</v>
+      </c>
+      <c r="G38" s="58">
+        <f t="shared" si="14"/>
+        <v>0.72333333333332916</v>
+      </c>
+      <c r="H38" s="60">
+        <f t="shared" si="15"/>
+        <v>2.4773386304997921E-3</v>
+      </c>
+      <c r="I38" s="71">
+        <f t="shared" si="16"/>
+        <v>1.2066666666666777</v>
+      </c>
+      <c r="J38" s="47"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="96">
+        <v>240</v>
+      </c>
+      <c r="C39" s="92">
+        <v>239.43</v>
+      </c>
+      <c r="D39" s="93">
+        <v>240.65</v>
+      </c>
+      <c r="E39" s="94">
+        <v>240.7</v>
+      </c>
+      <c r="F39" s="89">
+        <f t="shared" si="13"/>
+        <v>240.26</v>
+      </c>
+      <c r="G39" s="89">
+        <f t="shared" si="14"/>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="H39" s="91">
+        <f t="shared" si="15"/>
+        <v>1.506952530995266E-3</v>
+      </c>
+      <c r="I39" s="95">
+        <f t="shared" si="16"/>
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="J39" s="47"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="54">
+        <v>290</v>
+      </c>
+      <c r="C40" s="28">
+        <v>289.5</v>
+      </c>
+      <c r="D40" s="6">
+        <v>290.16000000000003</v>
+      </c>
+      <c r="E40" s="40">
+        <v>290.7</v>
+      </c>
+      <c r="F40" s="59">
+        <f>(C40+D40+E40)/3</f>
+        <v>290.12000000000006</v>
+      </c>
+      <c r="G40" s="59">
+        <f>MAX(C40-F40,D40-F40,E40-F40)</f>
+        <v>0.57999999999992724</v>
+      </c>
+      <c r="H40" s="63">
+        <f>(G40)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
+        <v>1.9864374272207936E-3</v>
+      </c>
+      <c r="I40" s="72">
+        <f t="shared" si="16"/>
+        <v>0.12000000000006139</v>
+      </c>
+      <c r="J40" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B34:J34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="39" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D8B8CD-DCC6-4C90-A9E8-3306C55A5ABE}">
   <dimension ref="B1:H29"/>
   <sheetViews>
@@ -25929,14 +32637,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0c8a948-a8a2-431d-a436-e17f069363af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6b745cbd-a34e-432a-9900-41e3803aa2e9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26171,27 +32877,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0c8a948-a8a2-431d-a436-e17f069363af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6b745cbd-a34e-432a-9900-41e3803aa2e9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9C1C43-49EE-494C-B635-B785FB629686}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CB14B-EEEA-4E1E-B623-D870A775B6DB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6b745cbd-a34e-432a-9900-41e3803aa2e9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c0c8a948-a8a2-431d-a436-e17f069363af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26216,9 +32915,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CB14B-EEEA-4E1E-B623-D870A775B6DB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9C1C43-49EE-494C-B635-B785FB629686}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b745cbd-a34e-432a-9900-41e3803aa2e9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c0c8a948-a8a2-431d-a436-e17f069363af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/otherinfos/Kalibration/DruckSensor (version 1).xlsx
+++ b/otherinfos/Kalibration/DruckSensor (version 1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF7C189-E8EE-4A8C-B180-A2544CA13D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D42335-7975-435B-B16C-16FC0A80B442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="10" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Analog" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'F1 Messungen'!$A:$R</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'F1 Messungen'!$B$2:$U$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'P1 Spannung'!$A:$R</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'P2 Spannung'!$A:$R</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'P3 Spannung'!$A:$R</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
   <si>
     <t>Gewicht [kg]</t>
   </si>
@@ -212,15 +212,123 @@
   <si>
     <t>Multimeter [V]</t>
   </si>
+  <si>
+    <t>Gewicht Messbehälter [kg]</t>
+  </si>
+  <si>
+    <t>Gewicht Messbehällter nach Messung [kg]</t>
+  </si>
+  <si>
+    <t>Errechnetes Füllgewicht [kg]</t>
+  </si>
+  <si>
+    <t>Anz. Impulse</t>
+  </si>
+  <si>
+    <t>Fülldauer [sec]</t>
+  </si>
+  <si>
+    <t>Dichte Wasser (20°C) [kg/m^3]</t>
+  </si>
+  <si>
+    <t>Errechnetes Füllvolumen [l]</t>
+  </si>
+  <si>
+    <t>Ziel Mänge Messbehälter [l]</t>
+  </si>
+  <si>
+    <t>Errechneter Durchfluss [l/sec]</t>
+  </si>
+  <si>
+    <t>Volumen Messung [l]</t>
+  </si>
+  <si>
+    <t>Mittelwert Durchfluss [l/sec]</t>
+  </si>
+  <si>
+    <t>Dichte Wasser (20°C) [kg/l]</t>
+  </si>
+  <si>
+    <t>Durchfluss Messung (Anfang) [l/sec]</t>
+  </si>
+  <si>
+    <t>Durchfluss Messung (Mitte) [l/sec]</t>
+  </si>
+  <si>
+    <t>Durchfluss Messung (Ende) [l/sec]</t>
+  </si>
+  <si>
+    <t>Werte des Arduinos</t>
+  </si>
+  <si>
+    <t>Stopuhr Iphone</t>
+  </si>
+  <si>
+    <t>Werte Waage</t>
+  </si>
+  <si>
+    <t>Messungen Flusssensor</t>
+  </si>
+  <si>
+    <t>Ableseungenauigkeitn</t>
+  </si>
+  <si>
+    <t>Wagge</t>
+  </si>
+  <si>
+    <t>Stopuhr</t>
+  </si>
+  <si>
+    <t>Da 2 Personen gebraucht für Ventil &amp; Füllstand</t>
+  </si>
+  <si>
+    <t>Arduino Durchfluss</t>
+  </si>
+  <si>
+    <t>Da Ab und zu Luft zwischen drinnen im Schlauch, führt zu Durchflussschwankungen</t>
+  </si>
+  <si>
+    <t>Messobjekt</t>
+  </si>
+  <si>
+    <t>Ungenauigkeit</t>
+  </si>
+  <si>
+    <t>Begründung</t>
+  </si>
+  <si>
+    <t>Abweichungen Durchfluss</t>
+  </si>
+  <si>
+    <t>Mittelwert Abweishungen Druchfluss</t>
+  </si>
+  <si>
+    <t>Abweichungen Durchfluss Messung &amp; Rechnung</t>
+  </si>
+  <si>
+    <t>Vergleich Messwerte</t>
+  </si>
+  <si>
+    <t>Abweichungen Volumen Messung &amp; Rechnung</t>
+  </si>
+  <si>
+    <t>Mittelwert Abweishungen Volumen</t>
+  </si>
+  <si>
+    <t>Vergleich Messwerte ohne Behällter Abzug</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="175" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -238,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,8 +365,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -712,12 +838,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -947,6 +1315,25 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,6 +1364,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,6 +1375,203 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4335,3232 +4922,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Absoluter Fehler</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32131351211683318"/>
-          <c:y val="2.5599987099219099E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F1 Messungen'!$B$2:$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Multimeter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$B$4:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$G$4:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.6666666666666856E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6666666666667282E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12666666666666515</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9999999999997158E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.333333333332547E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B80-4281-9432-12B116B9B908}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F1 Messungen'!$B$10:$J$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$B$12:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$G$12:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.16333333333333311</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9999999999999858E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22333333333332916</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20999999999999375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20666666666667766</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2B80-4281-9432-12B116B9B908}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1219942239"/>
-        <c:axId val="1217668111"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1219942239"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Druck [mmHg]</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1217668111"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1217668111"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Absoluter Fehler [mV]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1219942239"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Reduzierter Fehler</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F1 Messungen'!$B$2:$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Multimeter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$B$4:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$H$4:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.9554494828958154E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5459711330834095E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1593362882145438E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.5236958745307117E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0796681441071509E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F02-46DA-AE3B-A7B009396CD4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F1 Messungen'!$B$10:$J$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$B$12:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$H$12:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.4090462143559451E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3274336283185817E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2940019665682763E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.09734513274327E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0481809242872806E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3F02-46DA-AE3B-A7B009396CD4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1293022879"/>
-        <c:axId val="1218501903"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1293022879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Druck [mmHg]</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1218501903"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1218501903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Reduzierter Fehler</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1293022879"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Verhältnis</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Spannungen</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Multimeter / Arduino</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19879582708637855"/>
-                  <c:y val="7.8016978671328107E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$F$4:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.0733333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.543333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.593333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.636666666666677</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$F$12:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.9866666666666672</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.806666666666672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.220000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.473333333333329</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-BA21-4931-A2A4-3493D9B1170E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1397684031"/>
-        <c:axId val="2064268015"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1397684031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Spannung Multimeter [mV]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2064268015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2064268015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Spannung</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Arduino [mV]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1397684031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="8"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Verhälltnis Spannung zu mmHg</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F1 Messungen'!$B$10:$J$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.21093708635010261"/>
-                  <c:y val="-4.0159191394463466E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Arduino</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = 0,2328x + 6,252</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0,9999</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$B$12:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$F$12:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.9866666666666672</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.806666666666672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.220000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.473333333333329</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-980F-40AB-A2AF-E24AF0920BF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F1 Messungen'!$B$2:$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Multimeter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.33880992498147161"/>
-                  <c:y val="-9.6188946232946687E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Multimeter</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = 0,2016x + 5,2372</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 1</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$B$4:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$F$4:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.0733333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.543333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.593333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.636666666666677</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-980F-40AB-A2AF-E24AF0920BF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F1 Messungen'!$B$26:$J$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Angepasster Druck Arduino</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.81044857031956E-2"/>
-                  <c:y val="-8.1501756884316406E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Angepasst Arduino</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = 0,2021x + 5,1914</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0,9999</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$B$28:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'F1 Messungen'!$F$28:$F$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.0733333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.303333333333331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.883333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.706666666666671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.620000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-980F-40AB-A2AF-E24AF0920BF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1397684031"/>
-        <c:axId val="2064268015"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1397684031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Druck [mmHg]</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2064268015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2064268015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Spannung [mV]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1397684031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.71927201248001493"/>
-          <c:y val="0.32082412478579547"/>
-          <c:w val="0.26642098170593331"/>
-          <c:h val="0.40298776887600773"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
               <a:t>Gegenüberstellung Messwerte </a:t>
             </a:r>
           </a:p>
@@ -8225,7 +5586,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -8914,7 +6275,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -16201,166 +13562,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19778,2070 +16979,6 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26960,163 +22097,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7140</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>202404</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>345281</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9CBED8-5F90-4B17-838E-7E16BC26326E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>197645</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>345280</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD378A82-E8CF-4718-8710-4BA665BC3BA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>13775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>379336</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C141E3-6007-4C1C-A700-A87C39BCAD89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7B8089-D707-4AE2-BFB2-5F2C45518DAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -27509,11 +22489,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="75" t="s">
@@ -27601,17 +22581,17 @@
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
       <c r="S2" t="s">
         <v>37</v>
       </c>
@@ -27850,20 +22830,20 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
     </row>
     <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="78" t="s">
@@ -28040,17 +23020,17 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
     </row>
     <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="81" t="s">
@@ -28249,17 +23229,17 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28447,17 +23427,17 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="81" t="s">
@@ -28697,17 +23677,17 @@
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
       <c r="S2" t="s">
         <v>37</v>
       </c>
@@ -28946,20 +23926,20 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
     </row>
     <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="78" t="s">
@@ -29136,17 +24116,17 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
     </row>
     <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="81" t="s">
@@ -29348,17 +24328,17 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29546,17 +24526,17 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="81" t="s">
@@ -29796,17 +24776,17 @@
   <sheetData>
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
       <c r="S2" t="s">
         <v>37</v>
       </c>
@@ -30045,20 +25025,20 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
     </row>
     <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="78" t="s">
@@ -30235,17 +25215,17 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
     </row>
     <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="81" t="s">
@@ -30447,17 +25427,17 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30645,17 +25625,17 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="81" t="s">
@@ -30864,1100 +25844,1289 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8A430F-C726-449E-8CFF-4943FFD7A5C8}">
-  <dimension ref="B1:AA40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="B2" sqref="B2:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="27.140625" customWidth="1"/>
+    <col min="19" max="19" width="25" customWidth="1"/>
+    <col min="20" max="20" width="27.140625" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="160" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="162"/>
     </row>
-    <row r="3" spans="2:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26">
-        <v>1</v>
-      </c>
+    <row r="3" spans="2:24" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="170" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="142" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="185" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="163" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="164"/>
+      <c r="T3" s="163" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="165"/>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44">
-        <v>0</v>
-      </c>
-      <c r="C4" s="38">
-        <v>5.04</v>
-      </c>
-      <c r="D4" s="43">
-        <v>5.12</v>
-      </c>
-      <c r="E4" s="48">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F4" s="56">
-        <f>(C4+D4+E4)/3</f>
-        <v>5.0733333333333333</v>
-      </c>
-      <c r="G4" s="56">
-        <f>MAX(C4-F4,D4-F4,E4-F4)*$S$3</f>
-        <v>4.6666666666666856E-2</v>
-      </c>
-      <c r="H4" s="65">
-        <f>(G4/$S$3)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>7.9554494828958154E-4</v>
-      </c>
-      <c r="I4" s="51">
-        <v>4.3410000000000002</v>
-      </c>
-      <c r="J4" s="57">
-        <f>(F8-F4)/I4/1</f>
-        <v>13.49074713967596</v>
-      </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36"/>
+    <row r="4" spans="2:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="141"/>
+      <c r="C4" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="192" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="181" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="191" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="186"/>
+      <c r="K4" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="187" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="187" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="182" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85">
-        <v>80</v>
-      </c>
-      <c r="C5" s="86">
-        <v>21.57</v>
-      </c>
-      <c r="D5" s="87">
-        <v>21.51</v>
-      </c>
-      <c r="E5" s="88">
-        <v>21.55</v>
-      </c>
-      <c r="F5" s="89">
-        <f t="shared" ref="F5:F8" si="0">(C5+D5+E5)/3</f>
-        <v>21.543333333333333</v>
-      </c>
-      <c r="G5" s="90">
-        <f t="shared" ref="G5:G8" si="1">MAX(C5-F5,D5-F5,E5-F5)*$S$3</f>
-        <v>2.6666666666667282E-2</v>
-      </c>
-      <c r="H5" s="91">
-        <f t="shared" ref="H5:H8" si="2">(G5/$S$3)/(MAX($C$4:$E$10)-MIN($C$4:$E$10))</f>
-        <v>4.5459711330834095E-4</v>
-      </c>
-      <c r="I5" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="47"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="36"/>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="125">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D5" s="154">
+        <v>10.6</v>
+      </c>
+      <c r="E5" s="177">
+        <f>D5*$C$18</f>
+        <v>10.580994200000001</v>
+      </c>
+      <c r="F5" s="176">
+        <f>E5/I5</f>
+        <v>0.26605466934875532</v>
+      </c>
+      <c r="G5" s="193">
+        <f>D5-C5</f>
+        <v>10.231999999999999</v>
+      </c>
+      <c r="H5" s="130">
+        <f>G5*$C$18</f>
+        <v>10.213654024</v>
+      </c>
+      <c r="I5" s="136">
+        <v>39.770000000000003</v>
+      </c>
+      <c r="J5" s="202">
+        <f>H5/I5</f>
+        <v>0.25681805441287403</v>
+      </c>
+      <c r="K5" s="31">
+        <v>4554</v>
+      </c>
+      <c r="L5" s="32">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0.26</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0.27</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0.27</v>
+      </c>
+      <c r="P5" s="198">
+        <f>(M5+N5+O5)/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="Q5" s="166">
+        <f>((ABS(P5-M5))+(ABS(P5-N5))+(ABS(P5-O5)))/3</f>
+        <v>4.4444444444444548E-3</v>
+      </c>
+      <c r="R5" s="166">
+        <f>ABS(J5-P5)</f>
+        <v>9.8486122537926324E-3</v>
+      </c>
+      <c r="S5" s="166">
+        <f>ABS(H5-L5)</f>
+        <v>9.3654024000001002E-2</v>
+      </c>
+      <c r="T5" s="166">
+        <f>ABS(F5-P5)</f>
+        <v>6.1199731791133916E-4</v>
+      </c>
+      <c r="U5" s="166">
+        <f>ABS(E5-L5)</f>
+        <v>0.4609942000000018</v>
+      </c>
     </row>
-    <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="45">
-        <v>160</v>
-      </c>
-      <c r="C6" s="8">
-        <v>37.46</v>
-      </c>
-      <c r="D6" s="9">
-        <v>37.72</v>
-      </c>
-      <c r="E6" s="49">
-        <v>37.6</v>
-      </c>
-      <c r="F6" s="58">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="126">
+        <v>10</v>
+      </c>
+      <c r="C6" s="92">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D6" s="133">
+        <v>9.9</v>
+      </c>
+      <c r="E6" s="178">
+        <f t="shared" ref="E6:E15" si="0">D6*$C$18</f>
+        <v>9.8822493000000016</v>
+      </c>
+      <c r="F6" s="174">
+        <f t="shared" ref="F6:F15" si="1">E6/I6</f>
+        <v>0.17584073487544485</v>
+      </c>
+      <c r="G6" s="194">
+        <f>D6-C6</f>
+        <v>9.532</v>
+      </c>
+      <c r="H6" s="131">
+        <f>G6*$C$18</f>
+        <v>9.5149091240000008</v>
+      </c>
+      <c r="I6" s="137">
+        <v>56.2</v>
+      </c>
+      <c r="J6" s="203">
+        <f t="shared" ref="J6:J15" si="2">H6/I6</f>
+        <v>0.16930443281138791</v>
+      </c>
+      <c r="K6" s="92">
+        <v>4256</v>
+      </c>
+      <c r="L6" s="93">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="M6" s="93">
+        <v>0.19</v>
+      </c>
+      <c r="N6" s="93">
+        <v>0.19</v>
+      </c>
+      <c r="O6" s="93">
+        <v>0.19</v>
+      </c>
+      <c r="P6" s="199">
+        <f t="shared" ref="P6:P15" si="3">(M6+N6+O6)/3</f>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="Q6" s="167">
+        <f>((ABS(P6-M6))+(ABS(P6-N6))+(ABS(P6-O6)))/3</f>
+        <v>2.7755575615628914E-17</v>
+      </c>
+      <c r="R6" s="167">
+        <f t="shared" ref="R6:R15" si="4">ABS(J6-P6)</f>
+        <v>2.0695567188612124E-2</v>
+      </c>
+      <c r="S6" s="167">
+        <f>ABS(H6-L6)</f>
+        <v>0.44509087600000008</v>
+      </c>
+      <c r="T6" s="167">
+        <f t="shared" ref="T6:T15" si="5">ABS(F6-P6)</f>
+        <v>1.4159265124555176E-2</v>
+      </c>
+      <c r="U6" s="167">
+        <f t="shared" ref="U6:U15" si="6">ABS(E6-L6)</f>
+        <v>7.7750699999999284E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="127">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D7" s="155">
+        <v>10.7</v>
+      </c>
+      <c r="E7" s="179">
         <f t="shared" si="0"/>
-        <v>37.593333333333334</v>
-      </c>
-      <c r="G6" s="56">
+        <v>10.6808149</v>
+      </c>
+      <c r="F7" s="173">
         <f t="shared" si="1"/>
-        <v>0.12666666666666515</v>
-      </c>
-      <c r="H6" s="60">
+        <v>0.22984323004088658</v>
+      </c>
+      <c r="G7" s="195">
+        <f>D7-C7</f>
+        <v>10.331999999999999</v>
+      </c>
+      <c r="H7" s="132">
+        <f>G7*$C$18</f>
+        <v>10.313474723999999</v>
+      </c>
+      <c r="I7" s="138">
+        <v>46.47</v>
+      </c>
+      <c r="J7" s="204">
         <f t="shared" si="2"/>
-        <v>2.1593362882145438E-3</v>
-      </c>
-      <c r="I6" s="64">
-        <v>5.2030000000000003</v>
-      </c>
-      <c r="J6" s="47"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="36"/>
+        <v>0.22193834138153645</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4617</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10.26</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="P7" s="200">
+        <f t="shared" si="3"/>
+        <v>0.22333333333333336</v>
+      </c>
+      <c r="Q7" s="168">
+        <f>((ABS(P7-M7))+(ABS(P7-N7))+(ABS(P7-O7)))/3</f>
+        <v>4.4444444444444548E-3</v>
+      </c>
+      <c r="R7" s="168">
+        <f t="shared" si="4"/>
+        <v>1.3949919517969034E-3</v>
+      </c>
+      <c r="S7" s="168">
+        <f>ABS(H7-L7)</f>
+        <v>5.3474723999999085E-2</v>
+      </c>
+      <c r="T7" s="168">
+        <f t="shared" si="5"/>
+        <v>6.5098967075532255E-3</v>
+      </c>
+      <c r="U7" s="168">
+        <f t="shared" si="6"/>
+        <v>0.42081489999999988</v>
+      </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="85">
-        <v>240</v>
-      </c>
-      <c r="C7" s="86">
-        <v>53.6</v>
-      </c>
-      <c r="D7" s="87">
-        <v>53.55</v>
-      </c>
-      <c r="E7" s="88">
-        <v>53.65</v>
-      </c>
-      <c r="F7" s="89">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="126">
+        <v>10</v>
+      </c>
+      <c r="C8" s="92">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D8" s="133">
+        <v>10.3</v>
+      </c>
+      <c r="E8" s="178">
         <f t="shared" si="0"/>
-        <v>53.6</v>
-      </c>
-      <c r="G7" s="90">
+        <v>10.281532100000002</v>
+      </c>
+      <c r="F8" s="174">
         <f t="shared" si="1"/>
-        <v>4.9999999999997158E-2</v>
-      </c>
-      <c r="H7" s="91">
+        <v>0.24191840235294121</v>
+      </c>
+      <c r="G8" s="194">
+        <f>D8-C8</f>
+        <v>9.9320000000000004</v>
+      </c>
+      <c r="H8" s="131">
+        <f>G8*$C$18</f>
+        <v>9.9141919240000007</v>
+      </c>
+      <c r="I8" s="137">
+        <v>42.5</v>
+      </c>
+      <c r="J8" s="203">
         <f t="shared" si="2"/>
-        <v>8.5236958745307117E-4</v>
-      </c>
-      <c r="J7" s="47"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
+        <v>0.23327510409411767</v>
+      </c>
+      <c r="K8" s="92">
+        <v>4411</v>
+      </c>
+      <c r="L8" s="93">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M8" s="93">
+        <v>0.24</v>
+      </c>
+      <c r="N8" s="93">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="93">
+        <v>0.25</v>
+      </c>
+      <c r="P8" s="199">
+        <f t="shared" si="3"/>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="Q8" s="167">
+        <f>((ABS(P8-M8))+(ABS(P8-N8))+(ABS(P8-O8)))/3</f>
+        <v>4.4444444444444453E-3</v>
+      </c>
+      <c r="R8" s="167">
+        <f t="shared" si="4"/>
+        <v>1.3391562572549004E-2</v>
+      </c>
+      <c r="S8" s="167">
+        <f>ABS(H8-L8)</f>
+        <v>0.114191924</v>
+      </c>
+      <c r="T8" s="167">
+        <f t="shared" si="5"/>
+        <v>4.7482643137254643E-3</v>
+      </c>
+      <c r="U8" s="167">
+        <f t="shared" si="6"/>
+        <v>0.4815321000000008</v>
+      </c>
     </row>
-    <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46">
-        <v>290</v>
-      </c>
-      <c r="C8" s="12">
-        <v>63.61</v>
-      </c>
-      <c r="D8" s="37">
-        <v>63.6</v>
-      </c>
-      <c r="E8" s="50">
-        <v>63.7</v>
-      </c>
-      <c r="F8" s="59">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="127">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D9" s="155">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E9" s="179">
         <f t="shared" si="0"/>
-        <v>63.636666666666677</v>
-      </c>
-      <c r="G8" s="57">
+        <v>10.181711399999999</v>
+      </c>
+      <c r="F9" s="173">
         <f t="shared" si="1"/>
-        <v>6.333333333332547E-2</v>
-      </c>
-      <c r="H8" s="63">
+        <v>0.22090933825124753</v>
+      </c>
+      <c r="G9" s="195">
+        <f>D9-C9</f>
+        <v>9.831999999999999</v>
+      </c>
+      <c r="H9" s="132">
+        <f>G9*$C$18</f>
+        <v>9.8143712240000003</v>
+      </c>
+      <c r="I9" s="138">
+        <v>46.09</v>
+      </c>
+      <c r="J9" s="204">
         <f t="shared" si="2"/>
-        <v>1.0796681441071509E-3</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="36"/>
+        <v>0.21293927585159469</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4404</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="P9" s="200">
+        <f t="shared" si="3"/>
+        <v>0.22</v>
+      </c>
+      <c r="Q9" s="168">
+        <f>((ABS(P9-M9))+(ABS(P9-N9))+(ABS(P9-O9)))/3</f>
+        <v>6.6666666666666723E-3</v>
+      </c>
+      <c r="R9" s="168">
+        <f t="shared" si="4"/>
+        <v>7.0607241484053063E-3</v>
+      </c>
+      <c r="S9" s="168">
+        <f>ABS(H9-L9)</f>
+        <v>2.4371224000001135E-2</v>
+      </c>
+      <c r="T9" s="168">
+        <f t="shared" si="5"/>
+        <v>9.0933825124753231E-4</v>
+      </c>
+      <c r="U9" s="168">
+        <f t="shared" si="6"/>
+        <v>0.39171140000000015</v>
+      </c>
     </row>
-    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="I9" s="36"/>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="126">
+        <v>10</v>
+      </c>
+      <c r="C10" s="92">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D10" s="133">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E10" s="178">
+        <f t="shared" si="0"/>
+        <v>10.181711399999999</v>
+      </c>
+      <c r="F10" s="94">
+        <f t="shared" si="1"/>
+        <v>0.24551992765854833</v>
+      </c>
+      <c r="G10" s="196">
+        <f>D10-C10</f>
+        <v>9.831999999999999</v>
+      </c>
+      <c r="H10" s="131">
+        <f>G10*$C$18</f>
+        <v>9.8143712240000003</v>
+      </c>
+      <c r="I10" s="137">
+        <v>41.47</v>
+      </c>
+      <c r="J10" s="205">
+        <f t="shared" si="2"/>
+        <v>0.23666195379792623</v>
+      </c>
+      <c r="K10" s="92">
+        <v>4343</v>
+      </c>
+      <c r="L10" s="93">
+        <v>9.65</v>
+      </c>
+      <c r="M10" s="93">
+        <v>0.26</v>
+      </c>
+      <c r="N10" s="93">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="93">
+        <v>0.25</v>
+      </c>
+      <c r="P10" s="199">
+        <f t="shared" si="3"/>
+        <v>0.25333333333333335</v>
+      </c>
+      <c r="Q10" s="167">
+        <f>((ABS(P10-M10))+(ABS(P10-N10))+(ABS(P10-O10)))/3</f>
+        <v>4.4444444444444548E-3</v>
+      </c>
+      <c r="R10" s="167">
+        <f t="shared" si="4"/>
+        <v>1.6671379535407121E-2</v>
+      </c>
+      <c r="S10" s="167">
+        <f>ABS(H10-L10)</f>
+        <v>0.16437122399999993</v>
+      </c>
+      <c r="T10" s="167">
+        <f t="shared" si="5"/>
+        <v>7.8134056747850289E-3</v>
+      </c>
+      <c r="U10" s="167">
+        <f t="shared" si="6"/>
+        <v>0.53171139999999895</v>
+      </c>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
     </row>
-    <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="127">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D11" s="155">
+        <v>10.5</v>
+      </c>
+      <c r="E11" s="179">
+        <f t="shared" si="0"/>
+        <v>10.481173500000001</v>
+      </c>
+      <c r="F11" s="173">
+        <f t="shared" si="1"/>
+        <v>0.25110621705797798</v>
+      </c>
+      <c r="G11" s="195">
+        <f>D11-C11</f>
+        <v>10.132</v>
+      </c>
+      <c r="H11" s="132">
+        <f>G11*$C$18</f>
+        <v>10.113833324</v>
+      </c>
+      <c r="I11" s="138">
+        <v>41.74</v>
+      </c>
+      <c r="J11" s="204">
+        <f t="shared" si="2"/>
+        <v>0.24230554202204119</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4520</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="P11" s="200">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q11" s="168">
+        <f>((ABS(P11-M11))+(ABS(P11-N11))+(ABS(P11-O11)))/3</f>
+        <v>1.3333333333333336E-2</v>
+      </c>
+      <c r="R11" s="168">
+        <f t="shared" si="4"/>
+        <v>7.6944579779588129E-3</v>
+      </c>
+      <c r="S11" s="168">
+        <f>ABS(H11-L11)</f>
+        <v>7.3833324000000644E-2</v>
+      </c>
+      <c r="T11" s="168">
+        <f t="shared" si="5"/>
+        <v>1.1062170579779762E-3</v>
+      </c>
+      <c r="U11" s="168">
+        <f t="shared" si="6"/>
+        <v>0.44117350000000144</v>
+      </c>
     </row>
-    <row r="11" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="79" t="s">
-        <v>16</v>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="126">
+        <v>10</v>
+      </c>
+      <c r="C12" s="92">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D12" s="133">
+        <v>9.9</v>
+      </c>
+      <c r="E12" s="178">
+        <f t="shared" si="0"/>
+        <v>9.8822493000000016</v>
+      </c>
+      <c r="F12" s="94">
+        <f t="shared" si="1"/>
+        <v>0.28380957208500868</v>
+      </c>
+      <c r="G12" s="196">
+        <f>D12-C12</f>
+        <v>9.532</v>
+      </c>
+      <c r="H12" s="131">
+        <f>G12*$C$18</f>
+        <v>9.5149091240000008</v>
+      </c>
+      <c r="I12" s="137">
+        <v>34.82</v>
+      </c>
+      <c r="J12" s="205">
+        <f t="shared" si="2"/>
+        <v>0.27325988294083864</v>
+      </c>
+      <c r="K12" s="92">
+        <v>4256</v>
+      </c>
+      <c r="L12" s="93">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="M12" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="93">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O12" s="93">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P12" s="199">
+        <f t="shared" si="3"/>
+        <v>0.29333333333333328</v>
+      </c>
+      <c r="Q12" s="167">
+        <f>((ABS(P12-M12))+(ABS(P12-N12))+(ABS(P12-O12)))/3</f>
+        <v>4.4444444444444358E-3</v>
+      </c>
+      <c r="R12" s="167">
+        <f t="shared" si="4"/>
+        <v>2.0073450392494641E-2</v>
+      </c>
+      <c r="S12" s="167">
+        <f>ABS(H12-L12)</f>
+        <v>5.490912399999992E-2</v>
+      </c>
+      <c r="T12" s="167">
+        <f t="shared" si="5"/>
+        <v>9.5237612483246026E-3</v>
+      </c>
+      <c r="U12" s="167">
+        <f t="shared" si="6"/>
+        <v>0.42224930000000072</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19">
-        <v>5.88</v>
-      </c>
-      <c r="D12" s="19">
-        <v>5.93</v>
-      </c>
-      <c r="E12" s="19">
-        <v>6.15</v>
-      </c>
-      <c r="F12" s="56">
-        <f>(C12+D12+E12)/3</f>
-        <v>5.9866666666666672</v>
-      </c>
-      <c r="G12" s="55">
-        <f>MAX(C12-F12,D12-F12,E12-F12)*$S$3</f>
-        <v>0.16333333333333311</v>
-      </c>
-      <c r="H12" s="65">
-        <f>(G12/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
-        <v>2.4090462143559451E-3</v>
-      </c>
-      <c r="I12" s="51">
-        <f>$I$4</f>
-        <v>4.3410000000000002</v>
-      </c>
-      <c r="J12" s="57">
-        <f>(F16-F12)/I12/1</f>
-        <v>15.546341088842816</v>
-      </c>
-      <c r="K12" s="34"/>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="127">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D13" s="155">
+        <v>10.4</v>
+      </c>
+      <c r="E13" s="179">
+        <f t="shared" si="0"/>
+        <v>10.3813528</v>
+      </c>
+      <c r="F13" s="173">
+        <f t="shared" si="1"/>
+        <v>0.26537200408997957</v>
+      </c>
+      <c r="G13" s="195">
+        <f>D13-C13</f>
+        <v>10.032</v>
+      </c>
+      <c r="H13" s="132">
+        <f>G13*$C$18</f>
+        <v>10.014012624000001</v>
+      </c>
+      <c r="I13" s="138">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="J13" s="204">
+        <f t="shared" si="2"/>
+        <v>0.25598191779141111</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4475</v>
+      </c>
+      <c r="L13" s="3">
+        <v>9.94</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="P13" s="200">
+        <f t="shared" si="3"/>
+        <v>0.27333333333333337</v>
+      </c>
+      <c r="Q13" s="168">
+        <f>((ABS(P13-M13))+(ABS(P13-N13))+(ABS(P13-O13)))/3</f>
+        <v>4.4444444444444548E-3</v>
+      </c>
+      <c r="R13" s="168">
+        <f t="shared" si="4"/>
+        <v>1.7351415541922266E-2</v>
+      </c>
+      <c r="S13" s="168">
+        <f>ABS(H13-L13)</f>
+        <v>7.4012624000001637E-2</v>
+      </c>
+      <c r="T13" s="168">
+        <f t="shared" si="5"/>
+        <v>7.9613292433537985E-3</v>
+      </c>
+      <c r="U13" s="168">
+        <f t="shared" si="6"/>
+        <v>0.44135280000000066</v>
+      </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="85">
-        <v>80</v>
-      </c>
-      <c r="C13" s="87">
-        <v>25.12</v>
-      </c>
-      <c r="D13" s="87">
-        <v>24.9</v>
-      </c>
-      <c r="E13" s="87">
-        <v>25.07</v>
-      </c>
-      <c r="F13" s="89">
-        <f t="shared" ref="F13:F16" si="3">(C13+D13+E13)/3</f>
-        <v>25.03</v>
-      </c>
-      <c r="G13" s="90">
-        <f t="shared" ref="G13:G16" si="4">MAX(C13-F13,D13-F13,E13-F13)*$S$3</f>
-        <v>8.9999999999999858E-2</v>
-      </c>
-      <c r="H13" s="91">
-        <f t="shared" ref="H13:H16" si="5">(G13/$S$3)/(MAX($C$12:$E$16)-MIN($C$12:$E$16))</f>
-        <v>1.3274336283185817E-3</v>
-      </c>
-      <c r="J13" s="47"/>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="126">
+        <v>10</v>
+      </c>
+      <c r="C14" s="92">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D14" s="133">
+        <v>10.6</v>
+      </c>
+      <c r="E14" s="178">
+        <f t="shared" si="0"/>
+        <v>10.580994200000001</v>
+      </c>
+      <c r="F14" s="94">
+        <f t="shared" si="1"/>
+        <v>0.25313383253588523</v>
+      </c>
+      <c r="G14" s="196">
+        <f>D14-C14</f>
+        <v>10.231999999999999</v>
+      </c>
+      <c r="H14" s="131">
+        <f>G14*$C$18</f>
+        <v>10.213654024</v>
+      </c>
+      <c r="I14" s="137">
+        <v>41.8</v>
+      </c>
+      <c r="J14" s="205">
+        <f t="shared" si="2"/>
+        <v>0.2443457900478469</v>
+      </c>
+      <c r="K14" s="92">
+        <v>4525</v>
+      </c>
+      <c r="L14" s="93">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="M14" s="93">
+        <v>0.26</v>
+      </c>
+      <c r="N14" s="93">
+        <v>0.2</v>
+      </c>
+      <c r="O14" s="93">
+        <v>0.26</v>
+      </c>
+      <c r="P14" s="199">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q14" s="167">
+        <f>((ABS(P14-M14))+(ABS(P14-N14))+(ABS(P14-O14)))/3</f>
+        <v>2.6666666666666672E-2</v>
+      </c>
+      <c r="R14" s="167">
+        <f t="shared" si="4"/>
+        <v>4.3457900478469091E-3</v>
+      </c>
+      <c r="S14" s="167">
+        <f>ABS(H14-L14)</f>
+        <v>0.16365402399999951</v>
+      </c>
+      <c r="T14" s="167">
+        <f t="shared" si="5"/>
+        <v>1.3133832535885237E-2</v>
+      </c>
+      <c r="U14" s="167">
+        <f t="shared" si="6"/>
+        <v>0.5309942000000003</v>
+      </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="45">
-        <v>160</v>
-      </c>
-      <c r="C14" s="9">
-        <v>43.7</v>
-      </c>
-      <c r="D14" s="9">
-        <v>44.03</v>
-      </c>
-      <c r="E14" s="9">
-        <v>43.69</v>
-      </c>
-      <c r="F14" s="58">
+    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="128">
+        <v>10</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D15" s="156">
+        <v>10.4</v>
+      </c>
+      <c r="E15" s="180">
+        <f t="shared" si="0"/>
+        <v>10.3813528</v>
+      </c>
+      <c r="F15" s="175">
+        <f t="shared" si="1"/>
+        <v>0.26248679646017703</v>
+      </c>
+      <c r="G15" s="197">
+        <f>D15-C15</f>
+        <v>10.032</v>
+      </c>
+      <c r="H15" s="134">
+        <f>G15*$C$18</f>
+        <v>10.014012624000001</v>
+      </c>
+      <c r="I15" s="139">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="J15" s="206">
+        <f t="shared" si="2"/>
+        <v>0.25319880212389384</v>
+      </c>
+      <c r="K15" s="28">
+        <v>4457</v>
+      </c>
+      <c r="L15" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="P15" s="201">
         <f t="shared" si="3"/>
-        <v>43.806666666666672</v>
-      </c>
-      <c r="G14" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="Q15" s="169">
+        <f>((ABS(P15-M15))+(ABS(P15-N15))+(ABS(P15-O15)))/3</f>
+        <v>2.0000000000000007E-2</v>
+      </c>
+      <c r="R15" s="169">
         <f t="shared" si="4"/>
-        <v>0.22333333333332916</v>
-      </c>
-      <c r="H14" s="60">
+        <v>3.1988021238938402E-3</v>
+      </c>
+      <c r="S15" s="169">
+        <f>ABS(H15-L15)</f>
+        <v>0.11401262400000078</v>
+      </c>
+      <c r="T15" s="169">
         <f t="shared" si="5"/>
-        <v>3.2940019665682763E-3</v>
-      </c>
-      <c r="J14" s="47"/>
+        <v>1.248679646017703E-2</v>
+      </c>
+      <c r="U15" s="169">
+        <f t="shared" si="6"/>
+        <v>0.4813527999999998</v>
+      </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="85">
-        <v>240</v>
-      </c>
-      <c r="C15" s="87">
-        <v>62.43</v>
-      </c>
-      <c r="D15" s="87">
-        <v>62.09</v>
-      </c>
-      <c r="E15" s="87">
-        <v>62.14</v>
-      </c>
-      <c r="F15" s="89">
-        <f t="shared" si="3"/>
-        <v>62.220000000000006</v>
-      </c>
-      <c r="G15" s="90">
-        <f t="shared" si="4"/>
-        <v>0.20999999999999375</v>
-      </c>
-      <c r="H15" s="91">
-        <f t="shared" si="5"/>
-        <v>3.09734513274327E-3</v>
-      </c>
-      <c r="J15" s="47"/>
+    <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="105"/>
     </row>
-    <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="46">
-        <v>290</v>
-      </c>
-      <c r="C16" s="37">
-        <v>73.459999999999994</v>
-      </c>
-      <c r="D16" s="37">
-        <v>73.680000000000007</v>
-      </c>
-      <c r="E16" s="37">
-        <v>73.28</v>
-      </c>
-      <c r="F16" s="59">
-        <f t="shared" si="3"/>
-        <v>73.473333333333329</v>
-      </c>
-      <c r="G16" s="57">
-        <f t="shared" si="4"/>
-        <v>0.20666666666667766</v>
-      </c>
-      <c r="H16" s="63">
-        <f t="shared" si="5"/>
-        <v>3.0481809242872806E-3</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+    <row r="17" spans="2:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="158" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="159" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="Q17" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="R17" s="187" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="187" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="182" t="s">
+        <v>78</v>
+      </c>
+      <c r="U17" s="182" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
+    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="28">
+        <v>998.20699999999999</v>
+      </c>
+      <c r="C18" s="157">
+        <f>B18*0.001</f>
+        <v>0.99820700000000007</v>
+      </c>
+      <c r="Q18" s="189">
+        <f>AVERAGE(Q5:Q15)</f>
+        <v>8.4848484848484926E-3</v>
+      </c>
+      <c r="R18" s="190">
+        <f>AVERAGE(R5:R15)</f>
+        <v>1.1066068521334505E-2</v>
+      </c>
+      <c r="S18" s="189">
+        <f>AVERAGE(S5:S15)</f>
+        <v>0.12505233781818215</v>
+      </c>
+      <c r="T18" s="190">
+        <f>AVERAGE(T5:T15)</f>
+        <v>7.1785549032269465E-3</v>
+      </c>
+      <c r="U18" s="189">
+        <f>AVERAGE(U5:U15)</f>
+        <v>0.42560339090909127</v>
+      </c>
     </row>
-    <row r="19" spans="2:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="82" t="s">
-        <v>40</v>
-      </c>
+    <row r="19" spans="2:21" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="55">
-        <f>F4</f>
-        <v>5.0733333333333333</v>
-      </c>
-      <c r="C20" s="19">
-        <v>4.92</v>
-      </c>
-      <c r="D20" s="19">
-        <v>5.31</v>
-      </c>
-      <c r="E20" s="19">
-        <v>4.99</v>
-      </c>
-      <c r="F20" s="56">
-        <f>(C20+D20+E20)/3</f>
-        <v>5.0733333333333333</v>
-      </c>
-      <c r="G20" s="55">
-        <f>MAX(C20-F20,D20-F20,E20-F20)*$S$3</f>
-        <v>0.23666666666666636</v>
-      </c>
-      <c r="H20" s="60">
-        <f>(G20)/((MAX(C20:E24)-MIN(C20:E24)))</f>
-        <v>4.0194746376811547E-3</v>
-      </c>
-      <c r="I20" s="70">
-        <f>F20-B20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="64">
-        <f>(ABS(I20)+ABS(I21)+ABS(I22)+ABS(I23)+ABS(I24))/5</f>
-        <v>0.13066666666666862</v>
-      </c>
+    <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="107"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="90">
-        <f t="shared" ref="B21:B24" si="6">F5</f>
-        <v>21.543333333333333</v>
-      </c>
-      <c r="C21" s="87">
-        <v>21.11</v>
-      </c>
-      <c r="D21" s="87">
-        <v>21.35</v>
-      </c>
-      <c r="E21" s="87">
-        <v>21.45</v>
-      </c>
-      <c r="F21" s="89">
-        <f t="shared" ref="F21:F24" si="7">(C21+D21+E21)/3</f>
-        <v>21.303333333333331</v>
-      </c>
-      <c r="G21" s="90">
-        <f t="shared" ref="G21:G24" si="8">MAX(C21-F21,D21-F21,E21-F21)*$S$3</f>
-        <v>0.14666666666666828</v>
-      </c>
-      <c r="H21" s="100">
-        <f>(G21)/((MAX(C35:E39)-MIN(C35:E39)))</f>
-        <v>6.0611069785382376E-4</v>
-      </c>
-      <c r="I21" s="95">
-        <f t="shared" ref="I21:I24" si="9">F21-B21</f>
-        <v>-0.24000000000000199</v>
-      </c>
-      <c r="J21" s="47"/>
-      <c r="L21" s="2"/>
+    <row r="21" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="K21" s="107"/>
+      <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="56">
-        <f t="shared" si="6"/>
-        <v>37.593333333333334</v>
-      </c>
-      <c r="C22" s="9">
-        <v>37.9</v>
-      </c>
-      <c r="D22" s="9">
-        <v>37.85</v>
-      </c>
-      <c r="E22" s="9">
-        <v>37.9</v>
-      </c>
-      <c r="F22" s="58">
-        <f t="shared" si="7"/>
-        <v>37.883333333333333</v>
-      </c>
-      <c r="G22" s="56">
-        <f t="shared" si="8"/>
-        <v>1.6666666666665719E-2</v>
-      </c>
-      <c r="H22" s="61">
-        <f>(G22)/((MAX(C39:E41)-MIN(C39:E41)))</f>
-        <v>3.2507639295232545E-4</v>
-      </c>
-      <c r="I22" s="71">
-        <f t="shared" si="9"/>
-        <v>0.28999999999999915</v>
-      </c>
-      <c r="J22" s="47"/>
-      <c r="L22" s="2"/>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="151" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="G22" s="34"/>
+      <c r="K22" s="107"/>
+      <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="90">
-        <f t="shared" si="6"/>
-        <v>53.6</v>
-      </c>
-      <c r="C23" s="87">
-        <v>53.56</v>
-      </c>
-      <c r="D23" s="87">
-        <v>53.72</v>
-      </c>
-      <c r="E23" s="87">
-        <v>53.84</v>
-      </c>
-      <c r="F23" s="89">
-        <f t="shared" si="7"/>
-        <v>53.706666666666671</v>
-      </c>
-      <c r="G23" s="90">
-        <f t="shared" si="8"/>
-        <v>0.13333333333333286</v>
-      </c>
-      <c r="H23" s="100">
-        <f>(G23)/((MAX(C39:E41)-MIN(C39:E41)))</f>
-        <v>2.600611143618742E-3</v>
-      </c>
-      <c r="I23" s="95">
-        <f t="shared" si="9"/>
-        <v>0.10666666666666913</v>
-      </c>
-      <c r="J23" s="47"/>
-      <c r="L23" s="2"/>
+    <row r="23" spans="2:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="K23" s="107"/>
+      <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57">
-        <f t="shared" si="6"/>
-        <v>63.636666666666677</v>
-      </c>
-      <c r="C24" s="37">
-        <v>63.69</v>
-      </c>
-      <c r="D24" s="37">
-        <v>63.37</v>
-      </c>
-      <c r="E24" s="37">
-        <v>63.8</v>
-      </c>
-      <c r="F24" s="59">
-        <f t="shared" si="7"/>
-        <v>63.620000000000005</v>
-      </c>
-      <c r="G24" s="57">
-        <f t="shared" si="8"/>
-        <v>0.17999999999999261</v>
-      </c>
-      <c r="H24" s="62">
-        <f>(G24)/((MAX(C39:E41)-MIN(C39:E41)))</f>
-        <v>3.5108250438851702E-3</v>
-      </c>
-      <c r="I24" s="72">
-        <f t="shared" si="9"/>
-        <v>-1.6666666666672825E-2</v>
-      </c>
-      <c r="J24" s="40"/>
-      <c r="L24" s="2"/>
+    <row r="24" spans="2:21" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="153" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="188">
+        <f>Q18</f>
+        <v>8.4848484848484926E-3</v>
+      </c>
+      <c r="D24" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="K24" s="107"/>
+      <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="2"/>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
-      <c r="L26" s="2"/>
+    <row r="26" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="2"/>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="102"/>
+      <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44">
-        <v>0</v>
-      </c>
-      <c r="C28" s="19">
-        <v>4.92</v>
-      </c>
-      <c r="D28" s="19">
-        <v>5.31</v>
-      </c>
-      <c r="E28" s="19">
-        <v>4.99</v>
-      </c>
-      <c r="F28" s="56">
-        <f>(C28+D28+E28)/3</f>
-        <v>5.0733333333333333</v>
-      </c>
-      <c r="G28" s="55">
-        <f>MAX(C28-F28,D28-F28,E28-F28)*$S$3</f>
-        <v>0.23666666666666636</v>
-      </c>
-      <c r="H28" s="65">
-        <f>(G28/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
-        <v>4.0194746376811547E-3</v>
-      </c>
-      <c r="I28" s="51">
-        <f>$I$4</f>
-        <v>4.3410000000000002</v>
-      </c>
-      <c r="J28" s="57">
-        <f>(F32-F28)/I28/1</f>
-        <v>13.486907778545651</v>
-      </c>
-      <c r="L28" s="2"/>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="104"/>
+      <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="85">
-        <v>80</v>
-      </c>
-      <c r="C29" s="87">
-        <v>21.11</v>
-      </c>
-      <c r="D29" s="87">
-        <v>21.35</v>
-      </c>
-      <c r="E29" s="87">
-        <v>21.45</v>
-      </c>
-      <c r="F29" s="89">
-        <f t="shared" ref="F29:F32" si="10">(C29+D29+E29)/3</f>
-        <v>21.303333333333331</v>
-      </c>
-      <c r="G29" s="90">
-        <f t="shared" ref="G29:G32" si="11">MAX(C29-F29,D29-F29,E29-F29)*$S$3</f>
-        <v>0.14666666666666828</v>
-      </c>
-      <c r="H29" s="91">
-        <f>(G29/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
-        <v>2.4909420289855348E-3</v>
-      </c>
-      <c r="J29" s="47"/>
-      <c r="L29" s="2"/>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="105"/>
+      <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="45">
-        <v>160</v>
-      </c>
-      <c r="C30" s="9">
-        <v>37.9</v>
-      </c>
-      <c r="D30" s="9">
-        <v>37.85</v>
-      </c>
-      <c r="E30" s="9">
-        <v>37.9</v>
-      </c>
-      <c r="F30" s="58">
-        <f t="shared" si="10"/>
-        <v>37.883333333333333</v>
-      </c>
-      <c r="G30" s="56">
-        <f t="shared" si="11"/>
-        <v>1.6666666666665719E-2</v>
-      </c>
-      <c r="H30" s="60">
-        <f t="shared" ref="H30:H32" si="12">(G30/$S$3)/(MAX($C$28:$E$32)-MIN($C$28:$E$32))</f>
-        <v>2.8306159420288246E-4</v>
-      </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="105"/>
       <c r="M30" s="42"/>
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="85">
-        <v>240</v>
-      </c>
-      <c r="C31" s="87">
-        <v>53.56</v>
-      </c>
-      <c r="D31" s="87">
-        <v>53.72</v>
-      </c>
-      <c r="E31" s="87">
-        <v>53.84</v>
-      </c>
-      <c r="F31" s="89">
-        <f t="shared" si="10"/>
-        <v>53.706666666666671</v>
-      </c>
-      <c r="G31" s="90">
-        <f t="shared" si="11"/>
-        <v>0.13333333333333286</v>
-      </c>
-      <c r="H31" s="91">
-        <f t="shared" si="12"/>
-        <v>2.2644927536231807E-3</v>
-      </c>
-      <c r="J31" s="47"/>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="105"/>
     </row>
-    <row r="32" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="46">
-        <v>290</v>
-      </c>
-      <c r="C32" s="37">
-        <v>63.69</v>
-      </c>
-      <c r="D32" s="37">
-        <v>63.37</v>
-      </c>
-      <c r="E32" s="37">
-        <v>63.8</v>
-      </c>
-      <c r="F32" s="59">
-        <f t="shared" si="10"/>
-        <v>63.620000000000005</v>
-      </c>
-      <c r="G32" s="57">
-        <f t="shared" si="11"/>
-        <v>0.17999999999999261</v>
-      </c>
-      <c r="H32" s="63">
-        <f t="shared" si="12"/>
-        <v>3.0570652173911791E-3</v>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
+    <row r="32" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="105"/>
     </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33"/>
-      <c r="G33"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+      <c r="I33"/>
     </row>
-    <row r="34" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
+    <row r="34" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
     </row>
-    <row r="35" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="82" t="s">
-        <v>40</v>
-      </c>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
     </row>
-    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="52">
-        <v>0</v>
-      </c>
-      <c r="C36" s="15">
-        <v>-1.03</v>
-      </c>
-      <c r="D36" s="16">
-        <v>-1.28</v>
-      </c>
-      <c r="E36" s="66">
-        <v>-1.0900000000000001</v>
-      </c>
-      <c r="F36" s="56">
-        <f>(C36+D36+E36)/3</f>
-        <v>-1.1333333333333335</v>
-      </c>
-      <c r="G36" s="56">
-        <f>MAX(C36-F36,D36-F36,E36-F36)</f>
-        <v>0.1033333333333335</v>
-      </c>
-      <c r="H36" s="65">
-        <f>(G36)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
-        <v>3.5390551864283002E-4</v>
-      </c>
-      <c r="I36" s="70">
-        <f>F36-B36</f>
-        <v>-1.1333333333333335</v>
-      </c>
-      <c r="J36" s="64">
-        <f>(ABS(I36)+ABS(I37)+ABS(I38)+ABS(I39)+ABS(I40))/5</f>
-        <v>0.61000000000001242</v>
-      </c>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="34"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="107"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="96">
-        <v>80</v>
-      </c>
-      <c r="C37" s="92">
-        <v>80.45</v>
-      </c>
-      <c r="D37" s="93">
-        <v>80.290000000000006</v>
-      </c>
-      <c r="E37" s="94">
-        <v>80.25</v>
-      </c>
-      <c r="F37" s="89">
-        <f t="shared" ref="F37:F39" si="13">(C37+D37+E37)/3</f>
-        <v>80.33</v>
-      </c>
-      <c r="G37" s="89">
-        <f t="shared" ref="G37:G39" si="14">MAX(C37-F37,D37-F37,E37-F37)</f>
-        <v>0.12000000000000455</v>
-      </c>
-      <c r="H37" s="91">
-        <f t="shared" ref="H37:H39" si="15">(G37)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
-        <v>4.1098705390781753E-4</v>
-      </c>
-      <c r="I37" s="95">
-        <f t="shared" ref="I37:I40" si="16">F37-B37</f>
-        <v>0.32999999999999829</v>
-      </c>
-      <c r="J37" s="47"/>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="34"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="107"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="53">
-        <v>160</v>
-      </c>
-      <c r="C38" s="5">
-        <v>160.6</v>
-      </c>
-      <c r="D38" s="3">
-        <v>161.93</v>
-      </c>
-      <c r="E38" s="29">
-        <v>161.09</v>
-      </c>
-      <c r="F38" s="58">
-        <f t="shared" si="13"/>
-        <v>161.20666666666668</v>
-      </c>
-      <c r="G38" s="58">
-        <f t="shared" si="14"/>
-        <v>0.72333333333332916</v>
-      </c>
-      <c r="H38" s="60">
-        <f t="shared" si="15"/>
-        <v>2.4773386304997921E-3</v>
-      </c>
-      <c r="I38" s="71">
-        <f t="shared" si="16"/>
-        <v>1.2066666666666777</v>
-      </c>
-      <c r="J38" s="47"/>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="34"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="107"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="96">
-        <v>240</v>
-      </c>
-      <c r="C39" s="92">
-        <v>239.43</v>
-      </c>
-      <c r="D39" s="93">
-        <v>240.65</v>
-      </c>
-      <c r="E39" s="94">
-        <v>240.7</v>
-      </c>
-      <c r="F39" s="89">
-        <f t="shared" si="13"/>
-        <v>240.26</v>
-      </c>
-      <c r="G39" s="89">
-        <f t="shared" si="14"/>
-        <v>0.43999999999999773</v>
-      </c>
-      <c r="H39" s="91">
-        <f t="shared" si="15"/>
-        <v>1.506952530995266E-3</v>
-      </c>
-      <c r="I39" s="95">
-        <f t="shared" si="16"/>
-        <v>0.25999999999999091</v>
-      </c>
-      <c r="J39" s="47"/>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="34"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="107"/>
     </row>
-    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="54">
-        <v>290</v>
-      </c>
-      <c r="C40" s="28">
-        <v>289.5</v>
-      </c>
-      <c r="D40" s="6">
-        <v>290.16000000000003</v>
-      </c>
-      <c r="E40" s="40">
-        <v>290.7</v>
-      </c>
-      <c r="F40" s="59">
-        <f>(C40+D40+E40)/3</f>
-        <v>290.12000000000006</v>
-      </c>
-      <c r="G40" s="59">
-        <f>MAX(C40-F40,D40-F40,E40-F40)</f>
-        <v>0.57999999999992724</v>
-      </c>
-      <c r="H40" s="63">
-        <f>(G40)/((MAX($C$36:$E$40)-MIN($C$36:$E$40)))</f>
-        <v>1.9864374272207936E-3</v>
-      </c>
-      <c r="I40" s="72">
-        <f t="shared" si="16"/>
-        <v>0.12000000000006139</v>
-      </c>
-      <c r="J40" s="40"/>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="34"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B34:J34"/>
+  <mergeCells count="13">
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="39" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31981,15 +27150,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
@@ -32307,15 +27476,15 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="113"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
@@ -32637,6 +27806,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0c8a948-a8a2-431d-a436-e17f069363af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6b745cbd-a34e-432a-9900-41e3803aa2e9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -32645,7 +27825,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FD8BE65C2F837343AC2660C8B0889EAE" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b7eb9a75dd4706810b4c69081d8d48fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0c8a948-a8a2-431d-a436-e17f069363af" xmlns:ns3="6b745cbd-a34e-432a-9900-41e3803aa2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5420ca96eed7fa2cb1a1994b234afa6" ns2:_="" ns3:_="">
     <xsd:import namespace="c0c8a948-a8a2-431d-a436-e17f069363af"/>
@@ -32876,18 +28056,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0c8a948-a8a2-431d-a436-e17f069363af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6b745cbd-a34e-432a-9900-41e3803aa2e9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9C1C43-49EE-494C-B635-B785FB629686}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b745cbd-a34e-432a-9900-41e3803aa2e9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c0c8a948-a8a2-431d-a436-e17f069363af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CB14B-EEEA-4E1E-B623-D870A775B6DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -32895,7 +28081,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5FF9E8C-A979-49D8-B0D6-7BF035D44D87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32912,21 +28098,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9C1C43-49EE-494C-B635-B785FB629686}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6b745cbd-a34e-432a-9900-41e3803aa2e9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c0c8a948-a8a2-431d-a436-e17f069363af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>